--- a/Лист Microsoft Excel.xlsx
+++ b/Лист Microsoft Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\JavaScript\Neuronets\Neuronets-v2-6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D2C4FE-ED61-45BE-A455-7522D74D8FB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DB920D-CD10-4818-A430-1D10B753285B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="18990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1425" yWindow="2925" windowWidth="21600" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,35 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+  <si>
+    <t>W1=1</t>
+  </si>
+  <si>
+    <t>W2 = -2</t>
+  </si>
+  <si>
+    <t>X0</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>f(x)</t>
+  </si>
+  <si>
+    <t>&gt;&gt;0</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>&gt;&gt;1</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -82,10 +111,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -366,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:AC45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="V30" sqref="V30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,7 +433,7 @@
     <col min="22" max="22" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>2</v>
@@ -464,7 +499,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2</v>
       </c>
@@ -473,7 +508,7 @@
         <v>0.96083427720323566</v>
       </c>
       <c r="C2" s="2">
-        <f t="shared" ref="C2:V2" si="0">1/(1+EXP(-0.8*($A2+C1)))</f>
+        <f t="shared" ref="C2:U2" si="0">1/(1+EXP(-0.8*($A2+C1)))</f>
         <v>0.95434882921555619</v>
       </c>
       <c r="D2" s="2">
@@ -553,12 +588,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1.8</v>
       </c>
       <c r="B3" s="2">
-        <f t="shared" ref="B3:Q22" si="1">1/(1+EXP(-0.8*($A3+B$1)))</f>
+        <f t="shared" ref="B3:Q21" si="1">1/(1+EXP(-0.8*($A3+B$1)))</f>
         <v>0.95434882921555619</v>
       </c>
       <c r="C3" s="2">
@@ -642,7 +677,7 @@
         <v>0.46008511544443426</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1.6</v>
       </c>
@@ -731,7 +766,7 @@
         <v>0.42067574785125056</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1.4</v>
       </c>
@@ -820,7 +855,7 @@
         <v>0.38225212523075103</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1.2</v>
       </c>
@@ -909,7 +944,7 @@
         <v>0.34524653939368072</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -998,7 +1033,7 @@
         <v>0.31002551887238755</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>0.8</v>
       </c>
@@ -1087,7 +1122,7 @@
         <v>0.27687819487561016</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>0.6</v>
       </c>
@@ -1176,7 +1211,7 @@
         <v>0.24601128355105195</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>0.4</v>
       </c>
@@ -1265,7 +1300,7 @@
         <v>0.21755022357688744</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>0.2</v>
       </c>
@@ -1354,7 +1389,7 @@
         <v>0.19154534856146749</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>0</v>
       </c>
@@ -1443,7 +1478,7 @@
         <v>0.16798161486607552</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>-0.2</v>
       </c>
@@ -1532,7 +1567,7 @@
         <v>0.14679033980138237</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>-0.4</v>
       </c>
@@ -1621,7 +1656,7 @@
         <v>0.12786156631908133</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>-0.6</v>
       </c>
@@ -1709,8 +1744,14 @@
         <f t="shared" si="3"/>
         <v>0.11105596671140756</v>
       </c>
+      <c r="X15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>-0.8</v>
       </c>
@@ -1798,8 +1839,26 @@
         <f t="shared" si="3"/>
         <v>9.6215541710692867E-2</v>
       </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AB16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC16" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>-1</v>
       </c>
@@ -1887,8 +1946,20 @@
         <f t="shared" si="3"/>
         <v>8.3172696493922352E-2</v>
       </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <v>-2</v>
+      </c>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>-1.2</v>
       </c>
@@ -1977,7 +2048,7 @@
         <v>7.1757542263751306E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>-1.4</v>
       </c>
@@ -2030,7 +2101,7 @@
         <v>0.2175502235768875</v>
       </c>
       <c r="N19" s="2">
-        <f t="shared" si="4"/>
+        <f>1/(1+EXP(-0.8*($A19+N$1)))</f>
         <v>0.19154534856146752</v>
       </c>
       <c r="O19" s="2">
@@ -2065,8 +2136,14 @@
         <f t="shared" si="4"/>
         <v>6.1803466263588569E-2</v>
       </c>
+      <c r="X19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>-1.6</v>
       </c>
@@ -2154,8 +2231,26 @@
         <f t="shared" si="4"/>
         <v>5.3151136398063709E-2</v>
       </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>-1.8</v>
       </c>
@@ -2243,8 +2338,20 @@
         <f t="shared" si="4"/>
         <v>4.5651170784443723E-2</v>
       </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>-2</v>
       </c>
@@ -2333,7 +2440,1949 @@
         <v>3.9165722796764356E-2</v>
       </c>
     </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="N24" s="2">
+        <v>-0.4</v>
+      </c>
+      <c r="O24" s="2">
+        <v>-0.6</v>
+      </c>
+      <c r="P24" s="2">
+        <v>-0.8</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R24" s="2">
+        <v>-1.2</v>
+      </c>
+      <c r="S24" s="2">
+        <v>-1.4</v>
+      </c>
+      <c r="T24" s="2">
+        <v>-1.6</v>
+      </c>
+      <c r="U24" s="2">
+        <v>-1.8</v>
+      </c>
+      <c r="V24" s="2">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <f>1/(1+EXP(-0.8*($A25)))</f>
+        <v>0.83201838513392445</v>
+      </c>
+      <c r="C25">
+        <f>1/(1+EXP(-0.8*($A25)))</f>
+        <v>0.83201838513392445</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ref="D25:V39" si="5">1/(1+EXP(-0.8*($A25)))</f>
+        <v>0.83201838513392445</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="5"/>
+        <v>0.83201838513392445</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="5"/>
+        <v>0.83201838513392445</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="5"/>
+        <v>0.83201838513392445</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="5"/>
+        <v>0.83201838513392445</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="5"/>
+        <v>0.83201838513392445</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="5"/>
+        <v>0.83201838513392445</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="5"/>
+        <v>0.83201838513392445</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="5"/>
+        <v>0.83201838513392445</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="5"/>
+        <v>0.83201838513392445</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="5"/>
+        <v>0.83201838513392445</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="5"/>
+        <v>0.83201838513392445</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="5"/>
+        <v>0.83201838513392445</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="5"/>
+        <v>0.83201838513392445</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="5"/>
+        <v>0.83201838513392445</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="5"/>
+        <v>0.83201838513392445</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="5"/>
+        <v>0.83201838513392445</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="5"/>
+        <v>0.83201838513392445</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="5"/>
+        <v>0.83201838513392445</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ref="B26:Q45" si="6">1/(1+EXP(-0.8*($A26)))</f>
+        <v>0.80845465143853257</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="6"/>
+        <v>0.80845465143853257</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="6"/>
+        <v>0.80845465143853257</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="6"/>
+        <v>0.80845465143853257</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="6"/>
+        <v>0.80845465143853257</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="6"/>
+        <v>0.80845465143853257</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="6"/>
+        <v>0.80845465143853257</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="6"/>
+        <v>0.80845465143853257</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="6"/>
+        <v>0.80845465143853257</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="6"/>
+        <v>0.80845465143853257</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="6"/>
+        <v>0.80845465143853257</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="6"/>
+        <v>0.80845465143853257</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="6"/>
+        <v>0.80845465143853257</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="6"/>
+        <v>0.80845465143853257</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="6"/>
+        <v>0.80845465143853257</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="6"/>
+        <v>0.80845465143853257</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="5"/>
+        <v>0.80845465143853257</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="5"/>
+        <v>0.80845465143853257</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="5"/>
+        <v>0.80845465143853257</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="5"/>
+        <v>0.80845465143853257</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="5"/>
+        <v>0.80845465143853257</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="6"/>
+        <v>0.78244977642311242</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="6"/>
+        <v>0.78244977642311242</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="5"/>
+        <v>0.78244977642311242</v>
+      </c>
+      <c r="E27">
+        <f>1/(1+EXP(-0.8*($A27)))</f>
+        <v>0.78244977642311242</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="5"/>
+        <v>0.78244977642311242</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="5"/>
+        <v>0.78244977642311242</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="5"/>
+        <v>0.78244977642311242</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="5"/>
+        <v>0.78244977642311242</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="5"/>
+        <v>0.78244977642311242</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="5"/>
+        <v>0.78244977642311242</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="5"/>
+        <v>0.78244977642311242</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="5"/>
+        <v>0.78244977642311242</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="5"/>
+        <v>0.78244977642311242</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="5"/>
+        <v>0.78244977642311242</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="5"/>
+        <v>0.78244977642311242</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="5"/>
+        <v>0.78244977642311242</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="5"/>
+        <v>0.78244977642311242</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="5"/>
+        <v>0.78244977642311242</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="5"/>
+        <v>0.78244977642311242</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="5"/>
+        <v>0.78244977642311242</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="5"/>
+        <v>0.78244977642311242</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="6"/>
+        <v>0.75398871644894805</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="6"/>
+        <v>0.75398871644894805</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="5"/>
+        <v>0.75398871644894805</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="5"/>
+        <v>0.75398871644894805</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="5"/>
+        <v>0.75398871644894805</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="5"/>
+        <v>0.75398871644894805</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="5"/>
+        <v>0.75398871644894805</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="5"/>
+        <v>0.75398871644894805</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="5"/>
+        <v>0.75398871644894805</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="5"/>
+        <v>0.75398871644894805</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="5"/>
+        <v>0.75398871644894805</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="5"/>
+        <v>0.75398871644894805</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="5"/>
+        <v>0.75398871644894805</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="5"/>
+        <v>0.75398871644894805</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="5"/>
+        <v>0.75398871644894805</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="5"/>
+        <v>0.75398871644894805</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="5"/>
+        <v>0.75398871644894805</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="5"/>
+        <v>0.75398871644894805</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="5"/>
+        <v>0.75398871644894805</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="5"/>
+        <v>0.75398871644894805</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="5"/>
+        <v>0.75398871644894805</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="6"/>
+        <v>0.72312180512438984</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="6"/>
+        <v>0.72312180512438984</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="5"/>
+        <v>0.72312180512438984</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="5"/>
+        <v>0.72312180512438984</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="5"/>
+        <v>0.72312180512438984</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="5"/>
+        <v>0.72312180512438984</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="5"/>
+        <v>0.72312180512438984</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="5"/>
+        <v>0.72312180512438984</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="5"/>
+        <v>0.72312180512438984</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="5"/>
+        <v>0.72312180512438984</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="5"/>
+        <v>0.72312180512438984</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="5"/>
+        <v>0.72312180512438984</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="5"/>
+        <v>0.72312180512438984</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="5"/>
+        <v>0.72312180512438984</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="5"/>
+        <v>0.72312180512438984</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="5"/>
+        <v>0.72312180512438984</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="5"/>
+        <v>0.72312180512438984</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="5"/>
+        <v>0.72312180512438984</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="5"/>
+        <v>0.72312180512438984</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="5"/>
+        <v>0.72312180512438984</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="5"/>
+        <v>0.72312180512438984</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="6"/>
+        <v>0.6899744811276125</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="6"/>
+        <v>0.6899744811276125</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="5"/>
+        <v>0.6899744811276125</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="5"/>
+        <v>0.6899744811276125</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="5"/>
+        <v>0.6899744811276125</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="5"/>
+        <v>0.6899744811276125</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="5"/>
+        <v>0.6899744811276125</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="5"/>
+        <v>0.6899744811276125</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="5"/>
+        <v>0.6899744811276125</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="5"/>
+        <v>0.6899744811276125</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="5"/>
+        <v>0.6899744811276125</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="5"/>
+        <v>0.6899744811276125</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="5"/>
+        <v>0.6899744811276125</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="5"/>
+        <v>0.6899744811276125</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="5"/>
+        <v>0.6899744811276125</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="5"/>
+        <v>0.6899744811276125</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="5"/>
+        <v>0.6899744811276125</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="5"/>
+        <v>0.6899744811276125</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="5"/>
+        <v>0.6899744811276125</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="5"/>
+        <v>0.6899744811276125</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="5"/>
+        <v>0.6899744811276125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="6"/>
+        <v>0.65475346060631923</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="6"/>
+        <v>0.65475346060631923</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="5"/>
+        <v>0.65475346060631923</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="5"/>
+        <v>0.65475346060631923</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="5"/>
+        <v>0.65475346060631923</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="5"/>
+        <v>0.65475346060631923</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="5"/>
+        <v>0.65475346060631923</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="5"/>
+        <v>0.65475346060631923</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="5"/>
+        <v>0.65475346060631923</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="5"/>
+        <v>0.65475346060631923</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="5"/>
+        <v>0.65475346060631923</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="5"/>
+        <v>0.65475346060631923</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="5"/>
+        <v>0.65475346060631923</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="5"/>
+        <v>0.65475346060631923</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="5"/>
+        <v>0.65475346060631923</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="5"/>
+        <v>0.65475346060631923</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="5"/>
+        <v>0.65475346060631923</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="5"/>
+        <v>0.65475346060631923</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="5"/>
+        <v>0.65475346060631923</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="5"/>
+        <v>0.65475346060631923</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="5"/>
+        <v>0.65475346060631923</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="6"/>
+        <v>0.61774787476924897</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="6"/>
+        <v>0.61774787476924897</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="5"/>
+        <v>0.61774787476924897</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="5"/>
+        <v>0.61774787476924897</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="5"/>
+        <v>0.61774787476924897</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="5"/>
+        <v>0.61774787476924897</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="5"/>
+        <v>0.61774787476924897</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="5"/>
+        <v>0.61774787476924897</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="5"/>
+        <v>0.61774787476924897</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="5"/>
+        <v>0.61774787476924897</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="5"/>
+        <v>0.61774787476924897</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="5"/>
+        <v>0.61774787476924897</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="5"/>
+        <v>0.61774787476924897</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="5"/>
+        <v>0.61774787476924897</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="5"/>
+        <v>0.61774787476924897</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="5"/>
+        <v>0.61774787476924897</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="5"/>
+        <v>0.61774787476924897</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="5"/>
+        <v>0.61774787476924897</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="5"/>
+        <v>0.61774787476924897</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="5"/>
+        <v>0.61774787476924897</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="5"/>
+        <v>0.61774787476924897</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="6"/>
+        <v>0.5793242521487495</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="6"/>
+        <v>0.5793242521487495</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="5"/>
+        <v>0.5793242521487495</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="5"/>
+        <v>0.5793242521487495</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="5"/>
+        <v>0.5793242521487495</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="5"/>
+        <v>0.5793242521487495</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="5"/>
+        <v>0.5793242521487495</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="5"/>
+        <v>0.5793242521487495</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="5"/>
+        <v>0.5793242521487495</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="5"/>
+        <v>0.5793242521487495</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="5"/>
+        <v>0.5793242521487495</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="5"/>
+        <v>0.5793242521487495</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="5"/>
+        <v>0.5793242521487495</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="5"/>
+        <v>0.5793242521487495</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="5"/>
+        <v>0.5793242521487495</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="5"/>
+        <v>0.5793242521487495</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="5"/>
+        <v>0.5793242521487495</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="5"/>
+        <v>0.5793242521487495</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="5"/>
+        <v>0.5793242521487495</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="5"/>
+        <v>0.5793242521487495</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="5"/>
+        <v>0.5793242521487495</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="6"/>
+        <v>0.53991488455556569</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="6"/>
+        <v>0.53991488455556569</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="5"/>
+        <v>0.53991488455556569</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="5"/>
+        <v>0.53991488455556569</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="5"/>
+        <v>0.53991488455556569</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="5"/>
+        <v>0.53991488455556569</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="5"/>
+        <v>0.53991488455556569</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="5"/>
+        <v>0.53991488455556569</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="5"/>
+        <v>0.53991488455556569</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="5"/>
+        <v>0.53991488455556569</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="5"/>
+        <v>0.53991488455556569</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="5"/>
+        <v>0.53991488455556569</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="5"/>
+        <v>0.53991488455556569</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="5"/>
+        <v>0.53991488455556569</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="5"/>
+        <v>0.53991488455556569</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="5"/>
+        <v>0.53991488455556569</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="5"/>
+        <v>0.53991488455556569</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="5"/>
+        <v>0.53991488455556569</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="5"/>
+        <v>0.53991488455556569</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="5"/>
+        <v>0.53991488455556569</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="5"/>
+        <v>0.53991488455556569</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <f>1/(1+EXP(-0.8*($A35)))</f>
+        <v>0.5</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="6"/>
+        <v>0.46008511544443426</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="6"/>
+        <v>0.46008511544443426</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="5"/>
+        <v>0.46008511544443426</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="5"/>
+        <v>0.46008511544443426</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="5"/>
+        <v>0.46008511544443426</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="5"/>
+        <v>0.46008511544443426</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="5"/>
+        <v>0.46008511544443426</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="5"/>
+        <v>0.46008511544443426</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="5"/>
+        <v>0.46008511544443426</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="5"/>
+        <v>0.46008511544443426</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="5"/>
+        <v>0.46008511544443426</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="5"/>
+        <v>0.46008511544443426</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="5"/>
+        <v>0.46008511544443426</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="5"/>
+        <v>0.46008511544443426</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="5"/>
+        <v>0.46008511544443426</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="5"/>
+        <v>0.46008511544443426</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="5"/>
+        <v>0.46008511544443426</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="5"/>
+        <v>0.46008511544443426</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="5"/>
+        <v>0.46008511544443426</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="5"/>
+        <v>0.46008511544443426</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="5"/>
+        <v>0.46008511544443426</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>-0.4</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="6"/>
+        <v>0.42067574785125056</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="6"/>
+        <v>0.42067574785125056</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="5"/>
+        <v>0.42067574785125056</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="5"/>
+        <v>0.42067574785125056</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="5"/>
+        <v>0.42067574785125056</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="5"/>
+        <v>0.42067574785125056</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="5"/>
+        <v>0.42067574785125056</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="5"/>
+        <v>0.42067574785125056</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="5"/>
+        <v>0.42067574785125056</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="5"/>
+        <v>0.42067574785125056</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="5"/>
+        <v>0.42067574785125056</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="5"/>
+        <v>0.42067574785125056</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="5"/>
+        <v>0.42067574785125056</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="5"/>
+        <v>0.42067574785125056</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="5"/>
+        <v>0.42067574785125056</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="5"/>
+        <v>0.42067574785125056</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="5"/>
+        <v>0.42067574785125056</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="5"/>
+        <v>0.42067574785125056</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="5"/>
+        <v>0.42067574785125056</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="5"/>
+        <v>0.42067574785125056</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="5"/>
+        <v>0.42067574785125056</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>-0.6</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="6"/>
+        <v>0.38225212523075103</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="6"/>
+        <v>0.38225212523075103</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="5"/>
+        <v>0.38225212523075103</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="5"/>
+        <v>0.38225212523075103</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="5"/>
+        <v>0.38225212523075103</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="5"/>
+        <v>0.38225212523075103</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="5"/>
+        <v>0.38225212523075103</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="5"/>
+        <v>0.38225212523075103</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="5"/>
+        <v>0.38225212523075103</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="5"/>
+        <v>0.38225212523075103</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="5"/>
+        <v>0.38225212523075103</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="5"/>
+        <v>0.38225212523075103</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="5"/>
+        <v>0.38225212523075103</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="5"/>
+        <v>0.38225212523075103</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="5"/>
+        <v>0.38225212523075103</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="5"/>
+        <v>0.38225212523075103</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="5"/>
+        <v>0.38225212523075103</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="5"/>
+        <v>0.38225212523075103</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="5"/>
+        <v>0.38225212523075103</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="5"/>
+        <v>0.38225212523075103</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="5"/>
+        <v>0.38225212523075103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>-0.8</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="6"/>
+        <v>0.34524653939368072</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="6"/>
+        <v>0.34524653939368072</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="5"/>
+        <v>0.34524653939368072</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="5"/>
+        <v>0.34524653939368072</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="5"/>
+        <v>0.34524653939368072</v>
+      </c>
+      <c r="G39">
+        <f t="shared" ref="D39:V45" si="7">1/(1+EXP(-0.8*($A39)))</f>
+        <v>0.34524653939368072</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="7"/>
+        <v>0.34524653939368072</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="7"/>
+        <v>0.34524653939368072</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="7"/>
+        <v>0.34524653939368072</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="7"/>
+        <v>0.34524653939368072</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="7"/>
+        <v>0.34524653939368072</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="7"/>
+        <v>0.34524653939368072</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="7"/>
+        <v>0.34524653939368072</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="7"/>
+        <v>0.34524653939368072</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="7"/>
+        <v>0.34524653939368072</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="7"/>
+        <v>0.34524653939368072</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="7"/>
+        <v>0.34524653939368072</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="7"/>
+        <v>0.34524653939368072</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="7"/>
+        <v>0.34524653939368072</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="7"/>
+        <v>0.34524653939368072</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="7"/>
+        <v>0.34524653939368072</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="6"/>
+        <v>0.31002551887238755</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="6"/>
+        <v>0.31002551887238755</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="7"/>
+        <v>0.31002551887238755</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="7"/>
+        <v>0.31002551887238755</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="7"/>
+        <v>0.31002551887238755</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="7"/>
+        <v>0.31002551887238755</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="7"/>
+        <v>0.31002551887238755</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="7"/>
+        <v>0.31002551887238755</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="7"/>
+        <v>0.31002551887238755</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="7"/>
+        <v>0.31002551887238755</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="7"/>
+        <v>0.31002551887238755</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="7"/>
+        <v>0.31002551887238755</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="7"/>
+        <v>0.31002551887238755</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="7"/>
+        <v>0.31002551887238755</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="7"/>
+        <v>0.31002551887238755</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="7"/>
+        <v>0.31002551887238755</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="7"/>
+        <v>0.31002551887238755</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="7"/>
+        <v>0.31002551887238755</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="7"/>
+        <v>0.31002551887238755</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="7"/>
+        <v>0.31002551887238755</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="7"/>
+        <v>0.31002551887238755</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>-1.2</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="6"/>
+        <v>0.27687819487561016</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="6"/>
+        <v>0.27687819487561016</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="7"/>
+        <v>0.27687819487561016</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="7"/>
+        <v>0.27687819487561016</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="7"/>
+        <v>0.27687819487561016</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="7"/>
+        <v>0.27687819487561016</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="7"/>
+        <v>0.27687819487561016</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="7"/>
+        <v>0.27687819487561016</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="7"/>
+        <v>0.27687819487561016</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="7"/>
+        <v>0.27687819487561016</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="7"/>
+        <v>0.27687819487561016</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="7"/>
+        <v>0.27687819487561016</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="7"/>
+        <v>0.27687819487561016</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="7"/>
+        <v>0.27687819487561016</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="7"/>
+        <v>0.27687819487561016</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="7"/>
+        <v>0.27687819487561016</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="7"/>
+        <v>0.27687819487561016</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="7"/>
+        <v>0.27687819487561016</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="7"/>
+        <v>0.27687819487561016</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="7"/>
+        <v>0.27687819487561016</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="7"/>
+        <v>0.27687819487561016</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>-1.4</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="6"/>
+        <v>0.24601128355105195</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="6"/>
+        <v>0.24601128355105195</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="7"/>
+        <v>0.24601128355105195</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="7"/>
+        <v>0.24601128355105195</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="7"/>
+        <v>0.24601128355105195</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="7"/>
+        <v>0.24601128355105195</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="7"/>
+        <v>0.24601128355105195</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="7"/>
+        <v>0.24601128355105195</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="7"/>
+        <v>0.24601128355105195</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="7"/>
+        <v>0.24601128355105195</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="7"/>
+        <v>0.24601128355105195</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="7"/>
+        <v>0.24601128355105195</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="7"/>
+        <v>0.24601128355105195</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="7"/>
+        <v>0.24601128355105195</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="7"/>
+        <v>0.24601128355105195</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="7"/>
+        <v>0.24601128355105195</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="7"/>
+        <v>0.24601128355105195</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="7"/>
+        <v>0.24601128355105195</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="7"/>
+        <v>0.24601128355105195</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="7"/>
+        <v>0.24601128355105195</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="7"/>
+        <v>0.24601128355105195</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>-1.6</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="6"/>
+        <v>0.21755022357688744</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="6"/>
+        <v>0.21755022357688744</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="7"/>
+        <v>0.21755022357688744</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="7"/>
+        <v>0.21755022357688744</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="7"/>
+        <v>0.21755022357688744</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="7"/>
+        <v>0.21755022357688744</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="7"/>
+        <v>0.21755022357688744</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="7"/>
+        <v>0.21755022357688744</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="7"/>
+        <v>0.21755022357688744</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="7"/>
+        <v>0.21755022357688744</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="7"/>
+        <v>0.21755022357688744</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="7"/>
+        <v>0.21755022357688744</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="7"/>
+        <v>0.21755022357688744</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="7"/>
+        <v>0.21755022357688744</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="7"/>
+        <v>0.21755022357688744</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="7"/>
+        <v>0.21755022357688744</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="7"/>
+        <v>0.21755022357688744</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="7"/>
+        <v>0.21755022357688744</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="7"/>
+        <v>0.21755022357688744</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="7"/>
+        <v>0.21755022357688744</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="7"/>
+        <v>0.21755022357688744</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>-1.8</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="6"/>
+        <v>0.19154534856146749</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="6"/>
+        <v>0.19154534856146749</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="7"/>
+        <v>0.19154534856146749</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="7"/>
+        <v>0.19154534856146749</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="7"/>
+        <v>0.19154534856146749</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="7"/>
+        <v>0.19154534856146749</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="7"/>
+        <v>0.19154534856146749</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="7"/>
+        <v>0.19154534856146749</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="7"/>
+        <v>0.19154534856146749</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="7"/>
+        <v>0.19154534856146749</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="7"/>
+        <v>0.19154534856146749</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="7"/>
+        <v>0.19154534856146749</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="7"/>
+        <v>0.19154534856146749</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="7"/>
+        <v>0.19154534856146749</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="7"/>
+        <v>0.19154534856146749</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="7"/>
+        <v>0.19154534856146749</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="7"/>
+        <v>0.19154534856146749</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="7"/>
+        <v>0.19154534856146749</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="7"/>
+        <v>0.19154534856146749</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="7"/>
+        <v>0.19154534856146749</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="7"/>
+        <v>0.19154534856146749</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>-2</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="6"/>
+        <v>0.16798161486607552</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="6"/>
+        <v>0.16798161486607552</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="7"/>
+        <v>0.16798161486607552</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="7"/>
+        <v>0.16798161486607552</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="7"/>
+        <v>0.16798161486607552</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="7"/>
+        <v>0.16798161486607552</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="7"/>
+        <v>0.16798161486607552</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="7"/>
+        <v>0.16798161486607552</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="7"/>
+        <v>0.16798161486607552</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="7"/>
+        <v>0.16798161486607552</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="7"/>
+        <v>0.16798161486607552</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="7"/>
+        <v>0.16798161486607552</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="7"/>
+        <v>0.16798161486607552</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="7"/>
+        <v>0.16798161486607552</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="7"/>
+        <v>0.16798161486607552</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="7"/>
+        <v>0.16798161486607552</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="7"/>
+        <v>0.16798161486607552</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="7"/>
+        <v>0.16798161486607552</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="7"/>
+        <v>0.16798161486607552</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="7"/>
+        <v>0.16798161486607552</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="7"/>
+        <v>0.16798161486607552</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="AA16:AA17"/>
+    <mergeCell ref="AB16:AB17"/>
+    <mergeCell ref="AC16:AC17"/>
+    <mergeCell ref="AA20:AA21"/>
+    <mergeCell ref="AB20:AB21"/>
+    <mergeCell ref="AC20:AC21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Лист Microsoft Excel.xlsx
+++ b/Лист Microsoft Excel.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\JavaScript\Neuronets\Neuronets-v2-6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Program\Neuronets\Neuronets-v2-6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DB920D-CD10-4818-A430-1D10B753285B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="2925" windowWidth="21600" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1425" yWindow="2925" windowWidth="21600" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,7 +53,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -400,11 +399,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="V30" sqref="V30"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Лист Microsoft Excel.xlsx
+++ b/Лист Microsoft Excel.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Program\Neuronets\Neuronets-v2-6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\JavaScript\Neuronets\Neuronets-v2-6\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40008218-E65F-478F-8C75-98F406B791EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="2925" windowWidth="21600" windowHeight="12600"/>
+    <workbookView xWindow="4740" yWindow="1725" windowWidth="23445" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -63,7 +64,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -79,6 +80,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -110,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -120,6 +145,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -399,11 +437,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,6 +468,7 @@
     <col min="20" max="20" width="7.140625" customWidth="1"/>
     <col min="21" max="21" width="8.42578125" customWidth="1"/>
     <col min="22" max="22" width="9.140625" customWidth="1"/>
+    <col min="25" max="25" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -502,7 +541,7 @@
       <c r="A2" s="2">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="5">
         <f>1/(1+EXP(-0.8*($A2+B$1)))</f>
         <v>0.96083427720323566</v>
       </c>
@@ -764,6 +803,10 @@
         <f t="shared" si="2"/>
         <v>0.42067574785125056</v>
       </c>
+      <c r="AA4" s="6">
+        <f>MAX(B2:V22)</f>
+        <v>0.96083427720323566</v>
+      </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -853,6 +896,9 @@
         <f t="shared" si="2"/>
         <v>0.38225212523075103</v>
       </c>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -941,6 +987,10 @@
       <c r="V6" s="2">
         <f t="shared" si="3"/>
         <v>0.34524653939368072</v>
+      </c>
+      <c r="AA6" s="12">
+        <f>MIN(B2:V22)</f>
+        <v>3.9165722796764356E-2</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -2434,7 +2484,7 @@
         <f t="shared" si="4"/>
         <v>4.5651170784443723E-2</v>
       </c>
-      <c r="V22" s="2">
+      <c r="V22" s="13">
         <f t="shared" si="4"/>
         <v>3.9165722796764356E-2</v>
       </c>
@@ -2508,87 +2558,87 @@
       <c r="A25" s="2">
         <v>2</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="6">
         <f>1/(1+EXP(-0.8*($A25)))</f>
         <v>0.83201838513392445</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="6">
         <f>1/(1+EXP(-0.8*($A25)))</f>
         <v>0.83201838513392445</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="6">
         <f t="shared" ref="D25:V39" si="5">1/(1+EXP(-0.8*($A25)))</f>
         <v>0.83201838513392445</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="6">
         <f t="shared" si="5"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="6">
         <f t="shared" si="5"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="6">
         <f t="shared" si="5"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="6">
         <f t="shared" si="5"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="6">
         <f t="shared" si="5"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="6">
         <f t="shared" si="5"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="6">
         <f t="shared" si="5"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="6">
         <f t="shared" si="5"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="6">
         <f t="shared" si="5"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="6">
         <f t="shared" si="5"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="6">
         <f t="shared" si="5"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="6">
         <f t="shared" si="5"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="6">
         <f t="shared" si="5"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="6">
         <f t="shared" si="5"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="S25">
+      <c r="S25" s="6">
         <f t="shared" si="5"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="T25">
+      <c r="T25" s="6">
         <f t="shared" si="5"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="U25">
+      <c r="U25" s="6">
         <f t="shared" si="5"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="V25">
+      <c r="V25" s="6">
         <f t="shared" si="5"/>
         <v>0.83201838513392445</v>
       </c>
@@ -3126,6 +3176,15 @@
         <f t="shared" si="5"/>
         <v>0.65475346060631923</v>
       </c>
+      <c r="Y31" s="10">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="Z31" s="10">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="AA31" s="10">
+        <v>0.83199999999999996</v>
+      </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
@@ -3215,8 +3274,11 @@
         <f t="shared" si="5"/>
         <v>0.61774787476924897</v>
       </c>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="9"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>0.4</v>
       </c>
@@ -3304,8 +3366,17 @@
         <f t="shared" si="5"/>
         <v>0.5793242521487495</v>
       </c>
+      <c r="Y33" s="11">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="Z33" s="11">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="AA33" s="11">
+        <v>0.16800000000000001</v>
+      </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>0.2</v>
       </c>
@@ -3394,7 +3465,7 @@
         <v>0.53991488455556569</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>0</v>
       </c>
@@ -3483,7 +3554,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>-0.2</v>
       </c>
@@ -3572,7 +3643,7 @@
         <v>0.46008511544443426</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>-0.4</v>
       </c>
@@ -3661,7 +3732,7 @@
         <v>0.42067574785125056</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>-0.6</v>
       </c>
@@ -3750,7 +3821,7 @@
         <v>0.38225212523075103</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>-0.8</v>
       </c>
@@ -3839,7 +3910,7 @@
         <v>0.34524653939368072</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>-1</v>
       </c>
@@ -3928,7 +3999,7 @@
         <v>0.31002551887238755</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>-1.2</v>
       </c>
@@ -4017,7 +4088,7 @@
         <v>0.27687819487561016</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>-1.4</v>
       </c>
@@ -4106,7 +4177,7 @@
         <v>0.24601128355105195</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>-1.6</v>
       </c>
@@ -4195,7 +4266,7 @@
         <v>0.21755022357688744</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>-1.8</v>
       </c>
@@ -4284,91 +4355,91 @@
         <v>0.19154534856146749</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>-2</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="8">
         <f t="shared" si="6"/>
         <v>0.16798161486607552</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="8">
         <f t="shared" si="6"/>
         <v>0.16798161486607552</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="8">
         <f t="shared" si="7"/>
         <v>0.16798161486607552</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="8">
         <f t="shared" si="7"/>
         <v>0.16798161486607552</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="8">
         <f t="shared" si="7"/>
         <v>0.16798161486607552</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="8">
         <f t="shared" si="7"/>
         <v>0.16798161486607552</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="8">
         <f t="shared" si="7"/>
         <v>0.16798161486607552</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="8">
         <f t="shared" si="7"/>
         <v>0.16798161486607552</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="8">
         <f t="shared" si="7"/>
         <v>0.16798161486607552</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="8">
         <f t="shared" si="7"/>
         <v>0.16798161486607552</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="8">
         <f t="shared" si="7"/>
         <v>0.16798161486607552</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="8">
         <f t="shared" si="7"/>
         <v>0.16798161486607552</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="8">
         <f t="shared" si="7"/>
         <v>0.16798161486607552</v>
       </c>
-      <c r="O45">
+      <c r="O45" s="8">
         <f t="shared" si="7"/>
         <v>0.16798161486607552</v>
       </c>
-      <c r="P45">
+      <c r="P45" s="8">
         <f t="shared" si="7"/>
         <v>0.16798161486607552</v>
       </c>
-      <c r="Q45">
+      <c r="Q45" s="8">
         <f t="shared" si="7"/>
         <v>0.16798161486607552</v>
       </c>
-      <c r="R45">
+      <c r="R45" s="8">
         <f t="shared" si="7"/>
         <v>0.16798161486607552</v>
       </c>
-      <c r="S45">
+      <c r="S45" s="8">
         <f t="shared" si="7"/>
         <v>0.16798161486607552</v>
       </c>
-      <c r="T45">
+      <c r="T45" s="8">
         <f t="shared" si="7"/>
         <v>0.16798161486607552</v>
       </c>
-      <c r="U45">
+      <c r="U45" s="8">
         <f t="shared" si="7"/>
         <v>0.16798161486607552</v>
       </c>
-      <c r="V45">
+      <c r="V45" s="8">
         <f t="shared" si="7"/>
         <v>0.16798161486607552</v>
       </c>

--- a/Лист Microsoft Excel.xlsx
+++ b/Лист Microsoft Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\JavaScript\Neuronets\Neuronets-v2-6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40008218-E65F-478F-8C75-98F406B791EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34288EF0-8951-4A38-AD59-8FE48BE368C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4740" yWindow="1725" windowWidth="23445" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -142,9 +142,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -158,6 +155,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -440,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,7 +541,7 @@
       <c r="A2" s="2">
         <v>2</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <f>1/(1+EXP(-0.8*($A2+B$1)))</f>
         <v>0.96083427720323566</v>
       </c>
@@ -803,7 +803,7 @@
         <f t="shared" si="2"/>
         <v>0.42067574785125056</v>
       </c>
-      <c r="AA4" s="6">
+      <c r="AA4" s="5">
         <f>MAX(B2:V22)</f>
         <v>0.96083427720323566</v>
       </c>
@@ -896,9 +896,9 @@
         <f t="shared" si="2"/>
         <v>0.38225212523075103</v>
       </c>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -988,7 +988,7 @@
         <f t="shared" si="3"/>
         <v>0.34524653939368072</v>
       </c>
-      <c r="AA6" s="12">
+      <c r="AA6" s="11">
         <f>MIN(B2:V22)</f>
         <v>3.9165722796764356E-2</v>
       </c>
@@ -1897,13 +1897,13 @@
       <c r="Z16">
         <v>1</v>
       </c>
-      <c r="AA16" s="4">
+      <c r="AA16" s="13">
         <v>-1</v>
       </c>
-      <c r="AB16" s="4" t="s">
+      <c r="AB16" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="AC16" s="4" t="s">
+      <c r="AC16" s="13" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2004,9 +2004,9 @@
       <c r="Z17">
         <v>-2</v>
       </c>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -2289,13 +2289,13 @@
       <c r="Z20">
         <v>1</v>
       </c>
-      <c r="AA20" s="4">
+      <c r="AA20" s="13">
         <v>1</v>
       </c>
-      <c r="AB20" s="4" t="s">
+      <c r="AB20" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="AC20" s="4" t="s">
+      <c r="AC20" s="13" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2396,9 +2396,9 @@
       <c r="Z21">
         <v>0</v>
       </c>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -2484,7 +2484,7 @@
         <f t="shared" si="4"/>
         <v>4.5651170784443723E-2</v>
       </c>
-      <c r="V22" s="13">
+      <c r="V22" s="12">
         <f t="shared" si="4"/>
         <v>3.9165722796764356E-2</v>
       </c>
@@ -2558,87 +2558,87 @@
       <c r="A25" s="2">
         <v>2</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <f>1/(1+EXP(-0.8*($A25)))</f>
         <v>0.83201838513392445</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <f>1/(1+EXP(-0.8*($A25)))</f>
         <v>0.83201838513392445</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <f t="shared" ref="D25:V39" si="5">1/(1+EXP(-0.8*($A25)))</f>
         <v>0.83201838513392445</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <f t="shared" si="5"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <f t="shared" si="5"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <f t="shared" si="5"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="5">
         <f t="shared" si="5"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="5">
         <f t="shared" si="5"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="5">
         <f t="shared" si="5"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="5">
         <f t="shared" si="5"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25" s="5">
         <f t="shared" si="5"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M25" s="5">
         <f t="shared" si="5"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="N25" s="6">
+      <c r="N25" s="5">
         <f t="shared" si="5"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="O25" s="6">
+      <c r="O25" s="5">
         <f t="shared" si="5"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="P25" s="6">
+      <c r="P25" s="5">
         <f t="shared" si="5"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="Q25" s="6">
+      <c r="Q25" s="5">
         <f t="shared" si="5"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="R25" s="6">
+      <c r="R25" s="5">
         <f t="shared" si="5"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="S25" s="6">
+      <c r="S25" s="5">
         <f t="shared" si="5"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="T25" s="6">
+      <c r="T25" s="5">
         <f t="shared" si="5"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="U25" s="6">
+      <c r="U25" s="5">
         <f t="shared" si="5"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="V25" s="6">
+      <c r="V25" s="5">
         <f t="shared" si="5"/>
         <v>0.83201838513392445</v>
       </c>
@@ -3176,13 +3176,13 @@
         <f t="shared" si="5"/>
         <v>0.65475346060631923</v>
       </c>
-      <c r="Y31" s="10">
+      <c r="Y31" s="9">
         <v>0.83199999999999996</v>
       </c>
-      <c r="Z31" s="10">
+      <c r="Z31" s="9">
         <v>0.83199999999999996</v>
       </c>
-      <c r="AA31" s="10">
+      <c r="AA31" s="9">
         <v>0.83199999999999996</v>
       </c>
     </row>
@@ -3274,9 +3274,9 @@
         <f t="shared" si="5"/>
         <v>0.61774787476924897</v>
       </c>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="9"/>
-      <c r="AA32" s="9"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
@@ -3366,13 +3366,13 @@
         <f t="shared" si="5"/>
         <v>0.5793242521487495</v>
       </c>
-      <c r="Y33" s="11">
+      <c r="Y33" s="10">
         <v>0.16800000000000001</v>
       </c>
-      <c r="Z33" s="11">
+      <c r="Z33" s="10">
         <v>0.16800000000000001</v>
       </c>
-      <c r="AA33" s="11">
+      <c r="AA33" s="10">
         <v>0.16800000000000001</v>
       </c>
     </row>
@@ -4359,87 +4359,87 @@
       <c r="A45" s="2">
         <v>-2</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="7">
         <f t="shared" si="6"/>
         <v>0.16798161486607552</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="7">
         <f t="shared" si="6"/>
         <v>0.16798161486607552</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="7">
         <f t="shared" si="7"/>
         <v>0.16798161486607552</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="7">
         <f t="shared" si="7"/>
         <v>0.16798161486607552</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F45" s="7">
         <f t="shared" si="7"/>
         <v>0.16798161486607552</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G45" s="7">
         <f t="shared" si="7"/>
         <v>0.16798161486607552</v>
       </c>
-      <c r="H45" s="8">
+      <c r="H45" s="7">
         <f t="shared" si="7"/>
         <v>0.16798161486607552</v>
       </c>
-      <c r="I45" s="8">
+      <c r="I45" s="7">
         <f t="shared" si="7"/>
         <v>0.16798161486607552</v>
       </c>
-      <c r="J45" s="8">
+      <c r="J45" s="7">
         <f t="shared" si="7"/>
         <v>0.16798161486607552</v>
       </c>
-      <c r="K45" s="8">
+      <c r="K45" s="7">
         <f t="shared" si="7"/>
         <v>0.16798161486607552</v>
       </c>
-      <c r="L45" s="8">
+      <c r="L45" s="7">
         <f t="shared" si="7"/>
         <v>0.16798161486607552</v>
       </c>
-      <c r="M45" s="8">
+      <c r="M45" s="7">
         <f t="shared" si="7"/>
         <v>0.16798161486607552</v>
       </c>
-      <c r="N45" s="8">
+      <c r="N45" s="7">
         <f t="shared" si="7"/>
         <v>0.16798161486607552</v>
       </c>
-      <c r="O45" s="8">
+      <c r="O45" s="7">
         <f t="shared" si="7"/>
         <v>0.16798161486607552</v>
       </c>
-      <c r="P45" s="8">
+      <c r="P45" s="7">
         <f t="shared" si="7"/>
         <v>0.16798161486607552</v>
       </c>
-      <c r="Q45" s="8">
+      <c r="Q45" s="7">
         <f t="shared" si="7"/>
         <v>0.16798161486607552</v>
       </c>
-      <c r="R45" s="8">
+      <c r="R45" s="7">
         <f t="shared" si="7"/>
         <v>0.16798161486607552</v>
       </c>
-      <c r="S45" s="8">
+      <c r="S45" s="7">
         <f t="shared" si="7"/>
         <v>0.16798161486607552</v>
       </c>
-      <c r="T45" s="8">
+      <c r="T45" s="7">
         <f t="shared" si="7"/>
         <v>0.16798161486607552</v>
       </c>
-      <c r="U45" s="8">
+      <c r="U45" s="7">
         <f t="shared" si="7"/>
         <v>0.16798161486607552</v>
       </c>
-      <c r="V45" s="8">
+      <c r="V45" s="7">
         <f t="shared" si="7"/>
         <v>0.16798161486607552</v>
       </c>

--- a/Лист Microsoft Excel.xlsx
+++ b/Лист Microsoft Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\JavaScript\Neuronets\Neuronets-v2-6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34288EF0-8951-4A38-AD59-8FE48BE368C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C78D309-901C-4926-8124-D295D4A15A9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="1725" windowWidth="23445" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3690" yWindow="1350" windowWidth="23445" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,6 +107,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -135,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -145,7 +157,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -158,6 +169,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -438,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC45"/>
+  <dimension ref="A1:AC67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA6" sqref="AA6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R31" sqref="R30:R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,7 +1001,7 @@
         <f t="shared" si="3"/>
         <v>0.34524653939368072</v>
       </c>
-      <c r="AA6" s="11">
+      <c r="AA6" s="10">
         <f>MIN(B2:V22)</f>
         <v>3.9165722796764356E-2</v>
       </c>
@@ -1897,13 +1910,13 @@
       <c r="Z16">
         <v>1</v>
       </c>
-      <c r="AA16" s="13">
+      <c r="AA16" s="12">
         <v>-1</v>
       </c>
-      <c r="AB16" s="13" t="s">
+      <c r="AB16" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AC16" s="13" t="s">
+      <c r="AC16" s="12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2004,9 +2017,9 @@
       <c r="Z17">
         <v>-2</v>
       </c>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
-      <c r="AC17" s="13"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -2289,13 +2302,13 @@
       <c r="Z20">
         <v>1</v>
       </c>
-      <c r="AA20" s="13">
+      <c r="AA20" s="12">
         <v>1</v>
       </c>
-      <c r="AB20" s="13" t="s">
+      <c r="AB20" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AC20" s="13" t="s">
+      <c r="AC20" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2396,9 +2409,9 @@
       <c r="Z21">
         <v>0</v>
       </c>
-      <c r="AA21" s="13"/>
-      <c r="AB21" s="13"/>
-      <c r="AC21" s="13"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="12"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -2484,7 +2497,7 @@
         <f t="shared" si="4"/>
         <v>4.5651170784443723E-2</v>
       </c>
-      <c r="V22" s="12">
+      <c r="V22" s="11">
         <f t="shared" si="4"/>
         <v>3.9165722796764356E-2</v>
       </c>
@@ -2558,631 +2571,631 @@
       <c r="A25" s="2">
         <v>2</v>
       </c>
-      <c r="B25" s="5">
-        <f>1/(1+EXP(-0.8*($A25)))</f>
-        <v>0.83201838513392445</v>
-      </c>
-      <c r="C25" s="5">
-        <f>1/(1+EXP(-0.8*($A25)))</f>
-        <v>0.83201838513392445</v>
-      </c>
-      <c r="D25" s="5">
-        <f t="shared" ref="D25:V39" si="5">1/(1+EXP(-0.8*($A25)))</f>
-        <v>0.83201838513392445</v>
-      </c>
-      <c r="E25" s="5">
-        <f t="shared" si="5"/>
-        <v>0.83201838513392445</v>
-      </c>
-      <c r="F25" s="5">
-        <f t="shared" si="5"/>
-        <v>0.83201838513392445</v>
-      </c>
-      <c r="G25" s="5">
-        <f t="shared" si="5"/>
-        <v>0.83201838513392445</v>
-      </c>
-      <c r="H25" s="5">
-        <f t="shared" si="5"/>
-        <v>0.83201838513392445</v>
-      </c>
-      <c r="I25" s="5">
-        <f t="shared" si="5"/>
-        <v>0.83201838513392445</v>
-      </c>
-      <c r="J25" s="5">
-        <f t="shared" si="5"/>
-        <v>0.83201838513392445</v>
-      </c>
-      <c r="K25" s="5">
-        <f t="shared" si="5"/>
-        <v>0.83201838513392445</v>
-      </c>
-      <c r="L25" s="5">
-        <f t="shared" si="5"/>
-        <v>0.83201838513392445</v>
-      </c>
-      <c r="M25" s="5">
-        <f t="shared" si="5"/>
-        <v>0.83201838513392445</v>
-      </c>
-      <c r="N25" s="5">
-        <f t="shared" si="5"/>
-        <v>0.83201838513392445</v>
-      </c>
-      <c r="O25" s="5">
-        <f t="shared" si="5"/>
-        <v>0.83201838513392445</v>
-      </c>
-      <c r="P25" s="5">
-        <f t="shared" si="5"/>
-        <v>0.83201838513392445</v>
-      </c>
-      <c r="Q25" s="5">
-        <f t="shared" si="5"/>
-        <v>0.83201838513392445</v>
-      </c>
-      <c r="R25" s="5">
-        <f t="shared" si="5"/>
-        <v>0.83201838513392445</v>
-      </c>
-      <c r="S25" s="5">
-        <f t="shared" si="5"/>
-        <v>0.83201838513392445</v>
-      </c>
-      <c r="T25" s="5">
-        <f t="shared" si="5"/>
-        <v>0.83201838513392445</v>
-      </c>
-      <c r="U25" s="5">
-        <f t="shared" si="5"/>
-        <v>0.83201838513392445</v>
-      </c>
-      <c r="V25" s="5">
-        <f t="shared" si="5"/>
-        <v>0.83201838513392445</v>
+      <c r="B25" s="13">
+        <f>1-1/(1+EXP(-0.8*($A25)))</f>
+        <v>0.16798161486607555</v>
+      </c>
+      <c r="C25" s="13">
+        <f t="shared" ref="C25:V37" si="5">1-1/(1+EXP(-0.8*($A25)))</f>
+        <v>0.16798161486607555</v>
+      </c>
+      <c r="D25" s="13">
+        <f t="shared" si="5"/>
+        <v>0.16798161486607555</v>
+      </c>
+      <c r="E25" s="13">
+        <f t="shared" si="5"/>
+        <v>0.16798161486607555</v>
+      </c>
+      <c r="F25" s="13">
+        <f t="shared" si="5"/>
+        <v>0.16798161486607555</v>
+      </c>
+      <c r="G25" s="13">
+        <f t="shared" si="5"/>
+        <v>0.16798161486607555</v>
+      </c>
+      <c r="H25" s="13">
+        <f t="shared" si="5"/>
+        <v>0.16798161486607555</v>
+      </c>
+      <c r="I25" s="13">
+        <f t="shared" si="5"/>
+        <v>0.16798161486607555</v>
+      </c>
+      <c r="J25" s="13">
+        <f t="shared" si="5"/>
+        <v>0.16798161486607555</v>
+      </c>
+      <c r="K25" s="13">
+        <f t="shared" si="5"/>
+        <v>0.16798161486607555</v>
+      </c>
+      <c r="L25" s="13">
+        <f t="shared" si="5"/>
+        <v>0.16798161486607555</v>
+      </c>
+      <c r="M25" s="13">
+        <f t="shared" si="5"/>
+        <v>0.16798161486607555</v>
+      </c>
+      <c r="N25" s="13">
+        <f t="shared" si="5"/>
+        <v>0.16798161486607555</v>
+      </c>
+      <c r="O25" s="13">
+        <f t="shared" si="5"/>
+        <v>0.16798161486607555</v>
+      </c>
+      <c r="P25" s="13">
+        <f t="shared" si="5"/>
+        <v>0.16798161486607555</v>
+      </c>
+      <c r="Q25" s="13">
+        <f t="shared" si="5"/>
+        <v>0.16798161486607555</v>
+      </c>
+      <c r="R25" s="13">
+        <f t="shared" si="5"/>
+        <v>0.16798161486607555</v>
+      </c>
+      <c r="S25" s="13">
+        <f t="shared" si="5"/>
+        <v>0.16798161486607555</v>
+      </c>
+      <c r="T25" s="13">
+        <f t="shared" si="5"/>
+        <v>0.16798161486607555</v>
+      </c>
+      <c r="U25" s="13">
+        <f t="shared" si="5"/>
+        <v>0.16798161486607555</v>
+      </c>
+      <c r="V25" s="13">
+        <f t="shared" si="5"/>
+        <v>0.16798161486607555</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>1.8</v>
       </c>
-      <c r="B26">
-        <f t="shared" ref="B26:Q45" si="6">1/(1+EXP(-0.8*($A26)))</f>
-        <v>0.80845465143853257</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="6"/>
-        <v>0.80845465143853257</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="6"/>
-        <v>0.80845465143853257</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="6"/>
-        <v>0.80845465143853257</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="6"/>
-        <v>0.80845465143853257</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="6"/>
-        <v>0.80845465143853257</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="6"/>
-        <v>0.80845465143853257</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="6"/>
-        <v>0.80845465143853257</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="6"/>
-        <v>0.80845465143853257</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="6"/>
-        <v>0.80845465143853257</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="6"/>
-        <v>0.80845465143853257</v>
-      </c>
-      <c r="M26">
-        <f t="shared" si="6"/>
-        <v>0.80845465143853257</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="6"/>
-        <v>0.80845465143853257</v>
-      </c>
-      <c r="O26">
-        <f t="shared" si="6"/>
-        <v>0.80845465143853257</v>
-      </c>
-      <c r="P26">
-        <f t="shared" si="6"/>
-        <v>0.80845465143853257</v>
-      </c>
-      <c r="Q26">
-        <f t="shared" si="6"/>
-        <v>0.80845465143853257</v>
-      </c>
-      <c r="R26">
-        <f t="shared" si="5"/>
-        <v>0.80845465143853257</v>
-      </c>
-      <c r="S26">
-        <f t="shared" si="5"/>
-        <v>0.80845465143853257</v>
-      </c>
-      <c r="T26">
-        <f t="shared" si="5"/>
-        <v>0.80845465143853257</v>
-      </c>
-      <c r="U26">
-        <f t="shared" si="5"/>
-        <v>0.80845465143853257</v>
-      </c>
-      <c r="V26">
-        <f t="shared" si="5"/>
-        <v>0.80845465143853257</v>
+      <c r="B26" s="13">
+        <f t="shared" ref="B26:Q45" si="6">1-1/(1+EXP(-0.8*($A26)))</f>
+        <v>0.19154534856146743</v>
+      </c>
+      <c r="C26" s="13">
+        <f t="shared" si="5"/>
+        <v>0.19154534856146743</v>
+      </c>
+      <c r="D26" s="13">
+        <f t="shared" si="5"/>
+        <v>0.19154534856146743</v>
+      </c>
+      <c r="E26" s="13">
+        <f t="shared" si="5"/>
+        <v>0.19154534856146743</v>
+      </c>
+      <c r="F26" s="13">
+        <f t="shared" si="5"/>
+        <v>0.19154534856146743</v>
+      </c>
+      <c r="G26" s="13">
+        <f t="shared" si="5"/>
+        <v>0.19154534856146743</v>
+      </c>
+      <c r="H26" s="13">
+        <f t="shared" si="5"/>
+        <v>0.19154534856146743</v>
+      </c>
+      <c r="I26" s="13">
+        <f t="shared" si="5"/>
+        <v>0.19154534856146743</v>
+      </c>
+      <c r="J26" s="13">
+        <f t="shared" si="5"/>
+        <v>0.19154534856146743</v>
+      </c>
+      <c r="K26" s="13">
+        <f t="shared" si="5"/>
+        <v>0.19154534856146743</v>
+      </c>
+      <c r="L26" s="13">
+        <f t="shared" si="5"/>
+        <v>0.19154534856146743</v>
+      </c>
+      <c r="M26" s="13">
+        <f t="shared" si="5"/>
+        <v>0.19154534856146743</v>
+      </c>
+      <c r="N26" s="13">
+        <f t="shared" si="5"/>
+        <v>0.19154534856146743</v>
+      </c>
+      <c r="O26" s="13">
+        <f t="shared" si="5"/>
+        <v>0.19154534856146743</v>
+      </c>
+      <c r="P26" s="13">
+        <f t="shared" si="5"/>
+        <v>0.19154534856146743</v>
+      </c>
+      <c r="Q26" s="13">
+        <f t="shared" si="5"/>
+        <v>0.19154534856146743</v>
+      </c>
+      <c r="R26" s="13">
+        <f t="shared" si="5"/>
+        <v>0.19154534856146743</v>
+      </c>
+      <c r="S26" s="13">
+        <f t="shared" si="5"/>
+        <v>0.19154534856146743</v>
+      </c>
+      <c r="T26" s="13">
+        <f t="shared" si="5"/>
+        <v>0.19154534856146743</v>
+      </c>
+      <c r="U26" s="13">
+        <f t="shared" si="5"/>
+        <v>0.19154534856146743</v>
+      </c>
+      <c r="V26" s="13">
+        <f t="shared" si="5"/>
+        <v>0.19154534856146743</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>1.6</v>
       </c>
-      <c r="B27">
-        <f t="shared" si="6"/>
-        <v>0.78244977642311242</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="6"/>
-        <v>0.78244977642311242</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="5"/>
-        <v>0.78244977642311242</v>
-      </c>
-      <c r="E27">
-        <f>1/(1+EXP(-0.8*($A27)))</f>
-        <v>0.78244977642311242</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="5"/>
-        <v>0.78244977642311242</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="5"/>
-        <v>0.78244977642311242</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="5"/>
-        <v>0.78244977642311242</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="5"/>
-        <v>0.78244977642311242</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="5"/>
-        <v>0.78244977642311242</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="5"/>
-        <v>0.78244977642311242</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="5"/>
-        <v>0.78244977642311242</v>
-      </c>
-      <c r="M27">
-        <f t="shared" si="5"/>
-        <v>0.78244977642311242</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="5"/>
-        <v>0.78244977642311242</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="5"/>
-        <v>0.78244977642311242</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="5"/>
-        <v>0.78244977642311242</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" si="5"/>
-        <v>0.78244977642311242</v>
-      </c>
-      <c r="R27">
-        <f t="shared" si="5"/>
-        <v>0.78244977642311242</v>
-      </c>
-      <c r="S27">
-        <f t="shared" si="5"/>
-        <v>0.78244977642311242</v>
-      </c>
-      <c r="T27">
-        <f t="shared" si="5"/>
-        <v>0.78244977642311242</v>
-      </c>
-      <c r="U27">
-        <f t="shared" si="5"/>
-        <v>0.78244977642311242</v>
-      </c>
-      <c r="V27">
-        <f t="shared" si="5"/>
-        <v>0.78244977642311242</v>
+      <c r="B27" s="13">
+        <f t="shared" si="6"/>
+        <v>0.21755022357688758</v>
+      </c>
+      <c r="C27" s="13">
+        <f t="shared" si="5"/>
+        <v>0.21755022357688758</v>
+      </c>
+      <c r="D27" s="13">
+        <f t="shared" si="5"/>
+        <v>0.21755022357688758</v>
+      </c>
+      <c r="E27" s="13">
+        <f t="shared" si="5"/>
+        <v>0.21755022357688758</v>
+      </c>
+      <c r="F27" s="13">
+        <f t="shared" si="5"/>
+        <v>0.21755022357688758</v>
+      </c>
+      <c r="G27" s="13">
+        <f t="shared" si="5"/>
+        <v>0.21755022357688758</v>
+      </c>
+      <c r="H27" s="13">
+        <f t="shared" si="5"/>
+        <v>0.21755022357688758</v>
+      </c>
+      <c r="I27" s="13">
+        <f t="shared" si="5"/>
+        <v>0.21755022357688758</v>
+      </c>
+      <c r="J27" s="13">
+        <f t="shared" si="5"/>
+        <v>0.21755022357688758</v>
+      </c>
+      <c r="K27" s="13">
+        <f t="shared" si="5"/>
+        <v>0.21755022357688758</v>
+      </c>
+      <c r="L27" s="13">
+        <f t="shared" si="5"/>
+        <v>0.21755022357688758</v>
+      </c>
+      <c r="M27" s="13">
+        <f t="shared" si="5"/>
+        <v>0.21755022357688758</v>
+      </c>
+      <c r="N27" s="13">
+        <f t="shared" si="5"/>
+        <v>0.21755022357688758</v>
+      </c>
+      <c r="O27" s="13">
+        <f t="shared" si="5"/>
+        <v>0.21755022357688758</v>
+      </c>
+      <c r="P27" s="13">
+        <f t="shared" si="5"/>
+        <v>0.21755022357688758</v>
+      </c>
+      <c r="Q27" s="13">
+        <f t="shared" si="5"/>
+        <v>0.21755022357688758</v>
+      </c>
+      <c r="R27" s="13">
+        <f t="shared" si="5"/>
+        <v>0.21755022357688758</v>
+      </c>
+      <c r="S27" s="13">
+        <f t="shared" si="5"/>
+        <v>0.21755022357688758</v>
+      </c>
+      <c r="T27" s="13">
+        <f t="shared" si="5"/>
+        <v>0.21755022357688758</v>
+      </c>
+      <c r="U27" s="13">
+        <f t="shared" si="5"/>
+        <v>0.21755022357688758</v>
+      </c>
+      <c r="V27" s="13">
+        <f t="shared" si="5"/>
+        <v>0.21755022357688758</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>1.4</v>
       </c>
-      <c r="B28">
-        <f t="shared" si="6"/>
-        <v>0.75398871644894805</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="6"/>
-        <v>0.75398871644894805</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="5"/>
-        <v>0.75398871644894805</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="5"/>
-        <v>0.75398871644894805</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="5"/>
-        <v>0.75398871644894805</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="5"/>
-        <v>0.75398871644894805</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="5"/>
-        <v>0.75398871644894805</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="5"/>
-        <v>0.75398871644894805</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="5"/>
-        <v>0.75398871644894805</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="5"/>
-        <v>0.75398871644894805</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="5"/>
-        <v>0.75398871644894805</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="5"/>
-        <v>0.75398871644894805</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="5"/>
-        <v>0.75398871644894805</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="5"/>
-        <v>0.75398871644894805</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="5"/>
-        <v>0.75398871644894805</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" si="5"/>
-        <v>0.75398871644894805</v>
-      </c>
-      <c r="R28">
-        <f t="shared" si="5"/>
-        <v>0.75398871644894805</v>
-      </c>
-      <c r="S28">
-        <f t="shared" si="5"/>
-        <v>0.75398871644894805</v>
-      </c>
-      <c r="T28">
-        <f t="shared" si="5"/>
-        <v>0.75398871644894805</v>
-      </c>
-      <c r="U28">
-        <f t="shared" si="5"/>
-        <v>0.75398871644894805</v>
-      </c>
-      <c r="V28">
-        <f t="shared" si="5"/>
-        <v>0.75398871644894805</v>
+      <c r="B28" s="13">
+        <f t="shared" si="6"/>
+        <v>0.24601128355105195</v>
+      </c>
+      <c r="C28" s="13">
+        <f t="shared" si="5"/>
+        <v>0.24601128355105195</v>
+      </c>
+      <c r="D28" s="13">
+        <f t="shared" si="5"/>
+        <v>0.24601128355105195</v>
+      </c>
+      <c r="E28" s="13">
+        <f t="shared" si="5"/>
+        <v>0.24601128355105195</v>
+      </c>
+      <c r="F28" s="13">
+        <f t="shared" si="5"/>
+        <v>0.24601128355105195</v>
+      </c>
+      <c r="G28" s="13">
+        <f t="shared" si="5"/>
+        <v>0.24601128355105195</v>
+      </c>
+      <c r="H28" s="13">
+        <f t="shared" si="5"/>
+        <v>0.24601128355105195</v>
+      </c>
+      <c r="I28" s="13">
+        <f t="shared" si="5"/>
+        <v>0.24601128355105195</v>
+      </c>
+      <c r="J28" s="13">
+        <f t="shared" si="5"/>
+        <v>0.24601128355105195</v>
+      </c>
+      <c r="K28" s="13">
+        <f t="shared" si="5"/>
+        <v>0.24601128355105195</v>
+      </c>
+      <c r="L28" s="13">
+        <f t="shared" si="5"/>
+        <v>0.24601128355105195</v>
+      </c>
+      <c r="M28" s="13">
+        <f t="shared" si="5"/>
+        <v>0.24601128355105195</v>
+      </c>
+      <c r="N28" s="13">
+        <f t="shared" si="5"/>
+        <v>0.24601128355105195</v>
+      </c>
+      <c r="O28" s="13">
+        <f t="shared" si="5"/>
+        <v>0.24601128355105195</v>
+      </c>
+      <c r="P28" s="13">
+        <f t="shared" si="5"/>
+        <v>0.24601128355105195</v>
+      </c>
+      <c r="Q28" s="13">
+        <f t="shared" si="5"/>
+        <v>0.24601128355105195</v>
+      </c>
+      <c r="R28" s="13">
+        <f t="shared" si="5"/>
+        <v>0.24601128355105195</v>
+      </c>
+      <c r="S28" s="13">
+        <f t="shared" si="5"/>
+        <v>0.24601128355105195</v>
+      </c>
+      <c r="T28" s="13">
+        <f t="shared" si="5"/>
+        <v>0.24601128355105195</v>
+      </c>
+      <c r="U28" s="13">
+        <f t="shared" si="5"/>
+        <v>0.24601128355105195</v>
+      </c>
+      <c r="V28" s="13">
+        <f t="shared" si="5"/>
+        <v>0.24601128355105195</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>1.2</v>
       </c>
-      <c r="B29">
-        <f t="shared" si="6"/>
-        <v>0.72312180512438984</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="6"/>
-        <v>0.72312180512438984</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="5"/>
-        <v>0.72312180512438984</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="5"/>
-        <v>0.72312180512438984</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="5"/>
-        <v>0.72312180512438984</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="5"/>
-        <v>0.72312180512438984</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="5"/>
-        <v>0.72312180512438984</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="5"/>
-        <v>0.72312180512438984</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="5"/>
-        <v>0.72312180512438984</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="5"/>
-        <v>0.72312180512438984</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="5"/>
-        <v>0.72312180512438984</v>
-      </c>
-      <c r="M29">
-        <f t="shared" si="5"/>
-        <v>0.72312180512438984</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="5"/>
-        <v>0.72312180512438984</v>
-      </c>
-      <c r="O29">
-        <f t="shared" si="5"/>
-        <v>0.72312180512438984</v>
-      </c>
-      <c r="P29">
-        <f t="shared" si="5"/>
-        <v>0.72312180512438984</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="5"/>
-        <v>0.72312180512438984</v>
-      </c>
-      <c r="R29">
-        <f t="shared" si="5"/>
-        <v>0.72312180512438984</v>
-      </c>
-      <c r="S29">
-        <f t="shared" si="5"/>
-        <v>0.72312180512438984</v>
-      </c>
-      <c r="T29">
-        <f t="shared" si="5"/>
-        <v>0.72312180512438984</v>
-      </c>
-      <c r="U29">
-        <f t="shared" si="5"/>
-        <v>0.72312180512438984</v>
-      </c>
-      <c r="V29">
-        <f t="shared" si="5"/>
-        <v>0.72312180512438984</v>
+      <c r="B29" s="13">
+        <f t="shared" si="6"/>
+        <v>0.27687819487561016</v>
+      </c>
+      <c r="C29" s="13">
+        <f t="shared" si="5"/>
+        <v>0.27687819487561016</v>
+      </c>
+      <c r="D29" s="13">
+        <f t="shared" si="5"/>
+        <v>0.27687819487561016</v>
+      </c>
+      <c r="E29" s="13">
+        <f t="shared" si="5"/>
+        <v>0.27687819487561016</v>
+      </c>
+      <c r="F29" s="13">
+        <f t="shared" si="5"/>
+        <v>0.27687819487561016</v>
+      </c>
+      <c r="G29" s="13">
+        <f t="shared" si="5"/>
+        <v>0.27687819487561016</v>
+      </c>
+      <c r="H29" s="13">
+        <f t="shared" si="5"/>
+        <v>0.27687819487561016</v>
+      </c>
+      <c r="I29" s="13">
+        <f t="shared" si="5"/>
+        <v>0.27687819487561016</v>
+      </c>
+      <c r="J29" s="13">
+        <f t="shared" si="5"/>
+        <v>0.27687819487561016</v>
+      </c>
+      <c r="K29" s="13">
+        <f t="shared" si="5"/>
+        <v>0.27687819487561016</v>
+      </c>
+      <c r="L29" s="13">
+        <f t="shared" si="5"/>
+        <v>0.27687819487561016</v>
+      </c>
+      <c r="M29" s="13">
+        <f t="shared" si="5"/>
+        <v>0.27687819487561016</v>
+      </c>
+      <c r="N29" s="13">
+        <f t="shared" si="5"/>
+        <v>0.27687819487561016</v>
+      </c>
+      <c r="O29" s="13">
+        <f t="shared" si="5"/>
+        <v>0.27687819487561016</v>
+      </c>
+      <c r="P29" s="13">
+        <f t="shared" si="5"/>
+        <v>0.27687819487561016</v>
+      </c>
+      <c r="Q29" s="13">
+        <f t="shared" si="5"/>
+        <v>0.27687819487561016</v>
+      </c>
+      <c r="R29" s="13">
+        <f t="shared" si="5"/>
+        <v>0.27687819487561016</v>
+      </c>
+      <c r="S29" s="13">
+        <f t="shared" si="5"/>
+        <v>0.27687819487561016</v>
+      </c>
+      <c r="T29" s="13">
+        <f t="shared" si="5"/>
+        <v>0.27687819487561016</v>
+      </c>
+      <c r="U29" s="13">
+        <f t="shared" si="5"/>
+        <v>0.27687819487561016</v>
+      </c>
+      <c r="V29" s="13">
+        <f t="shared" si="5"/>
+        <v>0.27687819487561016</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>1</v>
       </c>
-      <c r="B30">
-        <f t="shared" si="6"/>
-        <v>0.6899744811276125</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="6"/>
-        <v>0.6899744811276125</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="5"/>
-        <v>0.6899744811276125</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="5"/>
-        <v>0.6899744811276125</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="5"/>
-        <v>0.6899744811276125</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="5"/>
-        <v>0.6899744811276125</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="5"/>
-        <v>0.6899744811276125</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="5"/>
-        <v>0.6899744811276125</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="5"/>
-        <v>0.6899744811276125</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="5"/>
-        <v>0.6899744811276125</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="5"/>
-        <v>0.6899744811276125</v>
-      </c>
-      <c r="M30">
-        <f t="shared" si="5"/>
-        <v>0.6899744811276125</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="5"/>
-        <v>0.6899744811276125</v>
-      </c>
-      <c r="O30">
-        <f t="shared" si="5"/>
-        <v>0.6899744811276125</v>
-      </c>
-      <c r="P30">
-        <f t="shared" si="5"/>
-        <v>0.6899744811276125</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" si="5"/>
-        <v>0.6899744811276125</v>
-      </c>
-      <c r="R30">
-        <f t="shared" si="5"/>
-        <v>0.6899744811276125</v>
-      </c>
-      <c r="S30">
-        <f t="shared" si="5"/>
-        <v>0.6899744811276125</v>
-      </c>
-      <c r="T30">
-        <f t="shared" si="5"/>
-        <v>0.6899744811276125</v>
-      </c>
-      <c r="U30">
-        <f t="shared" si="5"/>
-        <v>0.6899744811276125</v>
-      </c>
-      <c r="V30">
-        <f t="shared" si="5"/>
-        <v>0.6899744811276125</v>
+      <c r="B30" s="13">
+        <f t="shared" si="6"/>
+        <v>0.3100255188723875</v>
+      </c>
+      <c r="C30" s="13">
+        <f t="shared" si="5"/>
+        <v>0.3100255188723875</v>
+      </c>
+      <c r="D30" s="13">
+        <f t="shared" si="5"/>
+        <v>0.3100255188723875</v>
+      </c>
+      <c r="E30" s="13">
+        <f t="shared" si="5"/>
+        <v>0.3100255188723875</v>
+      </c>
+      <c r="F30" s="13">
+        <f t="shared" si="5"/>
+        <v>0.3100255188723875</v>
+      </c>
+      <c r="G30" s="13">
+        <f t="shared" si="5"/>
+        <v>0.3100255188723875</v>
+      </c>
+      <c r="H30" s="13">
+        <f t="shared" si="5"/>
+        <v>0.3100255188723875</v>
+      </c>
+      <c r="I30" s="13">
+        <f t="shared" si="5"/>
+        <v>0.3100255188723875</v>
+      </c>
+      <c r="J30" s="13">
+        <f t="shared" si="5"/>
+        <v>0.3100255188723875</v>
+      </c>
+      <c r="K30" s="13">
+        <f t="shared" si="5"/>
+        <v>0.3100255188723875</v>
+      </c>
+      <c r="L30" s="13">
+        <f t="shared" si="5"/>
+        <v>0.3100255188723875</v>
+      </c>
+      <c r="M30" s="13">
+        <f t="shared" si="5"/>
+        <v>0.3100255188723875</v>
+      </c>
+      <c r="N30" s="13">
+        <f t="shared" si="5"/>
+        <v>0.3100255188723875</v>
+      </c>
+      <c r="O30" s="13">
+        <f t="shared" si="5"/>
+        <v>0.3100255188723875</v>
+      </c>
+      <c r="P30" s="13">
+        <f t="shared" si="5"/>
+        <v>0.3100255188723875</v>
+      </c>
+      <c r="Q30" s="13">
+        <f t="shared" si="5"/>
+        <v>0.3100255188723875</v>
+      </c>
+      <c r="R30" s="13">
+        <f t="shared" si="5"/>
+        <v>0.3100255188723875</v>
+      </c>
+      <c r="S30" s="13">
+        <f t="shared" si="5"/>
+        <v>0.3100255188723875</v>
+      </c>
+      <c r="T30" s="13">
+        <f t="shared" si="5"/>
+        <v>0.3100255188723875</v>
+      </c>
+      <c r="U30" s="13">
+        <f t="shared" si="5"/>
+        <v>0.3100255188723875</v>
+      </c>
+      <c r="V30" s="13">
+        <f t="shared" si="5"/>
+        <v>0.3100255188723875</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>0.8</v>
       </c>
-      <c r="B31">
-        <f t="shared" si="6"/>
-        <v>0.65475346060631923</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="6"/>
-        <v>0.65475346060631923</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="5"/>
-        <v>0.65475346060631923</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="5"/>
-        <v>0.65475346060631923</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="5"/>
-        <v>0.65475346060631923</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="5"/>
-        <v>0.65475346060631923</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="5"/>
-        <v>0.65475346060631923</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="5"/>
-        <v>0.65475346060631923</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="5"/>
-        <v>0.65475346060631923</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="5"/>
-        <v>0.65475346060631923</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="5"/>
-        <v>0.65475346060631923</v>
-      </c>
-      <c r="M31">
-        <f t="shared" si="5"/>
-        <v>0.65475346060631923</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="5"/>
-        <v>0.65475346060631923</v>
-      </c>
-      <c r="O31">
-        <f t="shared" si="5"/>
-        <v>0.65475346060631923</v>
-      </c>
-      <c r="P31">
-        <f t="shared" si="5"/>
-        <v>0.65475346060631923</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" si="5"/>
-        <v>0.65475346060631923</v>
-      </c>
-      <c r="R31">
-        <f t="shared" si="5"/>
-        <v>0.65475346060631923</v>
-      </c>
-      <c r="S31">
-        <f t="shared" si="5"/>
-        <v>0.65475346060631923</v>
-      </c>
-      <c r="T31">
-        <f t="shared" si="5"/>
-        <v>0.65475346060631923</v>
-      </c>
-      <c r="U31">
-        <f t="shared" si="5"/>
-        <v>0.65475346060631923</v>
-      </c>
-      <c r="V31">
-        <f t="shared" si="5"/>
-        <v>0.65475346060631923</v>
-      </c>
-      <c r="Y31" s="9">
+      <c r="B31" s="13">
+        <f t="shared" si="6"/>
+        <v>0.34524653939368077</v>
+      </c>
+      <c r="C31" s="13">
+        <f t="shared" si="5"/>
+        <v>0.34524653939368077</v>
+      </c>
+      <c r="D31" s="13">
+        <f t="shared" si="5"/>
+        <v>0.34524653939368077</v>
+      </c>
+      <c r="E31" s="13">
+        <f t="shared" si="5"/>
+        <v>0.34524653939368077</v>
+      </c>
+      <c r="F31" s="13">
+        <f t="shared" si="5"/>
+        <v>0.34524653939368077</v>
+      </c>
+      <c r="G31" s="13">
+        <f t="shared" si="5"/>
+        <v>0.34524653939368077</v>
+      </c>
+      <c r="H31" s="13">
+        <f t="shared" si="5"/>
+        <v>0.34524653939368077</v>
+      </c>
+      <c r="I31" s="13">
+        <f t="shared" si="5"/>
+        <v>0.34524653939368077</v>
+      </c>
+      <c r="J31" s="13">
+        <f t="shared" si="5"/>
+        <v>0.34524653939368077</v>
+      </c>
+      <c r="K31" s="13">
+        <f t="shared" si="5"/>
+        <v>0.34524653939368077</v>
+      </c>
+      <c r="L31" s="13">
+        <f t="shared" si="5"/>
+        <v>0.34524653939368077</v>
+      </c>
+      <c r="M31" s="13">
+        <f t="shared" si="5"/>
+        <v>0.34524653939368077</v>
+      </c>
+      <c r="N31" s="13">
+        <f t="shared" si="5"/>
+        <v>0.34524653939368077</v>
+      </c>
+      <c r="O31" s="13">
+        <f t="shared" si="5"/>
+        <v>0.34524653939368077</v>
+      </c>
+      <c r="P31" s="13">
+        <f t="shared" si="5"/>
+        <v>0.34524653939368077</v>
+      </c>
+      <c r="Q31" s="13">
+        <f t="shared" si="5"/>
+        <v>0.34524653939368077</v>
+      </c>
+      <c r="R31" s="13">
+        <f t="shared" si="5"/>
+        <v>0.34524653939368077</v>
+      </c>
+      <c r="S31" s="13">
+        <f t="shared" si="5"/>
+        <v>0.34524653939368077</v>
+      </c>
+      <c r="T31" s="13">
+        <f t="shared" si="5"/>
+        <v>0.34524653939368077</v>
+      </c>
+      <c r="U31" s="13">
+        <f t="shared" si="5"/>
+        <v>0.34524653939368077</v>
+      </c>
+      <c r="V31" s="13">
+        <f t="shared" si="5"/>
+        <v>0.34524653939368077</v>
+      </c>
+      <c r="Y31" s="8">
         <v>0.83199999999999996</v>
       </c>
-      <c r="Z31" s="9">
+      <c r="Z31" s="8">
         <v>0.83199999999999996</v>
       </c>
-      <c r="AA31" s="9">
+      <c r="AA31" s="8">
         <v>0.83199999999999996</v>
       </c>
     </row>
@@ -3190,189 +3203,189 @@
       <c r="A32" s="2">
         <v>0.6</v>
       </c>
-      <c r="B32">
-        <f t="shared" si="6"/>
-        <v>0.61774787476924897</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="6"/>
-        <v>0.61774787476924897</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="5"/>
-        <v>0.61774787476924897</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="5"/>
-        <v>0.61774787476924897</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="5"/>
-        <v>0.61774787476924897</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="5"/>
-        <v>0.61774787476924897</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="5"/>
-        <v>0.61774787476924897</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="5"/>
-        <v>0.61774787476924897</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="5"/>
-        <v>0.61774787476924897</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="5"/>
-        <v>0.61774787476924897</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="5"/>
-        <v>0.61774787476924897</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="5"/>
-        <v>0.61774787476924897</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="5"/>
-        <v>0.61774787476924897</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="5"/>
-        <v>0.61774787476924897</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="5"/>
-        <v>0.61774787476924897</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="5"/>
-        <v>0.61774787476924897</v>
-      </c>
-      <c r="R32">
-        <f t="shared" si="5"/>
-        <v>0.61774787476924897</v>
-      </c>
-      <c r="S32">
-        <f t="shared" si="5"/>
-        <v>0.61774787476924897</v>
-      </c>
-      <c r="T32">
-        <f t="shared" si="5"/>
-        <v>0.61774787476924897</v>
-      </c>
-      <c r="U32">
-        <f t="shared" si="5"/>
-        <v>0.61774787476924897</v>
-      </c>
-      <c r="V32">
-        <f t="shared" si="5"/>
-        <v>0.61774787476924897</v>
-      </c>
-      <c r="Y32" s="8"/>
-      <c r="Z32" s="8"/>
-      <c r="AA32" s="8"/>
+      <c r="B32" s="13">
+        <f t="shared" si="6"/>
+        <v>0.38225212523075103</v>
+      </c>
+      <c r="C32" s="13">
+        <f t="shared" si="5"/>
+        <v>0.38225212523075103</v>
+      </c>
+      <c r="D32" s="13">
+        <f t="shared" si="5"/>
+        <v>0.38225212523075103</v>
+      </c>
+      <c r="E32" s="13">
+        <f t="shared" si="5"/>
+        <v>0.38225212523075103</v>
+      </c>
+      <c r="F32" s="13">
+        <f t="shared" si="5"/>
+        <v>0.38225212523075103</v>
+      </c>
+      <c r="G32" s="13">
+        <f t="shared" si="5"/>
+        <v>0.38225212523075103</v>
+      </c>
+      <c r="H32" s="13">
+        <f t="shared" si="5"/>
+        <v>0.38225212523075103</v>
+      </c>
+      <c r="I32" s="13">
+        <f t="shared" si="5"/>
+        <v>0.38225212523075103</v>
+      </c>
+      <c r="J32" s="13">
+        <f t="shared" si="5"/>
+        <v>0.38225212523075103</v>
+      </c>
+      <c r="K32" s="13">
+        <f t="shared" si="5"/>
+        <v>0.38225212523075103</v>
+      </c>
+      <c r="L32" s="13">
+        <f t="shared" si="5"/>
+        <v>0.38225212523075103</v>
+      </c>
+      <c r="M32" s="13">
+        <f t="shared" si="5"/>
+        <v>0.38225212523075103</v>
+      </c>
+      <c r="N32" s="13">
+        <f t="shared" si="5"/>
+        <v>0.38225212523075103</v>
+      </c>
+      <c r="O32" s="13">
+        <f t="shared" si="5"/>
+        <v>0.38225212523075103</v>
+      </c>
+      <c r="P32" s="13">
+        <f t="shared" si="5"/>
+        <v>0.38225212523075103</v>
+      </c>
+      <c r="Q32" s="13">
+        <f t="shared" si="5"/>
+        <v>0.38225212523075103</v>
+      </c>
+      <c r="R32" s="13">
+        <f t="shared" si="5"/>
+        <v>0.38225212523075103</v>
+      </c>
+      <c r="S32" s="13">
+        <f t="shared" si="5"/>
+        <v>0.38225212523075103</v>
+      </c>
+      <c r="T32" s="13">
+        <f t="shared" si="5"/>
+        <v>0.38225212523075103</v>
+      </c>
+      <c r="U32" s="13">
+        <f t="shared" si="5"/>
+        <v>0.38225212523075103</v>
+      </c>
+      <c r="V32" s="13">
+        <f t="shared" si="5"/>
+        <v>0.38225212523075103</v>
+      </c>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>0.4</v>
       </c>
-      <c r="B33">
-        <f t="shared" si="6"/>
-        <v>0.5793242521487495</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="6"/>
-        <v>0.5793242521487495</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="5"/>
-        <v>0.5793242521487495</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="5"/>
-        <v>0.5793242521487495</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="5"/>
-        <v>0.5793242521487495</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="5"/>
-        <v>0.5793242521487495</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="5"/>
-        <v>0.5793242521487495</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="5"/>
-        <v>0.5793242521487495</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="5"/>
-        <v>0.5793242521487495</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="5"/>
-        <v>0.5793242521487495</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="5"/>
-        <v>0.5793242521487495</v>
-      </c>
-      <c r="M33">
-        <f t="shared" si="5"/>
-        <v>0.5793242521487495</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="5"/>
-        <v>0.5793242521487495</v>
-      </c>
-      <c r="O33">
-        <f t="shared" si="5"/>
-        <v>0.5793242521487495</v>
-      </c>
-      <c r="P33">
-        <f t="shared" si="5"/>
-        <v>0.5793242521487495</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" si="5"/>
-        <v>0.5793242521487495</v>
-      </c>
-      <c r="R33">
-        <f t="shared" si="5"/>
-        <v>0.5793242521487495</v>
-      </c>
-      <c r="S33">
-        <f t="shared" si="5"/>
-        <v>0.5793242521487495</v>
-      </c>
-      <c r="T33">
-        <f t="shared" si="5"/>
-        <v>0.5793242521487495</v>
-      </c>
-      <c r="U33">
-        <f t="shared" si="5"/>
-        <v>0.5793242521487495</v>
-      </c>
-      <c r="V33">
-        <f t="shared" si="5"/>
-        <v>0.5793242521487495</v>
-      </c>
-      <c r="Y33" s="10">
+      <c r="B33" s="13">
+        <f t="shared" si="6"/>
+        <v>0.4206757478512505</v>
+      </c>
+      <c r="C33" s="13">
+        <f t="shared" si="5"/>
+        <v>0.4206757478512505</v>
+      </c>
+      <c r="D33" s="13">
+        <f t="shared" si="5"/>
+        <v>0.4206757478512505</v>
+      </c>
+      <c r="E33" s="13">
+        <f t="shared" si="5"/>
+        <v>0.4206757478512505</v>
+      </c>
+      <c r="F33" s="13">
+        <f t="shared" si="5"/>
+        <v>0.4206757478512505</v>
+      </c>
+      <c r="G33" s="13">
+        <f t="shared" si="5"/>
+        <v>0.4206757478512505</v>
+      </c>
+      <c r="H33" s="13">
+        <f t="shared" si="5"/>
+        <v>0.4206757478512505</v>
+      </c>
+      <c r="I33" s="13">
+        <f t="shared" si="5"/>
+        <v>0.4206757478512505</v>
+      </c>
+      <c r="J33" s="13">
+        <f t="shared" si="5"/>
+        <v>0.4206757478512505</v>
+      </c>
+      <c r="K33" s="13">
+        <f t="shared" si="5"/>
+        <v>0.4206757478512505</v>
+      </c>
+      <c r="L33" s="13">
+        <f t="shared" si="5"/>
+        <v>0.4206757478512505</v>
+      </c>
+      <c r="M33" s="13">
+        <f t="shared" si="5"/>
+        <v>0.4206757478512505</v>
+      </c>
+      <c r="N33" s="13">
+        <f t="shared" si="5"/>
+        <v>0.4206757478512505</v>
+      </c>
+      <c r="O33" s="13">
+        <f t="shared" si="5"/>
+        <v>0.4206757478512505</v>
+      </c>
+      <c r="P33" s="13">
+        <f t="shared" si="5"/>
+        <v>0.4206757478512505</v>
+      </c>
+      <c r="Q33" s="13">
+        <f t="shared" si="5"/>
+        <v>0.4206757478512505</v>
+      </c>
+      <c r="R33" s="13">
+        <f t="shared" si="5"/>
+        <v>0.4206757478512505</v>
+      </c>
+      <c r="S33" s="13">
+        <f t="shared" si="5"/>
+        <v>0.4206757478512505</v>
+      </c>
+      <c r="T33" s="13">
+        <f t="shared" si="5"/>
+        <v>0.4206757478512505</v>
+      </c>
+      <c r="U33" s="13">
+        <f t="shared" si="5"/>
+        <v>0.4206757478512505</v>
+      </c>
+      <c r="V33" s="13">
+        <f t="shared" si="5"/>
+        <v>0.4206757478512505</v>
+      </c>
+      <c r="Y33" s="9">
         <v>0.16800000000000001</v>
       </c>
-      <c r="Z33" s="10">
+      <c r="Z33" s="9">
         <v>0.16800000000000001</v>
       </c>
-      <c r="AA33" s="10">
+      <c r="AA33" s="9">
         <v>0.16800000000000001</v>
       </c>
     </row>
@@ -3380,176 +3393,176 @@
       <c r="A34" s="2">
         <v>0.2</v>
       </c>
-      <c r="B34">
-        <f t="shared" si="6"/>
-        <v>0.53991488455556569</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="6"/>
-        <v>0.53991488455556569</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="5"/>
-        <v>0.53991488455556569</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="5"/>
-        <v>0.53991488455556569</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="5"/>
-        <v>0.53991488455556569</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="5"/>
-        <v>0.53991488455556569</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="5"/>
-        <v>0.53991488455556569</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="5"/>
-        <v>0.53991488455556569</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="5"/>
-        <v>0.53991488455556569</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="5"/>
-        <v>0.53991488455556569</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="5"/>
-        <v>0.53991488455556569</v>
-      </c>
-      <c r="M34">
-        <f t="shared" si="5"/>
-        <v>0.53991488455556569</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="5"/>
-        <v>0.53991488455556569</v>
-      </c>
-      <c r="O34">
-        <f t="shared" si="5"/>
-        <v>0.53991488455556569</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="5"/>
-        <v>0.53991488455556569</v>
-      </c>
-      <c r="Q34">
-        <f t="shared" si="5"/>
-        <v>0.53991488455556569</v>
-      </c>
-      <c r="R34">
-        <f t="shared" si="5"/>
-        <v>0.53991488455556569</v>
-      </c>
-      <c r="S34">
-        <f t="shared" si="5"/>
-        <v>0.53991488455556569</v>
-      </c>
-      <c r="T34">
-        <f t="shared" si="5"/>
-        <v>0.53991488455556569</v>
-      </c>
-      <c r="U34">
-        <f t="shared" si="5"/>
-        <v>0.53991488455556569</v>
-      </c>
-      <c r="V34">
-        <f t="shared" si="5"/>
-        <v>0.53991488455556569</v>
+      <c r="B34" s="13">
+        <f t="shared" si="6"/>
+        <v>0.46008511544443431</v>
+      </c>
+      <c r="C34" s="13">
+        <f t="shared" si="5"/>
+        <v>0.46008511544443431</v>
+      </c>
+      <c r="D34" s="13">
+        <f t="shared" si="5"/>
+        <v>0.46008511544443431</v>
+      </c>
+      <c r="E34" s="13">
+        <f t="shared" si="5"/>
+        <v>0.46008511544443431</v>
+      </c>
+      <c r="F34" s="13">
+        <f t="shared" si="5"/>
+        <v>0.46008511544443431</v>
+      </c>
+      <c r="G34" s="13">
+        <f t="shared" si="5"/>
+        <v>0.46008511544443431</v>
+      </c>
+      <c r="H34" s="13">
+        <f t="shared" si="5"/>
+        <v>0.46008511544443431</v>
+      </c>
+      <c r="I34" s="13">
+        <f t="shared" si="5"/>
+        <v>0.46008511544443431</v>
+      </c>
+      <c r="J34" s="13">
+        <f t="shared" si="5"/>
+        <v>0.46008511544443431</v>
+      </c>
+      <c r="K34" s="13">
+        <f t="shared" si="5"/>
+        <v>0.46008511544443431</v>
+      </c>
+      <c r="L34" s="13">
+        <f t="shared" si="5"/>
+        <v>0.46008511544443431</v>
+      </c>
+      <c r="M34" s="13">
+        <f t="shared" si="5"/>
+        <v>0.46008511544443431</v>
+      </c>
+      <c r="N34" s="13">
+        <f t="shared" si="5"/>
+        <v>0.46008511544443431</v>
+      </c>
+      <c r="O34" s="13">
+        <f t="shared" si="5"/>
+        <v>0.46008511544443431</v>
+      </c>
+      <c r="P34" s="13">
+        <f t="shared" si="5"/>
+        <v>0.46008511544443431</v>
+      </c>
+      <c r="Q34" s="13">
+        <f t="shared" si="5"/>
+        <v>0.46008511544443431</v>
+      </c>
+      <c r="R34" s="13">
+        <f t="shared" si="5"/>
+        <v>0.46008511544443431</v>
+      </c>
+      <c r="S34" s="13">
+        <f t="shared" si="5"/>
+        <v>0.46008511544443431</v>
+      </c>
+      <c r="T34" s="13">
+        <f t="shared" si="5"/>
+        <v>0.46008511544443431</v>
+      </c>
+      <c r="U34" s="13">
+        <f t="shared" si="5"/>
+        <v>0.46008511544443431</v>
+      </c>
+      <c r="V34" s="13">
+        <f t="shared" si="5"/>
+        <v>0.46008511544443431</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>0</v>
       </c>
-      <c r="B35">
-        <f>1/(1+EXP(-0.8*($A35)))</f>
+      <c r="B35" s="13">
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="C35">
-        <f t="shared" si="6"/>
+      <c r="C35" s="13">
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="13">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="13">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="13">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="13">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="13">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="13">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="13">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="13">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="13">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="13">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="13">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="O35">
+      <c r="O35" s="13">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="P35">
+      <c r="P35" s="13">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="Q35">
+      <c r="Q35" s="13">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="R35">
+      <c r="R35" s="13">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="S35">
+      <c r="S35" s="13">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="T35">
+      <c r="T35" s="13">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="U35">
+      <c r="U35" s="13">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="V35">
+      <c r="V35" s="13">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
@@ -3558,890 +3571,2696 @@
       <c r="A36" s="2">
         <v>-0.2</v>
       </c>
-      <c r="B36">
-        <f t="shared" si="6"/>
-        <v>0.46008511544443426</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="6"/>
-        <v>0.46008511544443426</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="5"/>
-        <v>0.46008511544443426</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="5"/>
-        <v>0.46008511544443426</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="5"/>
-        <v>0.46008511544443426</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="5"/>
-        <v>0.46008511544443426</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="5"/>
-        <v>0.46008511544443426</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="5"/>
-        <v>0.46008511544443426</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="5"/>
-        <v>0.46008511544443426</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="5"/>
-        <v>0.46008511544443426</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="5"/>
-        <v>0.46008511544443426</v>
-      </c>
-      <c r="M36">
-        <f t="shared" si="5"/>
-        <v>0.46008511544443426</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="5"/>
-        <v>0.46008511544443426</v>
-      </c>
-      <c r="O36">
-        <f t="shared" si="5"/>
-        <v>0.46008511544443426</v>
-      </c>
-      <c r="P36">
-        <f t="shared" si="5"/>
-        <v>0.46008511544443426</v>
-      </c>
-      <c r="Q36">
-        <f t="shared" si="5"/>
-        <v>0.46008511544443426</v>
-      </c>
-      <c r="R36">
-        <f t="shared" si="5"/>
-        <v>0.46008511544443426</v>
-      </c>
-      <c r="S36">
-        <f t="shared" si="5"/>
-        <v>0.46008511544443426</v>
-      </c>
-      <c r="T36">
-        <f t="shared" si="5"/>
-        <v>0.46008511544443426</v>
-      </c>
-      <c r="U36">
-        <f t="shared" si="5"/>
-        <v>0.46008511544443426</v>
-      </c>
-      <c r="V36">
-        <f t="shared" si="5"/>
-        <v>0.46008511544443426</v>
+      <c r="B36" s="13">
+        <f t="shared" si="6"/>
+        <v>0.53991488455556569</v>
+      </c>
+      <c r="C36" s="13">
+        <f t="shared" si="5"/>
+        <v>0.53991488455556569</v>
+      </c>
+      <c r="D36" s="13">
+        <f t="shared" si="5"/>
+        <v>0.53991488455556569</v>
+      </c>
+      <c r="E36" s="13">
+        <f t="shared" si="5"/>
+        <v>0.53991488455556569</v>
+      </c>
+      <c r="F36" s="13">
+        <f t="shared" si="5"/>
+        <v>0.53991488455556569</v>
+      </c>
+      <c r="G36" s="13">
+        <f t="shared" si="5"/>
+        <v>0.53991488455556569</v>
+      </c>
+      <c r="H36" s="13">
+        <f t="shared" si="5"/>
+        <v>0.53991488455556569</v>
+      </c>
+      <c r="I36" s="13">
+        <f t="shared" si="5"/>
+        <v>0.53991488455556569</v>
+      </c>
+      <c r="J36" s="13">
+        <f t="shared" si="5"/>
+        <v>0.53991488455556569</v>
+      </c>
+      <c r="K36" s="13">
+        <f t="shared" si="5"/>
+        <v>0.53991488455556569</v>
+      </c>
+      <c r="L36" s="13">
+        <f t="shared" si="5"/>
+        <v>0.53991488455556569</v>
+      </c>
+      <c r="M36" s="13">
+        <f t="shared" si="5"/>
+        <v>0.53991488455556569</v>
+      </c>
+      <c r="N36" s="13">
+        <f t="shared" si="5"/>
+        <v>0.53991488455556569</v>
+      </c>
+      <c r="O36" s="13">
+        <f t="shared" si="5"/>
+        <v>0.53991488455556569</v>
+      </c>
+      <c r="P36" s="13">
+        <f t="shared" si="5"/>
+        <v>0.53991488455556569</v>
+      </c>
+      <c r="Q36" s="13">
+        <f t="shared" si="5"/>
+        <v>0.53991488455556569</v>
+      </c>
+      <c r="R36" s="13">
+        <f t="shared" si="5"/>
+        <v>0.53991488455556569</v>
+      </c>
+      <c r="S36" s="13">
+        <f t="shared" si="5"/>
+        <v>0.53991488455556569</v>
+      </c>
+      <c r="T36" s="13">
+        <f t="shared" si="5"/>
+        <v>0.53991488455556569</v>
+      </c>
+      <c r="U36" s="13">
+        <f t="shared" si="5"/>
+        <v>0.53991488455556569</v>
+      </c>
+      <c r="V36" s="13">
+        <f t="shared" si="5"/>
+        <v>0.53991488455556569</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>-0.4</v>
       </c>
-      <c r="B37">
-        <f t="shared" si="6"/>
-        <v>0.42067574785125056</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="6"/>
-        <v>0.42067574785125056</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="5"/>
-        <v>0.42067574785125056</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="5"/>
-        <v>0.42067574785125056</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="5"/>
-        <v>0.42067574785125056</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="5"/>
-        <v>0.42067574785125056</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="5"/>
-        <v>0.42067574785125056</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="5"/>
-        <v>0.42067574785125056</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="5"/>
-        <v>0.42067574785125056</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="5"/>
-        <v>0.42067574785125056</v>
-      </c>
-      <c r="L37">
-        <f t="shared" si="5"/>
-        <v>0.42067574785125056</v>
-      </c>
-      <c r="M37">
-        <f t="shared" si="5"/>
-        <v>0.42067574785125056</v>
-      </c>
-      <c r="N37">
-        <f t="shared" si="5"/>
-        <v>0.42067574785125056</v>
-      </c>
-      <c r="O37">
-        <f t="shared" si="5"/>
-        <v>0.42067574785125056</v>
-      </c>
-      <c r="P37">
-        <f t="shared" si="5"/>
-        <v>0.42067574785125056</v>
-      </c>
-      <c r="Q37">
-        <f t="shared" si="5"/>
-        <v>0.42067574785125056</v>
-      </c>
-      <c r="R37">
-        <f t="shared" si="5"/>
-        <v>0.42067574785125056</v>
-      </c>
-      <c r="S37">
-        <f t="shared" si="5"/>
-        <v>0.42067574785125056</v>
-      </c>
-      <c r="T37">
-        <f t="shared" si="5"/>
-        <v>0.42067574785125056</v>
-      </c>
-      <c r="U37">
-        <f t="shared" si="5"/>
-        <v>0.42067574785125056</v>
-      </c>
-      <c r="V37">
-        <f t="shared" si="5"/>
-        <v>0.42067574785125056</v>
+      <c r="B37" s="13">
+        <f t="shared" si="6"/>
+        <v>0.57932425214874939</v>
+      </c>
+      <c r="C37" s="13">
+        <f t="shared" si="5"/>
+        <v>0.57932425214874939</v>
+      </c>
+      <c r="D37" s="13">
+        <f t="shared" si="5"/>
+        <v>0.57932425214874939</v>
+      </c>
+      <c r="E37" s="13">
+        <f t="shared" si="5"/>
+        <v>0.57932425214874939</v>
+      </c>
+      <c r="F37" s="13">
+        <f t="shared" si="5"/>
+        <v>0.57932425214874939</v>
+      </c>
+      <c r="G37" s="13">
+        <f t="shared" si="5"/>
+        <v>0.57932425214874939</v>
+      </c>
+      <c r="H37" s="13">
+        <f t="shared" si="5"/>
+        <v>0.57932425214874939</v>
+      </c>
+      <c r="I37" s="13">
+        <f t="shared" si="5"/>
+        <v>0.57932425214874939</v>
+      </c>
+      <c r="J37" s="13">
+        <f t="shared" si="5"/>
+        <v>0.57932425214874939</v>
+      </c>
+      <c r="K37" s="13">
+        <f t="shared" si="5"/>
+        <v>0.57932425214874939</v>
+      </c>
+      <c r="L37" s="13">
+        <f t="shared" si="5"/>
+        <v>0.57932425214874939</v>
+      </c>
+      <c r="M37" s="13">
+        <f t="shared" si="5"/>
+        <v>0.57932425214874939</v>
+      </c>
+      <c r="N37" s="13">
+        <f t="shared" si="5"/>
+        <v>0.57932425214874939</v>
+      </c>
+      <c r="O37" s="13">
+        <f t="shared" si="5"/>
+        <v>0.57932425214874939</v>
+      </c>
+      <c r="P37" s="13">
+        <f t="shared" si="5"/>
+        <v>0.57932425214874939</v>
+      </c>
+      <c r="Q37" s="13">
+        <f t="shared" si="5"/>
+        <v>0.57932425214874939</v>
+      </c>
+      <c r="R37" s="13">
+        <f t="shared" ref="R37:V45" si="7">1-1/(1+EXP(-0.8*($A37)))</f>
+        <v>0.57932425214874939</v>
+      </c>
+      <c r="S37" s="13">
+        <f t="shared" si="7"/>
+        <v>0.57932425214874939</v>
+      </c>
+      <c r="T37" s="13">
+        <f t="shared" si="7"/>
+        <v>0.57932425214874939</v>
+      </c>
+      <c r="U37" s="13">
+        <f t="shared" si="7"/>
+        <v>0.57932425214874939</v>
+      </c>
+      <c r="V37" s="13">
+        <f t="shared" si="7"/>
+        <v>0.57932425214874939</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>-0.6</v>
       </c>
-      <c r="B38">
-        <f t="shared" si="6"/>
-        <v>0.38225212523075103</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="6"/>
-        <v>0.38225212523075103</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="5"/>
-        <v>0.38225212523075103</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="5"/>
-        <v>0.38225212523075103</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="5"/>
-        <v>0.38225212523075103</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="5"/>
-        <v>0.38225212523075103</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="5"/>
-        <v>0.38225212523075103</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="5"/>
-        <v>0.38225212523075103</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="5"/>
-        <v>0.38225212523075103</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="5"/>
-        <v>0.38225212523075103</v>
-      </c>
-      <c r="L38">
-        <f t="shared" si="5"/>
-        <v>0.38225212523075103</v>
-      </c>
-      <c r="M38">
-        <f t="shared" si="5"/>
-        <v>0.38225212523075103</v>
-      </c>
-      <c r="N38">
-        <f t="shared" si="5"/>
-        <v>0.38225212523075103</v>
-      </c>
-      <c r="O38">
-        <f t="shared" si="5"/>
-        <v>0.38225212523075103</v>
-      </c>
-      <c r="P38">
-        <f t="shared" si="5"/>
-        <v>0.38225212523075103</v>
-      </c>
-      <c r="Q38">
-        <f t="shared" si="5"/>
-        <v>0.38225212523075103</v>
-      </c>
-      <c r="R38">
-        <f t="shared" si="5"/>
-        <v>0.38225212523075103</v>
-      </c>
-      <c r="S38">
-        <f t="shared" si="5"/>
-        <v>0.38225212523075103</v>
-      </c>
-      <c r="T38">
-        <f t="shared" si="5"/>
-        <v>0.38225212523075103</v>
-      </c>
-      <c r="U38">
-        <f t="shared" si="5"/>
-        <v>0.38225212523075103</v>
-      </c>
-      <c r="V38">
-        <f t="shared" si="5"/>
-        <v>0.38225212523075103</v>
+      <c r="B38" s="13">
+        <f t="shared" si="6"/>
+        <v>0.61774787476924897</v>
+      </c>
+      <c r="C38" s="13">
+        <f t="shared" si="6"/>
+        <v>0.61774787476924897</v>
+      </c>
+      <c r="D38" s="13">
+        <f t="shared" si="6"/>
+        <v>0.61774787476924897</v>
+      </c>
+      <c r="E38" s="13">
+        <f t="shared" si="6"/>
+        <v>0.61774787476924897</v>
+      </c>
+      <c r="F38" s="13">
+        <f t="shared" si="6"/>
+        <v>0.61774787476924897</v>
+      </c>
+      <c r="G38" s="13">
+        <f t="shared" si="6"/>
+        <v>0.61774787476924897</v>
+      </c>
+      <c r="H38" s="13">
+        <f t="shared" si="6"/>
+        <v>0.61774787476924897</v>
+      </c>
+      <c r="I38" s="13">
+        <f t="shared" si="6"/>
+        <v>0.61774787476924897</v>
+      </c>
+      <c r="J38" s="13">
+        <f t="shared" si="6"/>
+        <v>0.61774787476924897</v>
+      </c>
+      <c r="K38" s="13">
+        <f t="shared" si="6"/>
+        <v>0.61774787476924897</v>
+      </c>
+      <c r="L38" s="13">
+        <f t="shared" si="6"/>
+        <v>0.61774787476924897</v>
+      </c>
+      <c r="M38" s="13">
+        <f t="shared" si="6"/>
+        <v>0.61774787476924897</v>
+      </c>
+      <c r="N38" s="13">
+        <f t="shared" si="6"/>
+        <v>0.61774787476924897</v>
+      </c>
+      <c r="O38" s="13">
+        <f t="shared" si="6"/>
+        <v>0.61774787476924897</v>
+      </c>
+      <c r="P38" s="13">
+        <f t="shared" si="6"/>
+        <v>0.61774787476924897</v>
+      </c>
+      <c r="Q38" s="13">
+        <f t="shared" si="6"/>
+        <v>0.61774787476924897</v>
+      </c>
+      <c r="R38" s="13">
+        <f t="shared" si="7"/>
+        <v>0.61774787476924897</v>
+      </c>
+      <c r="S38" s="13">
+        <f t="shared" si="7"/>
+        <v>0.61774787476924897</v>
+      </c>
+      <c r="T38" s="13">
+        <f t="shared" si="7"/>
+        <v>0.61774787476924897</v>
+      </c>
+      <c r="U38" s="13">
+        <f t="shared" si="7"/>
+        <v>0.61774787476924897</v>
+      </c>
+      <c r="V38" s="13">
+        <f t="shared" si="7"/>
+        <v>0.61774787476924897</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>-0.8</v>
       </c>
-      <c r="B39">
-        <f t="shared" si="6"/>
-        <v>0.34524653939368072</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="6"/>
-        <v>0.34524653939368072</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="5"/>
-        <v>0.34524653939368072</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="5"/>
-        <v>0.34524653939368072</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="5"/>
-        <v>0.34524653939368072</v>
-      </c>
-      <c r="G39">
-        <f t="shared" ref="D39:V45" si="7">1/(1+EXP(-0.8*($A39)))</f>
-        <v>0.34524653939368072</v>
-      </c>
-      <c r="H39">
+      <c r="B39" s="13">
+        <f t="shared" si="6"/>
+        <v>0.65475346060631923</v>
+      </c>
+      <c r="C39" s="13">
+        <f t="shared" si="6"/>
+        <v>0.65475346060631923</v>
+      </c>
+      <c r="D39" s="13">
+        <f t="shared" si="6"/>
+        <v>0.65475346060631923</v>
+      </c>
+      <c r="E39" s="13">
+        <f t="shared" si="6"/>
+        <v>0.65475346060631923</v>
+      </c>
+      <c r="F39" s="13">
+        <f t="shared" si="6"/>
+        <v>0.65475346060631923</v>
+      </c>
+      <c r="G39" s="13">
+        <f t="shared" si="6"/>
+        <v>0.65475346060631923</v>
+      </c>
+      <c r="H39" s="13">
+        <f t="shared" si="6"/>
+        <v>0.65475346060631923</v>
+      </c>
+      <c r="I39" s="13">
+        <f t="shared" si="6"/>
+        <v>0.65475346060631923</v>
+      </c>
+      <c r="J39" s="13">
+        <f t="shared" si="6"/>
+        <v>0.65475346060631923</v>
+      </c>
+      <c r="K39" s="13">
+        <f t="shared" si="6"/>
+        <v>0.65475346060631923</v>
+      </c>
+      <c r="L39" s="13">
+        <f t="shared" si="6"/>
+        <v>0.65475346060631923</v>
+      </c>
+      <c r="M39" s="13">
+        <f t="shared" si="6"/>
+        <v>0.65475346060631923</v>
+      </c>
+      <c r="N39" s="13">
+        <f t="shared" si="6"/>
+        <v>0.65475346060631923</v>
+      </c>
+      <c r="O39" s="13">
+        <f t="shared" si="6"/>
+        <v>0.65475346060631923</v>
+      </c>
+      <c r="P39" s="13">
+        <f t="shared" si="6"/>
+        <v>0.65475346060631923</v>
+      </c>
+      <c r="Q39" s="13">
+        <f t="shared" si="6"/>
+        <v>0.65475346060631923</v>
+      </c>
+      <c r="R39" s="13">
         <f t="shared" si="7"/>
-        <v>0.34524653939368072</v>
-      </c>
-      <c r="I39">
+        <v>0.65475346060631923</v>
+      </c>
+      <c r="S39" s="13">
         <f t="shared" si="7"/>
-        <v>0.34524653939368072</v>
-      </c>
-      <c r="J39">
+        <v>0.65475346060631923</v>
+      </c>
+      <c r="T39" s="13">
         <f t="shared" si="7"/>
-        <v>0.34524653939368072</v>
-      </c>
-      <c r="K39">
+        <v>0.65475346060631923</v>
+      </c>
+      <c r="U39" s="13">
         <f t="shared" si="7"/>
-        <v>0.34524653939368072</v>
-      </c>
-      <c r="L39">
+        <v>0.65475346060631923</v>
+      </c>
+      <c r="V39" s="13">
         <f t="shared" si="7"/>
-        <v>0.34524653939368072</v>
-      </c>
-      <c r="M39">
-        <f t="shared" si="7"/>
-        <v>0.34524653939368072</v>
-      </c>
-      <c r="N39">
-        <f t="shared" si="7"/>
-        <v>0.34524653939368072</v>
-      </c>
-      <c r="O39">
-        <f t="shared" si="7"/>
-        <v>0.34524653939368072</v>
-      </c>
-      <c r="P39">
-        <f t="shared" si="7"/>
-        <v>0.34524653939368072</v>
-      </c>
-      <c r="Q39">
-        <f t="shared" si="7"/>
-        <v>0.34524653939368072</v>
-      </c>
-      <c r="R39">
-        <f t="shared" si="7"/>
-        <v>0.34524653939368072</v>
-      </c>
-      <c r="S39">
-        <f t="shared" si="7"/>
-        <v>0.34524653939368072</v>
-      </c>
-      <c r="T39">
-        <f t="shared" si="7"/>
-        <v>0.34524653939368072</v>
-      </c>
-      <c r="U39">
-        <f t="shared" si="7"/>
-        <v>0.34524653939368072</v>
-      </c>
-      <c r="V39">
-        <f t="shared" si="7"/>
-        <v>0.34524653939368072</v>
+        <v>0.65475346060631923</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>-1</v>
       </c>
-      <c r="B40">
-        <f t="shared" si="6"/>
-        <v>0.31002551887238755</v>
-      </c>
-      <c r="C40">
-        <f t="shared" si="6"/>
-        <v>0.31002551887238755</v>
-      </c>
-      <c r="D40">
+      <c r="B40" s="13">
+        <f t="shared" si="6"/>
+        <v>0.6899744811276125</v>
+      </c>
+      <c r="C40" s="13">
+        <f t="shared" si="6"/>
+        <v>0.6899744811276125</v>
+      </c>
+      <c r="D40" s="13">
+        <f t="shared" si="6"/>
+        <v>0.6899744811276125</v>
+      </c>
+      <c r="E40" s="13">
+        <f t="shared" si="6"/>
+        <v>0.6899744811276125</v>
+      </c>
+      <c r="F40" s="13">
+        <f t="shared" si="6"/>
+        <v>0.6899744811276125</v>
+      </c>
+      <c r="G40" s="13">
+        <f t="shared" si="6"/>
+        <v>0.6899744811276125</v>
+      </c>
+      <c r="H40" s="13">
+        <f t="shared" si="6"/>
+        <v>0.6899744811276125</v>
+      </c>
+      <c r="I40" s="13">
+        <f t="shared" si="6"/>
+        <v>0.6899744811276125</v>
+      </c>
+      <c r="J40" s="13">
+        <f t="shared" si="6"/>
+        <v>0.6899744811276125</v>
+      </c>
+      <c r="K40" s="13">
+        <f t="shared" si="6"/>
+        <v>0.6899744811276125</v>
+      </c>
+      <c r="L40" s="13">
+        <f t="shared" si="6"/>
+        <v>0.6899744811276125</v>
+      </c>
+      <c r="M40" s="13">
+        <f t="shared" si="6"/>
+        <v>0.6899744811276125</v>
+      </c>
+      <c r="N40" s="13">
+        <f t="shared" si="6"/>
+        <v>0.6899744811276125</v>
+      </c>
+      <c r="O40" s="13">
+        <f t="shared" si="6"/>
+        <v>0.6899744811276125</v>
+      </c>
+      <c r="P40" s="13">
+        <f t="shared" si="6"/>
+        <v>0.6899744811276125</v>
+      </c>
+      <c r="Q40" s="13">
+        <f t="shared" si="6"/>
+        <v>0.6899744811276125</v>
+      </c>
+      <c r="R40" s="13">
         <f t="shared" si="7"/>
-        <v>0.31002551887238755</v>
-      </c>
-      <c r="E40">
+        <v>0.6899744811276125</v>
+      </c>
+      <c r="S40" s="13">
         <f t="shared" si="7"/>
-        <v>0.31002551887238755</v>
-      </c>
-      <c r="F40">
+        <v>0.6899744811276125</v>
+      </c>
+      <c r="T40" s="13">
         <f t="shared" si="7"/>
-        <v>0.31002551887238755</v>
-      </c>
-      <c r="G40">
+        <v>0.6899744811276125</v>
+      </c>
+      <c r="U40" s="13">
         <f t="shared" si="7"/>
-        <v>0.31002551887238755</v>
-      </c>
-      <c r="H40">
+        <v>0.6899744811276125</v>
+      </c>
+      <c r="V40" s="13">
         <f t="shared" si="7"/>
-        <v>0.31002551887238755</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="7"/>
-        <v>0.31002551887238755</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="7"/>
-        <v>0.31002551887238755</v>
-      </c>
-      <c r="K40">
-        <f t="shared" si="7"/>
-        <v>0.31002551887238755</v>
-      </c>
-      <c r="L40">
-        <f t="shared" si="7"/>
-        <v>0.31002551887238755</v>
-      </c>
-      <c r="M40">
-        <f t="shared" si="7"/>
-        <v>0.31002551887238755</v>
-      </c>
-      <c r="N40">
-        <f t="shared" si="7"/>
-        <v>0.31002551887238755</v>
-      </c>
-      <c r="O40">
-        <f t="shared" si="7"/>
-        <v>0.31002551887238755</v>
-      </c>
-      <c r="P40">
-        <f t="shared" si="7"/>
-        <v>0.31002551887238755</v>
-      </c>
-      <c r="Q40">
-        <f t="shared" si="7"/>
-        <v>0.31002551887238755</v>
-      </c>
-      <c r="R40">
-        <f t="shared" si="7"/>
-        <v>0.31002551887238755</v>
-      </c>
-      <c r="S40">
-        <f t="shared" si="7"/>
-        <v>0.31002551887238755</v>
-      </c>
-      <c r="T40">
-        <f t="shared" si="7"/>
-        <v>0.31002551887238755</v>
-      </c>
-      <c r="U40">
-        <f t="shared" si="7"/>
-        <v>0.31002551887238755</v>
-      </c>
-      <c r="V40">
-        <f t="shared" si="7"/>
-        <v>0.31002551887238755</v>
+        <v>0.6899744811276125</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>-1.2</v>
       </c>
-      <c r="B41">
-        <f t="shared" si="6"/>
-        <v>0.27687819487561016</v>
-      </c>
-      <c r="C41">
-        <f t="shared" si="6"/>
-        <v>0.27687819487561016</v>
-      </c>
-      <c r="D41">
+      <c r="B41" s="13">
+        <f t="shared" si="6"/>
+        <v>0.72312180512438984</v>
+      </c>
+      <c r="C41" s="13">
+        <f t="shared" si="6"/>
+        <v>0.72312180512438984</v>
+      </c>
+      <c r="D41" s="13">
+        <f t="shared" si="6"/>
+        <v>0.72312180512438984</v>
+      </c>
+      <c r="E41" s="13">
+        <f t="shared" si="6"/>
+        <v>0.72312180512438984</v>
+      </c>
+      <c r="F41" s="13">
+        <f t="shared" si="6"/>
+        <v>0.72312180512438984</v>
+      </c>
+      <c r="G41" s="13">
+        <f t="shared" si="6"/>
+        <v>0.72312180512438984</v>
+      </c>
+      <c r="H41" s="13">
+        <f t="shared" si="6"/>
+        <v>0.72312180512438984</v>
+      </c>
+      <c r="I41" s="13">
+        <f t="shared" si="6"/>
+        <v>0.72312180512438984</v>
+      </c>
+      <c r="J41" s="13">
+        <f t="shared" si="6"/>
+        <v>0.72312180512438984</v>
+      </c>
+      <c r="K41" s="13">
+        <f t="shared" si="6"/>
+        <v>0.72312180512438984</v>
+      </c>
+      <c r="L41" s="13">
+        <f t="shared" si="6"/>
+        <v>0.72312180512438984</v>
+      </c>
+      <c r="M41" s="13">
+        <f t="shared" si="6"/>
+        <v>0.72312180512438984</v>
+      </c>
+      <c r="N41" s="13">
+        <f t="shared" si="6"/>
+        <v>0.72312180512438984</v>
+      </c>
+      <c r="O41" s="13">
+        <f t="shared" si="6"/>
+        <v>0.72312180512438984</v>
+      </c>
+      <c r="P41" s="13">
+        <f t="shared" si="6"/>
+        <v>0.72312180512438984</v>
+      </c>
+      <c r="Q41" s="13">
+        <f t="shared" si="6"/>
+        <v>0.72312180512438984</v>
+      </c>
+      <c r="R41" s="13">
         <f t="shared" si="7"/>
-        <v>0.27687819487561016</v>
-      </c>
-      <c r="E41">
+        <v>0.72312180512438984</v>
+      </c>
+      <c r="S41" s="13">
         <f t="shared" si="7"/>
-        <v>0.27687819487561016</v>
-      </c>
-      <c r="F41">
+        <v>0.72312180512438984</v>
+      </c>
+      <c r="T41" s="13">
         <f t="shared" si="7"/>
-        <v>0.27687819487561016</v>
-      </c>
-      <c r="G41">
+        <v>0.72312180512438984</v>
+      </c>
+      <c r="U41" s="13">
         <f t="shared" si="7"/>
-        <v>0.27687819487561016</v>
-      </c>
-      <c r="H41">
+        <v>0.72312180512438984</v>
+      </c>
+      <c r="V41" s="13">
         <f t="shared" si="7"/>
-        <v>0.27687819487561016</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="7"/>
-        <v>0.27687819487561016</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="7"/>
-        <v>0.27687819487561016</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="7"/>
-        <v>0.27687819487561016</v>
-      </c>
-      <c r="L41">
-        <f t="shared" si="7"/>
-        <v>0.27687819487561016</v>
-      </c>
-      <c r="M41">
-        <f t="shared" si="7"/>
-        <v>0.27687819487561016</v>
-      </c>
-      <c r="N41">
-        <f t="shared" si="7"/>
-        <v>0.27687819487561016</v>
-      </c>
-      <c r="O41">
-        <f t="shared" si="7"/>
-        <v>0.27687819487561016</v>
-      </c>
-      <c r="P41">
-        <f t="shared" si="7"/>
-        <v>0.27687819487561016</v>
-      </c>
-      <c r="Q41">
-        <f t="shared" si="7"/>
-        <v>0.27687819487561016</v>
-      </c>
-      <c r="R41">
-        <f t="shared" si="7"/>
-        <v>0.27687819487561016</v>
-      </c>
-      <c r="S41">
-        <f t="shared" si="7"/>
-        <v>0.27687819487561016</v>
-      </c>
-      <c r="T41">
-        <f t="shared" si="7"/>
-        <v>0.27687819487561016</v>
-      </c>
-      <c r="U41">
-        <f t="shared" si="7"/>
-        <v>0.27687819487561016</v>
-      </c>
-      <c r="V41">
-        <f t="shared" si="7"/>
-        <v>0.27687819487561016</v>
+        <v>0.72312180512438984</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>-1.4</v>
       </c>
-      <c r="B42">
-        <f t="shared" si="6"/>
-        <v>0.24601128355105195</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="6"/>
-        <v>0.24601128355105195</v>
-      </c>
-      <c r="D42">
+      <c r="B42" s="13">
+        <f t="shared" si="6"/>
+        <v>0.75398871644894805</v>
+      </c>
+      <c r="C42" s="13">
+        <f t="shared" si="6"/>
+        <v>0.75398871644894805</v>
+      </c>
+      <c r="D42" s="13">
+        <f t="shared" si="6"/>
+        <v>0.75398871644894805</v>
+      </c>
+      <c r="E42" s="13">
+        <f t="shared" si="6"/>
+        <v>0.75398871644894805</v>
+      </c>
+      <c r="F42" s="13">
+        <f t="shared" si="6"/>
+        <v>0.75398871644894805</v>
+      </c>
+      <c r="G42" s="13">
+        <f t="shared" si="6"/>
+        <v>0.75398871644894805</v>
+      </c>
+      <c r="H42" s="13">
+        <f t="shared" si="6"/>
+        <v>0.75398871644894805</v>
+      </c>
+      <c r="I42" s="13">
+        <f t="shared" si="6"/>
+        <v>0.75398871644894805</v>
+      </c>
+      <c r="J42" s="13">
+        <f t="shared" si="6"/>
+        <v>0.75398871644894805</v>
+      </c>
+      <c r="K42" s="13">
+        <f t="shared" si="6"/>
+        <v>0.75398871644894805</v>
+      </c>
+      <c r="L42" s="13">
+        <f t="shared" si="6"/>
+        <v>0.75398871644894805</v>
+      </c>
+      <c r="M42" s="13">
+        <f t="shared" si="6"/>
+        <v>0.75398871644894805</v>
+      </c>
+      <c r="N42" s="13">
+        <f t="shared" si="6"/>
+        <v>0.75398871644894805</v>
+      </c>
+      <c r="O42" s="13">
+        <f t="shared" si="6"/>
+        <v>0.75398871644894805</v>
+      </c>
+      <c r="P42" s="13">
+        <f t="shared" si="6"/>
+        <v>0.75398871644894805</v>
+      </c>
+      <c r="Q42" s="13">
+        <f t="shared" si="6"/>
+        <v>0.75398871644894805</v>
+      </c>
+      <c r="R42" s="13">
         <f t="shared" si="7"/>
-        <v>0.24601128355105195</v>
-      </c>
-      <c r="E42">
+        <v>0.75398871644894805</v>
+      </c>
+      <c r="S42" s="13">
         <f t="shared" si="7"/>
-        <v>0.24601128355105195</v>
-      </c>
-      <c r="F42">
+        <v>0.75398871644894805</v>
+      </c>
+      <c r="T42" s="13">
         <f t="shared" si="7"/>
-        <v>0.24601128355105195</v>
-      </c>
-      <c r="G42">
+        <v>0.75398871644894805</v>
+      </c>
+      <c r="U42" s="13">
         <f t="shared" si="7"/>
-        <v>0.24601128355105195</v>
-      </c>
-      <c r="H42">
+        <v>0.75398871644894805</v>
+      </c>
+      <c r="V42" s="13">
         <f t="shared" si="7"/>
-        <v>0.24601128355105195</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="7"/>
-        <v>0.24601128355105195</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="7"/>
-        <v>0.24601128355105195</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="7"/>
-        <v>0.24601128355105195</v>
-      </c>
-      <c r="L42">
-        <f t="shared" si="7"/>
-        <v>0.24601128355105195</v>
-      </c>
-      <c r="M42">
-        <f t="shared" si="7"/>
-        <v>0.24601128355105195</v>
-      </c>
-      <c r="N42">
-        <f t="shared" si="7"/>
-        <v>0.24601128355105195</v>
-      </c>
-      <c r="O42">
-        <f t="shared" si="7"/>
-        <v>0.24601128355105195</v>
-      </c>
-      <c r="P42">
-        <f t="shared" si="7"/>
-        <v>0.24601128355105195</v>
-      </c>
-      <c r="Q42">
-        <f t="shared" si="7"/>
-        <v>0.24601128355105195</v>
-      </c>
-      <c r="R42">
-        <f t="shared" si="7"/>
-        <v>0.24601128355105195</v>
-      </c>
-      <c r="S42">
-        <f t="shared" si="7"/>
-        <v>0.24601128355105195</v>
-      </c>
-      <c r="T42">
-        <f t="shared" si="7"/>
-        <v>0.24601128355105195</v>
-      </c>
-      <c r="U42">
-        <f t="shared" si="7"/>
-        <v>0.24601128355105195</v>
-      </c>
-      <c r="V42">
-        <f t="shared" si="7"/>
-        <v>0.24601128355105195</v>
+        <v>0.75398871644894805</v>
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>-1.6</v>
       </c>
-      <c r="B43">
-        <f t="shared" si="6"/>
-        <v>0.21755022357688744</v>
-      </c>
-      <c r="C43">
-        <f t="shared" si="6"/>
-        <v>0.21755022357688744</v>
-      </c>
-      <c r="D43">
+      <c r="B43" s="13">
+        <f t="shared" si="6"/>
+        <v>0.78244977642311253</v>
+      </c>
+      <c r="C43" s="13">
+        <f t="shared" si="6"/>
+        <v>0.78244977642311253</v>
+      </c>
+      <c r="D43" s="13">
+        <f t="shared" si="6"/>
+        <v>0.78244977642311253</v>
+      </c>
+      <c r="E43" s="13">
+        <f t="shared" si="6"/>
+        <v>0.78244977642311253</v>
+      </c>
+      <c r="F43" s="13">
+        <f t="shared" si="6"/>
+        <v>0.78244977642311253</v>
+      </c>
+      <c r="G43" s="13">
+        <f t="shared" si="6"/>
+        <v>0.78244977642311253</v>
+      </c>
+      <c r="H43" s="13">
+        <f t="shared" si="6"/>
+        <v>0.78244977642311253</v>
+      </c>
+      <c r="I43" s="13">
+        <f t="shared" si="6"/>
+        <v>0.78244977642311253</v>
+      </c>
+      <c r="J43" s="13">
+        <f t="shared" si="6"/>
+        <v>0.78244977642311253</v>
+      </c>
+      <c r="K43" s="13">
+        <f t="shared" si="6"/>
+        <v>0.78244977642311253</v>
+      </c>
+      <c r="L43" s="13">
+        <f t="shared" si="6"/>
+        <v>0.78244977642311253</v>
+      </c>
+      <c r="M43" s="13">
+        <f t="shared" si="6"/>
+        <v>0.78244977642311253</v>
+      </c>
+      <c r="N43" s="13">
+        <f t="shared" si="6"/>
+        <v>0.78244977642311253</v>
+      </c>
+      <c r="O43" s="13">
+        <f t="shared" si="6"/>
+        <v>0.78244977642311253</v>
+      </c>
+      <c r="P43" s="13">
+        <f t="shared" si="6"/>
+        <v>0.78244977642311253</v>
+      </c>
+      <c r="Q43" s="13">
+        <f t="shared" si="6"/>
+        <v>0.78244977642311253</v>
+      </c>
+      <c r="R43" s="13">
         <f t="shared" si="7"/>
-        <v>0.21755022357688744</v>
-      </c>
-      <c r="E43">
+        <v>0.78244977642311253</v>
+      </c>
+      <c r="S43" s="13">
         <f t="shared" si="7"/>
-        <v>0.21755022357688744</v>
-      </c>
-      <c r="F43">
+        <v>0.78244977642311253</v>
+      </c>
+      <c r="T43" s="13">
         <f t="shared" si="7"/>
-        <v>0.21755022357688744</v>
-      </c>
-      <c r="G43">
+        <v>0.78244977642311253</v>
+      </c>
+      <c r="U43" s="13">
         <f t="shared" si="7"/>
-        <v>0.21755022357688744</v>
-      </c>
-      <c r="H43">
+        <v>0.78244977642311253</v>
+      </c>
+      <c r="V43" s="13">
         <f t="shared" si="7"/>
-        <v>0.21755022357688744</v>
-      </c>
-      <c r="I43">
-        <f t="shared" si="7"/>
-        <v>0.21755022357688744</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="7"/>
-        <v>0.21755022357688744</v>
-      </c>
-      <c r="K43">
-        <f t="shared" si="7"/>
-        <v>0.21755022357688744</v>
-      </c>
-      <c r="L43">
-        <f t="shared" si="7"/>
-        <v>0.21755022357688744</v>
-      </c>
-      <c r="M43">
-        <f t="shared" si="7"/>
-        <v>0.21755022357688744</v>
-      </c>
-      <c r="N43">
-        <f t="shared" si="7"/>
-        <v>0.21755022357688744</v>
-      </c>
-      <c r="O43">
-        <f t="shared" si="7"/>
-        <v>0.21755022357688744</v>
-      </c>
-      <c r="P43">
-        <f t="shared" si="7"/>
-        <v>0.21755022357688744</v>
-      </c>
-      <c r="Q43">
-        <f t="shared" si="7"/>
-        <v>0.21755022357688744</v>
-      </c>
-      <c r="R43">
-        <f t="shared" si="7"/>
-        <v>0.21755022357688744</v>
-      </c>
-      <c r="S43">
-        <f t="shared" si="7"/>
-        <v>0.21755022357688744</v>
-      </c>
-      <c r="T43">
-        <f t="shared" si="7"/>
-        <v>0.21755022357688744</v>
-      </c>
-      <c r="U43">
-        <f t="shared" si="7"/>
-        <v>0.21755022357688744</v>
-      </c>
-      <c r="V43">
-        <f t="shared" si="7"/>
-        <v>0.21755022357688744</v>
+        <v>0.78244977642311253</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>-1.8</v>
       </c>
-      <c r="B44">
-        <f t="shared" si="6"/>
-        <v>0.19154534856146749</v>
-      </c>
-      <c r="C44">
-        <f t="shared" si="6"/>
-        <v>0.19154534856146749</v>
-      </c>
-      <c r="D44">
+      <c r="B44" s="13">
+        <f t="shared" si="6"/>
+        <v>0.80845465143853246</v>
+      </c>
+      <c r="C44" s="13">
+        <f t="shared" si="6"/>
+        <v>0.80845465143853246</v>
+      </c>
+      <c r="D44" s="13">
+        <f t="shared" si="6"/>
+        <v>0.80845465143853246</v>
+      </c>
+      <c r="E44" s="13">
+        <f t="shared" si="6"/>
+        <v>0.80845465143853246</v>
+      </c>
+      <c r="F44" s="13">
+        <f t="shared" si="6"/>
+        <v>0.80845465143853246</v>
+      </c>
+      <c r="G44" s="13">
+        <f t="shared" si="6"/>
+        <v>0.80845465143853246</v>
+      </c>
+      <c r="H44" s="13">
+        <f t="shared" si="6"/>
+        <v>0.80845465143853246</v>
+      </c>
+      <c r="I44" s="13">
+        <f t="shared" si="6"/>
+        <v>0.80845465143853246</v>
+      </c>
+      <c r="J44" s="13">
+        <f t="shared" si="6"/>
+        <v>0.80845465143853246</v>
+      </c>
+      <c r="K44" s="13">
+        <f t="shared" si="6"/>
+        <v>0.80845465143853246</v>
+      </c>
+      <c r="L44" s="13">
+        <f t="shared" si="6"/>
+        <v>0.80845465143853246</v>
+      </c>
+      <c r="M44" s="13">
+        <f t="shared" si="6"/>
+        <v>0.80845465143853246</v>
+      </c>
+      <c r="N44" s="13">
+        <f t="shared" si="6"/>
+        <v>0.80845465143853246</v>
+      </c>
+      <c r="O44" s="13">
+        <f t="shared" si="6"/>
+        <v>0.80845465143853246</v>
+      </c>
+      <c r="P44" s="13">
+        <f t="shared" si="6"/>
+        <v>0.80845465143853246</v>
+      </c>
+      <c r="Q44" s="13">
+        <f t="shared" si="6"/>
+        <v>0.80845465143853246</v>
+      </c>
+      <c r="R44" s="13">
         <f t="shared" si="7"/>
-        <v>0.19154534856146749</v>
-      </c>
-      <c r="E44">
+        <v>0.80845465143853246</v>
+      </c>
+      <c r="S44" s="13">
         <f t="shared" si="7"/>
-        <v>0.19154534856146749</v>
-      </c>
-      <c r="F44">
+        <v>0.80845465143853246</v>
+      </c>
+      <c r="T44" s="13">
         <f t="shared" si="7"/>
-        <v>0.19154534856146749</v>
-      </c>
-      <c r="G44">
+        <v>0.80845465143853246</v>
+      </c>
+      <c r="U44" s="13">
         <f t="shared" si="7"/>
-        <v>0.19154534856146749</v>
-      </c>
-      <c r="H44">
+        <v>0.80845465143853246</v>
+      </c>
+      <c r="V44" s="13">
         <f t="shared" si="7"/>
-        <v>0.19154534856146749</v>
-      </c>
-      <c r="I44">
-        <f t="shared" si="7"/>
-        <v>0.19154534856146749</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="7"/>
-        <v>0.19154534856146749</v>
-      </c>
-      <c r="K44">
-        <f t="shared" si="7"/>
-        <v>0.19154534856146749</v>
-      </c>
-      <c r="L44">
-        <f t="shared" si="7"/>
-        <v>0.19154534856146749</v>
-      </c>
-      <c r="M44">
-        <f t="shared" si="7"/>
-        <v>0.19154534856146749</v>
-      </c>
-      <c r="N44">
-        <f t="shared" si="7"/>
-        <v>0.19154534856146749</v>
-      </c>
-      <c r="O44">
-        <f t="shared" si="7"/>
-        <v>0.19154534856146749</v>
-      </c>
-      <c r="P44">
-        <f t="shared" si="7"/>
-        <v>0.19154534856146749</v>
-      </c>
-      <c r="Q44">
-        <f t="shared" si="7"/>
-        <v>0.19154534856146749</v>
-      </c>
-      <c r="R44">
-        <f t="shared" si="7"/>
-        <v>0.19154534856146749</v>
-      </c>
-      <c r="S44">
-        <f t="shared" si="7"/>
-        <v>0.19154534856146749</v>
-      </c>
-      <c r="T44">
-        <f t="shared" si="7"/>
-        <v>0.19154534856146749</v>
-      </c>
-      <c r="U44">
-        <f t="shared" si="7"/>
-        <v>0.19154534856146749</v>
-      </c>
-      <c r="V44">
-        <f t="shared" si="7"/>
-        <v>0.19154534856146749</v>
+        <v>0.80845465143853246</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>-2</v>
       </c>
-      <c r="B45" s="7">
-        <f t="shared" si="6"/>
-        <v>0.16798161486607552</v>
-      </c>
-      <c r="C45" s="7">
-        <f t="shared" si="6"/>
-        <v>0.16798161486607552</v>
-      </c>
-      <c r="D45" s="7">
+      <c r="B45" s="13">
+        <f t="shared" si="6"/>
+        <v>0.83201838513392445</v>
+      </c>
+      <c r="C45" s="13">
+        <f t="shared" si="6"/>
+        <v>0.83201838513392445</v>
+      </c>
+      <c r="D45" s="13">
+        <f t="shared" si="6"/>
+        <v>0.83201838513392445</v>
+      </c>
+      <c r="E45" s="13">
+        <f t="shared" si="6"/>
+        <v>0.83201838513392445</v>
+      </c>
+      <c r="F45" s="13">
+        <f t="shared" si="6"/>
+        <v>0.83201838513392445</v>
+      </c>
+      <c r="G45" s="13">
+        <f t="shared" si="6"/>
+        <v>0.83201838513392445</v>
+      </c>
+      <c r="H45" s="13">
+        <f t="shared" si="6"/>
+        <v>0.83201838513392445</v>
+      </c>
+      <c r="I45" s="13">
+        <f t="shared" si="6"/>
+        <v>0.83201838513392445</v>
+      </c>
+      <c r="J45" s="13">
+        <f t="shared" si="6"/>
+        <v>0.83201838513392445</v>
+      </c>
+      <c r="K45" s="13">
+        <f t="shared" si="6"/>
+        <v>0.83201838513392445</v>
+      </c>
+      <c r="L45" s="13">
+        <f t="shared" si="6"/>
+        <v>0.83201838513392445</v>
+      </c>
+      <c r="M45" s="13">
+        <f t="shared" si="6"/>
+        <v>0.83201838513392445</v>
+      </c>
+      <c r="N45" s="13">
+        <f t="shared" si="6"/>
+        <v>0.83201838513392445</v>
+      </c>
+      <c r="O45" s="13">
+        <f t="shared" si="6"/>
+        <v>0.83201838513392445</v>
+      </c>
+      <c r="P45" s="13">
+        <f t="shared" si="6"/>
+        <v>0.83201838513392445</v>
+      </c>
+      <c r="Q45" s="13">
+        <f t="shared" si="6"/>
+        <v>0.83201838513392445</v>
+      </c>
+      <c r="R45" s="13">
         <f t="shared" si="7"/>
-        <v>0.16798161486607552</v>
-      </c>
-      <c r="E45" s="7">
+        <v>0.83201838513392445</v>
+      </c>
+      <c r="S45" s="13">
         <f t="shared" si="7"/>
-        <v>0.16798161486607552</v>
-      </c>
-      <c r="F45" s="7">
+        <v>0.83201838513392445</v>
+      </c>
+      <c r="T45" s="13">
         <f t="shared" si="7"/>
-        <v>0.16798161486607552</v>
-      </c>
-      <c r="G45" s="7">
+        <v>0.83201838513392445</v>
+      </c>
+      <c r="U45" s="13">
         <f t="shared" si="7"/>
-        <v>0.16798161486607552</v>
-      </c>
-      <c r="H45" s="7">
+        <v>0.83201838513392445</v>
+      </c>
+      <c r="V45" s="13">
         <f t="shared" si="7"/>
-        <v>0.16798161486607552</v>
-      </c>
-      <c r="I45" s="7">
-        <f t="shared" si="7"/>
-        <v>0.16798161486607552</v>
-      </c>
-      <c r="J45" s="7">
-        <f t="shared" si="7"/>
-        <v>0.16798161486607552</v>
-      </c>
-      <c r="K45" s="7">
-        <f t="shared" si="7"/>
-        <v>0.16798161486607552</v>
-      </c>
-      <c r="L45" s="7">
-        <f t="shared" si="7"/>
-        <v>0.16798161486607552</v>
-      </c>
-      <c r="M45" s="7">
-        <f t="shared" si="7"/>
-        <v>0.16798161486607552</v>
-      </c>
-      <c r="N45" s="7">
-        <f t="shared" si="7"/>
-        <v>0.16798161486607552</v>
-      </c>
-      <c r="O45" s="7">
-        <f t="shared" si="7"/>
-        <v>0.16798161486607552</v>
-      </c>
-      <c r="P45" s="7">
-        <f t="shared" si="7"/>
-        <v>0.16798161486607552</v>
-      </c>
-      <c r="Q45" s="7">
-        <f t="shared" si="7"/>
-        <v>0.16798161486607552</v>
-      </c>
-      <c r="R45" s="7">
-        <f t="shared" si="7"/>
-        <v>0.16798161486607552</v>
-      </c>
-      <c r="S45" s="7">
-        <f t="shared" si="7"/>
-        <v>0.16798161486607552</v>
-      </c>
-      <c r="T45" s="7">
-        <f t="shared" si="7"/>
-        <v>0.16798161486607552</v>
-      </c>
-      <c r="U45" s="7">
-        <f t="shared" si="7"/>
-        <v>0.16798161486607552</v>
-      </c>
-      <c r="V45" s="7">
-        <f t="shared" si="7"/>
-        <v>0.16798161486607552</v>
+        <v>0.83201838513392445</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <f>B2+B25</f>
+        <v>1.1288158920693112</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ref="C47:V47" si="8">C2+C25</f>
+        <v>1.1223304440816317</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="8"/>
+        <v>1.1148304784680119</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="8"/>
+        <v>1.1061781486024871</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="8"/>
+        <v>1.096224072602324</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="8"/>
+        <v>1.0848089183721532</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="8"/>
+        <v>1.0717660731553829</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="8"/>
+        <v>1.0569256481546678</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="8"/>
+        <v>1.0401200485469944</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="8"/>
+        <v>1.0211912750646932</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="8"/>
+        <v>0.97643626630460811</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="8"/>
+        <v>0.95043139128918797</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="8"/>
+        <v>0.92197033131502359</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="8"/>
+        <v>0.89110341999046538</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="8"/>
+        <v>0.85795609599368805</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="8"/>
+        <v>0.82273507547239477</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="8"/>
+        <v>0.78572948963532452</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="8"/>
+        <v>0.74730586701482504</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="8"/>
+        <v>0.70789649942164123</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="8"/>
+        <v>0.66798161486607555</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <f t="shared" ref="B48:V48" si="9">B3+B26</f>
+        <v>1.1458941777770235</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="9"/>
+        <v>1.1383942121634036</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="9"/>
+        <v>1.1297418822978789</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="9"/>
+        <v>1.119787806297716</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="9"/>
+        <v>1.108372652067545</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="9"/>
+        <v>1.0953298068507746</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="9"/>
+        <v>1.0804893818500598</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="9"/>
+        <v>1.0636837822423861</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="9"/>
+        <v>1.044755008760085</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="9"/>
+        <v>1.0235637336953918</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="9"/>
+        <v>0.97399512498457985</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="9"/>
+        <v>0.94553406501041548</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="9"/>
+        <v>0.91466715368585727</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="9"/>
+        <v>0.88151982968907994</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="9"/>
+        <v>0.84629880916778666</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="9"/>
+        <v>0.8092932233307164</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="9"/>
+        <v>0.77086960071021693</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="9"/>
+        <v>0.73146023311703312</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="9"/>
+        <v>0.69154534856146743</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="9"/>
+        <v>0.65163046400590163</v>
+      </c>
+    </row>
+    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <f t="shared" ref="B49:V49" si="10">B4+B27</f>
+        <v>1.1643990871788237</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="10"/>
+        <v>1.1557467573132989</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="10"/>
+        <v>1.1457926813131363</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="10"/>
+        <v>1.1343775270829652</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="10"/>
+        <v>1.1213346818661947</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="10"/>
+        <v>1.1064942568654801</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="10"/>
+        <v>1.0896886572578062</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="10"/>
+        <v>1.0707598837755052</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="10"/>
+        <v>1.049568608710812</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="10"/>
+        <v>1.02600487501542</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="10"/>
+        <v>0.97153894002583574</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="10"/>
+        <v>0.94067202870127742</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="10"/>
+        <v>0.90752470470450008</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="10"/>
+        <v>0.87230368418320681</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="10"/>
+        <v>0.83529809834613655</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="10"/>
+        <v>0.79687447572563708</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="10"/>
+        <v>0.75746510813245327</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="10"/>
+        <v>0.71755022357688758</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="10"/>
+        <v>0.67763533902132189</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="10"/>
+        <v>0.63822597142813819</v>
+      </c>
+    </row>
+    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <f t="shared" ref="B50:V50" si="11">B5+B28</f>
+        <v>1.1842078172874633</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="11"/>
+        <v>1.1742537412873006</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="11"/>
+        <v>1.1628385870571296</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="11"/>
+        <v>1.149795741840359</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="11"/>
+        <v>1.1349553168396445</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="11"/>
+        <v>1.1181497172319705</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="11"/>
+        <v>1.0992209437496696</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="11"/>
+        <v>1.0780296686849764</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="11"/>
+        <v>1.0544659349895844</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="11"/>
+        <v>1.0284610599741644</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="11"/>
+        <v>0.96913308867544179</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="11"/>
+        <v>0.93598576467866446</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="11"/>
+        <v>0.90076474415737118</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="11"/>
+        <v>0.86375915832030092</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="11"/>
+        <v>0.82533553569980145</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="11"/>
+        <v>0.78592616810661764</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="11"/>
+        <v>0.74601128355105195</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="11"/>
+        <v>0.70609639899548626</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="11"/>
+        <v>0.66668703140230257</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="11"/>
+        <v>0.62826340878180298</v>
+      </c>
+    </row>
+    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <f t="shared" ref="B51:V51" si="12">B6+B29</f>
+        <v>1.2051206526118587</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="12"/>
+        <v>1.1937054983816879</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="12"/>
+        <v>1.1806626531649174</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="12"/>
+        <v>1.1658222281642026</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="12"/>
+        <v>1.1490166285565289</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="12"/>
+        <v>1.1300878550742279</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="12"/>
+        <v>1.1088965800095347</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="12"/>
+        <v>1.0853328463141427</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="12"/>
+        <v>1.0593279712987225</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="12"/>
+        <v>1.0308669113245581</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="12"/>
+        <v>0.96685267600322267</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="12"/>
+        <v>0.93163165548192939</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="12"/>
+        <v>0.89462606964485913</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="12"/>
+        <v>0.85620244702435966</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="12"/>
+        <v>0.81679307943117585</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="12"/>
+        <v>0.77687819487561016</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="12"/>
+        <v>0.73696331032004436</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="12"/>
+        <v>0.69755394272686067</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="12"/>
+        <v>0.65913032010636119</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="12"/>
+        <v>0.62212473426929082</v>
+      </c>
+    </row>
+    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <f t="shared" ref="B52:V52" si="13">B7+B30</f>
+        <v>1.2268528223784652</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="13"/>
+        <v>1.2138099771616946</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="13"/>
+        <v>1.19896955216098</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="13"/>
+        <v>1.1821639525533061</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="13"/>
+        <v>1.1632351790710052</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="13"/>
+        <v>1.1420439040063119</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="13"/>
+        <v>1.11848017031092</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="13"/>
+        <v>1.0924752952954999</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="13"/>
+        <v>1.0640142353213355</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="13"/>
+        <v>1.0331473239967774</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="13"/>
+        <v>0.96477897947870672</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="13"/>
+        <v>0.92777339364163647</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="13"/>
+        <v>0.88934977102113699</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="13"/>
+        <v>0.84994040342795318</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="13"/>
+        <v>0.8100255188723875</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="13"/>
+        <v>0.77011063431682181</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="13"/>
+        <v>0.73070126672363811</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="13"/>
+        <v>0.69227764410313852</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="13"/>
+        <v>0.65527205826606827</v>
+      </c>
+      <c r="V52" s="14">
+        <f t="shared" si="13"/>
+        <v>0.62005103774477499</v>
+      </c>
+    </row>
+    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <f t="shared" ref="B53:V53" si="14">B8+B31</f>
+        <v>1.2490309976829881</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="14"/>
+        <v>1.2341905726822731</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="14"/>
+        <v>1.2173849730745996</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="14"/>
+        <v>1.1984561995922984</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="14"/>
+        <v>1.1772649245276052</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="14"/>
+        <v>1.1537011908322135</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="14"/>
+        <v>1.1276963158167932</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="14"/>
+        <v>1.0992352558426288</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="14"/>
+        <v>1.0683683445180705</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="14"/>
+        <v>1.0352210205212933</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="14"/>
+        <v>0.96299441416292975</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="14"/>
+        <v>0.92457079154243027</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="14"/>
+        <v>0.88516142394924646</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="14"/>
+        <v>0.84524653939368077</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="14"/>
+        <v>0.80533165483811509</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="14"/>
+        <v>0.76592228724493139</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="14"/>
+        <v>0.7274986646244318</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="14"/>
+        <v>0.69049307878736155</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="14"/>
+        <v>0.65527205826606827</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="14"/>
+        <v>0.62212473426929094</v>
+      </c>
+    </row>
+    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <f t="shared" ref="B54:V54" si="15">B9+B32</f>
+        <v>1.2711961585193434</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="15"/>
+        <v>1.2543905589116697</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="15"/>
+        <v>1.2354617854293686</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="15"/>
+        <v>1.2142705103646754</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="15"/>
+        <v>1.1907067766692836</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="15"/>
+        <v>1.1647019016538636</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="15"/>
+        <v>1.1362408416796992</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="15"/>
+        <v>1.1053739303551409</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="15"/>
+        <v>1.0722266063583636</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="15"/>
+        <v>1.0370055858370701</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="15"/>
+        <v>0.96157637737950052</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="15"/>
+        <v>0.92216700978631672</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="15"/>
+        <v>0.88225212523075103</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="15"/>
+        <v>0.84233724067518523</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="15"/>
+        <v>0.80292787308200153</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="15"/>
+        <v>0.76450425046150206</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="15"/>
+        <v>0.7274986646244318</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="15"/>
+        <v>0.69227764410313863</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="15"/>
+        <v>0.65913032010636119</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="15"/>
+        <v>0.62826340878180298</v>
+      </c>
+    </row>
+    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <f t="shared" ref="B55:V55" si="16">B10+B33</f>
+        <v>1.2928141815321692</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="16"/>
+        <v>1.2738854080498681</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="16"/>
+        <v>1.2526941329851748</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="16"/>
+        <v>1.2291303992897831</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="16"/>
+        <v>1.203125524274363</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="16"/>
+        <v>1.1746644643001987</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="16"/>
+        <v>1.1437975529756403</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="16"/>
+        <v>1.1106502289788631</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="16"/>
+        <v>1.0754292084575696</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="16"/>
+        <v>1.0384236226204995</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="16"/>
+        <v>0.96059063240681619</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="16"/>
+        <v>0.9206757478512505</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="16"/>
+        <v>0.8807608632956847</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="16"/>
+        <v>0.84135149570250101</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="16"/>
+        <v>0.80292787308200153</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="16"/>
+        <v>0.76592228724493128</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="16"/>
+        <v>0.73070126672363811</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="16"/>
+        <v>0.69755394272686067</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="16"/>
+        <v>0.66668703140230245</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="16"/>
+        <v>0.63822597142813797</v>
+      </c>
+    </row>
+    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <f t="shared" ref="B56:V56" si="17">B11+B34</f>
+        <v>1.313294775643052</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="17"/>
+        <v>1.2921035005783588</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="17"/>
+        <v>1.268539766882967</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="17"/>
+        <v>1.2425348918675467</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="17"/>
+        <v>1.2140738318933824</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="17"/>
+        <v>1.183206920568824</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="17"/>
+        <v>1.1500595965720468</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="17"/>
+        <v>1.1148385760507535</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="17"/>
+        <v>1.0778329902136834</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="17"/>
+        <v>1.0394093675931839</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="17"/>
+        <v>0.96008511544443431</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="17"/>
+        <v>0.92017023088886862</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="17"/>
+        <v>0.88076086329568493</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="17"/>
+        <v>0.84233724067518534</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="17"/>
+        <v>0.80533165483811509</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="17"/>
+        <v>0.77011063431682181</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="17"/>
+        <v>0.73696331032004447</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="17"/>
+        <v>0.70609639899548626</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="17"/>
+        <v>0.67763533902132178</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="17"/>
+        <v>0.65163046400590185</v>
+      </c>
+    </row>
+    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <f t="shared" ref="B57:V57" si="18">B12+B35</f>
+        <v>1.3320183851339245</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="18"/>
+        <v>1.3084546514385327</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="18"/>
+        <v>1.2824497764231124</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="18"/>
+        <v>1.253988716448948</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="18"/>
+        <v>1.2231218051243897</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="18"/>
+        <v>1.1899744811276125</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="18"/>
+        <v>1.1547534606063192</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="18"/>
+        <v>1.1177478747692491</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="18"/>
+        <v>1.0793242521487496</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="18"/>
+        <v>1.0399148845555657</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="18"/>
+        <v>0.96008511544443431</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="18"/>
+        <v>0.92067574785125061</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="18"/>
+        <v>0.88225212523075103</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="18"/>
+        <v>0.84524653939368077</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="18"/>
+        <v>0.8100255188723875</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="18"/>
+        <v>0.77687819487561016</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="18"/>
+        <v>0.74601128355105195</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="18"/>
+        <v>0.71755022357688747</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="18"/>
+        <v>0.69154534856146754</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="18"/>
+        <v>0.66798161486607555</v>
+      </c>
+    </row>
+    <row r="58" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <f t="shared" ref="B58:V58" si="19">B13+B36</f>
+        <v>1.3483695359940984</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="19"/>
+        <v>1.3223646609786781</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="19"/>
+        <v>1.293903601004514</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="19"/>
+        <v>1.2630366896799554</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="19"/>
+        <v>1.2298893656831782</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="19"/>
+        <v>1.1946683451618849</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="19"/>
+        <v>1.1576627593248148</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="19"/>
+        <v>1.1192391367043153</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="19"/>
+        <v>1.0798297691111314</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="19"/>
+        <v>1.0399148845555657</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="19"/>
+        <v>0.9605906324068163</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="19"/>
+        <v>0.92216700978631672</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="19"/>
+        <v>0.88516142394924646</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="19"/>
+        <v>0.84994040342795318</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="19"/>
+        <v>0.81679307943117585</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="19"/>
+        <v>0.78592616810661764</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="19"/>
+        <v>0.75746510813245316</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="19"/>
+        <v>0.73146023311703323</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="19"/>
+        <v>0.70789649942164123</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="19"/>
+        <v>0.68670522435694803</v>
+      </c>
+    </row>
+    <row r="59" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <f t="shared" ref="B59:V59" si="20">B14+B37</f>
+        <v>1.3617740285718618</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="20"/>
+        <v>1.3333129685976974</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="20"/>
+        <v>1.3024460572731393</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="20"/>
+        <v>1.2692987332763619</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="20"/>
+        <v>1.2340777127550686</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="20"/>
+        <v>1.1970721269179982</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="20"/>
+        <v>1.1586485042974988</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="20"/>
+        <v>1.1192391367043151</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="20"/>
+        <v>1.0793242521487494</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="20"/>
+        <v>1.0394093675931837</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="20"/>
+        <v>0.96157637737950041</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="20"/>
+        <v>0.92457079154243016</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="20"/>
+        <v>0.88934977102113688</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="20"/>
+        <v>0.85620244702435944</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="20"/>
+        <v>0.82533553569980134</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="20"/>
+        <v>0.79687447572563685</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="20"/>
+        <v>0.77086960071021693</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="20"/>
+        <v>0.74730586701482493</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="20"/>
+        <v>0.72611459195013173</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="20"/>
+        <v>0.70718581846783068</v>
+      </c>
+    </row>
+    <row r="60" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <f t="shared" ref="B60:V60" si="21">B15+B38</f>
+        <v>1.3717365912181969</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="21"/>
+        <v>1.3408696798936388</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="21"/>
+        <v>1.3077223558968614</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="21"/>
+        <v>1.2725013353755683</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="21"/>
+        <v>1.2354957495384979</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="21"/>
+        <v>1.1970721269179985</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="21"/>
+        <v>1.1576627593248148</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="21"/>
+        <v>1.1177478747692491</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="21"/>
+        <v>1.0778329902136832</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="21"/>
+        <v>1.0384236226204995</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="21"/>
+        <v>0.96299441416292964</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="21"/>
+        <v>0.92777339364163658</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="21"/>
+        <v>0.89462606964485913</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="21"/>
+        <v>0.86375915832030092</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="21"/>
+        <v>0.83529809834613644</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="21"/>
+        <v>0.80929322333071652</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="21"/>
+        <v>0.78572948963532452</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="21"/>
+        <v>0.76453821457063131</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="21"/>
+        <v>0.74560944108833027</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="21"/>
+        <v>0.72880384148065658</v>
+      </c>
+    </row>
+    <row r="61" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <f t="shared" ref="B61:V61" si="22">B16+B39</f>
+        <v>1.377875265730709</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="22"/>
+        <v>1.3447279417339317</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="22"/>
+        <v>1.3095069212126385</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="22"/>
+        <v>1.2725013353755683</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="22"/>
+        <v>1.2340777127550688</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="22"/>
+        <v>1.1946683451618849</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="22"/>
+        <v>1.1547534606063192</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="22"/>
+        <v>1.1148385760507535</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="22"/>
+        <v>1.0754292084575698</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="22"/>
+        <v>1.0370055858370701</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="22"/>
+        <v>0.96477897947870672</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="22"/>
+        <v>0.93163165548192928</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="22"/>
+        <v>0.90076474415737118</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="22"/>
+        <v>0.8723036841832067</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="22"/>
+        <v>0.84629880916778677</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="22"/>
+        <v>0.82273507547239477</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="22"/>
+        <v>0.80154380040770157</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="22"/>
+        <v>0.78261502692540053</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="22"/>
+        <v>0.76580942731772683</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="22"/>
+        <v>0.75096900231701214</v>
+      </c>
+    </row>
+    <row r="62" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <f t="shared" ref="B62:V62" si="23">B17+B40</f>
+        <v>1.379948962255225</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="23"/>
+        <v>1.3447279417339317</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="23"/>
+        <v>1.3077223558968614</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="23"/>
+        <v>1.2692987332763619</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="23"/>
+        <v>1.2298893656831782</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="23"/>
+        <v>1.1899744811276125</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="23"/>
+        <v>1.1500595965720468</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="23"/>
+        <v>1.1106502289788631</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="23"/>
+        <v>1.0722266063583636</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="23"/>
+        <v>1.0352210205212933</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="23"/>
+        <v>0.96685267600322267</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="23"/>
+        <v>0.93598576467866446</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="23"/>
+        <v>0.90752470470449997</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="23"/>
+        <v>0.88151982968908005</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="23"/>
+        <v>0.85795609599368805</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="23"/>
+        <v>0.83676482092899485</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="23"/>
+        <v>0.8178360474466938</v>
+      </c>
+      <c r="T62">
+        <f t="shared" si="23"/>
+        <v>0.80103044783902011</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="23"/>
+        <v>0.78619002283830541</v>
+      </c>
+      <c r="V62">
+        <f t="shared" si="23"/>
+        <v>0.77314717762153484</v>
+      </c>
+    </row>
+    <row r="63" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <f t="shared" ref="B63:V63" si="24">B18+B41</f>
+        <v>1.377875265730709</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="24"/>
+        <v>1.3408696798936388</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="24"/>
+        <v>1.3024460572731393</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="24"/>
+        <v>1.2630366896799554</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="24"/>
+        <v>1.2231218051243897</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="24"/>
+        <v>1.183206920568824</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="24"/>
+        <v>1.1437975529756403</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="24"/>
+        <v>1.1053739303551409</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="24"/>
+        <v>1.0683683445180705</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="24"/>
+        <v>1.0331473239967774</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="24"/>
+        <v>0.96913308867544179</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="24"/>
+        <v>0.94067202870127731</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="24"/>
+        <v>0.91466715368585738</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="24"/>
+        <v>0.89110341999046538</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="24"/>
+        <v>0.86991214492577218</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="24"/>
+        <v>0.85098337144347114</v>
+      </c>
+      <c r="S63">
+        <f t="shared" si="24"/>
+        <v>0.83417777183579744</v>
+      </c>
+      <c r="T63">
+        <f t="shared" si="24"/>
+        <v>0.81933734683508275</v>
+      </c>
+      <c r="U63">
+        <f t="shared" si="24"/>
+        <v>0.80629450161831218</v>
+      </c>
+      <c r="V63">
+        <f t="shared" si="24"/>
+        <v>0.79487934738814114</v>
+      </c>
+    </row>
+    <row r="64" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <f t="shared" ref="B64:V64" si="25">B19+B42</f>
+        <v>1.3717365912181969</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="25"/>
+        <v>1.3333129685976974</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="25"/>
+        <v>1.2939036010045137</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="25"/>
+        <v>1.253988716448948</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="25"/>
+        <v>1.2140738318933824</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="25"/>
+        <v>1.1746644643001987</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="25"/>
+        <v>1.1362408416796992</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="25"/>
+        <v>1.0992352558426288</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="25"/>
+        <v>1.0640142353213355</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="25"/>
+        <v>1.0308669113245581</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="25"/>
+        <v>0.97153894002583552</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="25"/>
+        <v>0.94553406501041559</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="25"/>
+        <v>0.92197033131502359</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="25"/>
+        <v>0.90077905625033039</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="25"/>
+        <v>0.88185028276802935</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="25"/>
+        <v>0.86504468316035565</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="25"/>
+        <v>0.85020425815964096</v>
+      </c>
+      <c r="T64">
+        <f t="shared" si="25"/>
+        <v>0.83716141294287039</v>
+      </c>
+      <c r="U64">
+        <f t="shared" si="25"/>
+        <v>0.82574625871269935</v>
+      </c>
+      <c r="V64">
+        <f t="shared" si="25"/>
+        <v>0.81579218271253662</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <f t="shared" ref="B65:V65" si="26">B20+B43</f>
+        <v>1.361774028571862</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="26"/>
+        <v>1.3223646609786783</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="26"/>
+        <v>1.2824497764231126</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="26"/>
+        <v>1.2425348918675467</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="26"/>
+        <v>1.203125524274363</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="26"/>
+        <v>1.1647019016538636</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="26"/>
+        <v>1.1276963158167932</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="26"/>
+        <v>1.0924752952955001</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="26"/>
+        <v>1.0593279712987227</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="26"/>
+        <v>1.0284610599741644</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="26"/>
+        <v>0.97399512498457996</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="26"/>
+        <v>0.95043139128918808</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="26"/>
+        <v>0.92924011622449487</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="26"/>
+        <v>0.91031134274219383</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="26"/>
+        <v>0.89350574313452014</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="26"/>
+        <v>0.87866531813380544</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="26"/>
+        <v>0.86562247291703487</v>
+      </c>
+      <c r="T65">
+        <f t="shared" si="26"/>
+        <v>0.85420731868686384</v>
+      </c>
+      <c r="U65">
+        <f t="shared" si="26"/>
+        <v>0.8442532426867011</v>
+      </c>
+      <c r="V65">
+        <f t="shared" si="26"/>
+        <v>0.83560091282117621</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <f t="shared" ref="B66:V66" si="27">B21+B44</f>
+        <v>1.3483695359940981</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="27"/>
+        <v>1.3084546514385325</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="27"/>
+        <v>1.2685397668829668</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="27"/>
+        <v>1.2291303992897831</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="27"/>
+        <v>1.1907067766692836</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="27"/>
+        <v>1.1537011908322132</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="27"/>
+        <v>1.11848017031092</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="27"/>
+        <v>1.0853328463141425</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="27"/>
+        <v>1.0544659349895844</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="27"/>
+        <v>1.0260048750154198</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="27"/>
+        <v>0.976436266304608</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="27"/>
+        <v>0.9552449912399148</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="27"/>
+        <v>0.93631621775761376</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="27"/>
+        <v>0.91951061814994006</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="27"/>
+        <v>0.90467019314922537</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="27"/>
+        <v>0.89162734793245479</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="27"/>
+        <v>0.88021219370228376</v>
+      </c>
+      <c r="T66">
+        <f t="shared" si="27"/>
+        <v>0.87025811770212103</v>
+      </c>
+      <c r="U66">
+        <f t="shared" si="27"/>
+        <v>0.86160578783659614</v>
+      </c>
+      <c r="V66">
+        <f t="shared" si="27"/>
+        <v>0.85410582222297615</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <f t="shared" ref="B67:V67" si="28">B22+B45</f>
+        <v>1.3320183851339245</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="28"/>
+        <v>1.2921035005783588</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="28"/>
+        <v>1.2526941329851751</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="28"/>
+        <v>1.2142705103646754</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="28"/>
+        <v>1.1772649245276052</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="28"/>
+        <v>1.1420439040063119</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="28"/>
+        <v>1.1088965800095347</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="28"/>
+        <v>1.0780296686849764</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="28"/>
+        <v>1.0495686087108118</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="28"/>
+        <v>1.023563733695392</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="28"/>
+        <v>0.9788087249353068</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="28"/>
+        <v>0.95987995145300575</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="28"/>
+        <v>0.94307435184533206</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="28"/>
+        <v>0.92823392684461736</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" si="28"/>
+        <v>0.91519108162784679</v>
+      </c>
+      <c r="R67">
+        <f t="shared" si="28"/>
+        <v>0.90377592739767576</v>
+      </c>
+      <c r="S67">
+        <f t="shared" si="28"/>
+        <v>0.89382185139751302</v>
+      </c>
+      <c r="T67">
+        <f t="shared" si="28"/>
+        <v>0.88516952153198813</v>
+      </c>
+      <c r="U67">
+        <f t="shared" si="28"/>
+        <v>0.87766955591836815</v>
+      </c>
+      <c r="V67">
+        <f t="shared" si="28"/>
+        <v>0.87118410793068879</v>
       </c>
     </row>
   </sheetData>

--- a/Лист Microsoft Excel.xlsx
+++ b/Лист Microsoft Excel.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\JavaScript\Neuronets\Neuronets-v2-6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Program\Neuronets\Neuronets-v2-6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C78D309-901C-4926-8124-D295D4A15A9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3690" yWindow="1350" windowWidth="23445" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3690" yWindow="1350" windowWidth="23445" windowHeight="14400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,7 +53,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -166,11 +165,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -450,11 +449,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R31" sqref="R30:R31"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1910,13 +1909,13 @@
       <c r="Z16">
         <v>1</v>
       </c>
-      <c r="AA16" s="12">
+      <c r="AA16" s="14">
         <v>-1</v>
       </c>
-      <c r="AB16" s="12" t="s">
+      <c r="AB16" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="AC16" s="12" t="s">
+      <c r="AC16" s="14" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2017,9 +2016,9 @@
       <c r="Z17">
         <v>-2</v>
       </c>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="12"/>
-      <c r="AC17" s="12"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -2302,13 +2301,13 @@
       <c r="Z20">
         <v>1</v>
       </c>
-      <c r="AA20" s="12">
+      <c r="AA20" s="14">
         <v>1</v>
       </c>
-      <c r="AB20" s="12" t="s">
+      <c r="AB20" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="AC20" s="12" t="s">
+      <c r="AC20" s="14" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2409,9 +2408,9 @@
       <c r="Z21">
         <v>0</v>
       </c>
-      <c r="AA21" s="12"/>
-      <c r="AB21" s="12"/>
-      <c r="AC21" s="12"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="14"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -2571,87 +2570,87 @@
       <c r="A25" s="2">
         <v>2</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="12">
         <f>1-1/(1+EXP(-0.8*($A25)))</f>
         <v>0.16798161486607555</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="12">
         <f t="shared" ref="C25:V37" si="5">1-1/(1+EXP(-0.8*($A25)))</f>
         <v>0.16798161486607555</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="12">
         <f t="shared" si="5"/>
         <v>0.16798161486607555</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="12">
         <f t="shared" si="5"/>
         <v>0.16798161486607555</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="12">
         <f t="shared" si="5"/>
         <v>0.16798161486607555</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="12">
         <f t="shared" si="5"/>
         <v>0.16798161486607555</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="12">
         <f t="shared" si="5"/>
         <v>0.16798161486607555</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="12">
         <f t="shared" si="5"/>
         <v>0.16798161486607555</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J25" s="12">
         <f t="shared" si="5"/>
         <v>0.16798161486607555</v>
       </c>
-      <c r="K25" s="13">
+      <c r="K25" s="12">
         <f t="shared" si="5"/>
         <v>0.16798161486607555</v>
       </c>
-      <c r="L25" s="13">
+      <c r="L25" s="12">
         <f t="shared" si="5"/>
         <v>0.16798161486607555</v>
       </c>
-      <c r="M25" s="13">
+      <c r="M25" s="12">
         <f t="shared" si="5"/>
         <v>0.16798161486607555</v>
       </c>
-      <c r="N25" s="13">
+      <c r="N25" s="12">
         <f t="shared" si="5"/>
         <v>0.16798161486607555</v>
       </c>
-      <c r="O25" s="13">
+      <c r="O25" s="12">
         <f t="shared" si="5"/>
         <v>0.16798161486607555</v>
       </c>
-      <c r="P25" s="13">
+      <c r="P25" s="12">
         <f t="shared" si="5"/>
         <v>0.16798161486607555</v>
       </c>
-      <c r="Q25" s="13">
+      <c r="Q25" s="12">
         <f t="shared" si="5"/>
         <v>0.16798161486607555</v>
       </c>
-      <c r="R25" s="13">
+      <c r="R25" s="12">
         <f t="shared" si="5"/>
         <v>0.16798161486607555</v>
       </c>
-      <c r="S25" s="13">
+      <c r="S25" s="12">
         <f t="shared" si="5"/>
         <v>0.16798161486607555</v>
       </c>
-      <c r="T25" s="13">
+      <c r="T25" s="12">
         <f t="shared" si="5"/>
         <v>0.16798161486607555</v>
       </c>
-      <c r="U25" s="13">
+      <c r="U25" s="12">
         <f t="shared" si="5"/>
         <v>0.16798161486607555</v>
       </c>
-      <c r="V25" s="13">
+      <c r="V25" s="12">
         <f t="shared" si="5"/>
         <v>0.16798161486607555</v>
       </c>
@@ -2660,87 +2659,87 @@
       <c r="A26" s="2">
         <v>1.8</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="12">
         <f t="shared" ref="B26:Q45" si="6">1-1/(1+EXP(-0.8*($A26)))</f>
         <v>0.19154534856146743</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="12">
         <f t="shared" si="5"/>
         <v>0.19154534856146743</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="12">
         <f t="shared" si="5"/>
         <v>0.19154534856146743</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="12">
         <f t="shared" si="5"/>
         <v>0.19154534856146743</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="12">
         <f t="shared" si="5"/>
         <v>0.19154534856146743</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="12">
         <f t="shared" si="5"/>
         <v>0.19154534856146743</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="12">
         <f t="shared" si="5"/>
         <v>0.19154534856146743</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I26" s="12">
         <f t="shared" si="5"/>
         <v>0.19154534856146743</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J26" s="12">
         <f t="shared" si="5"/>
         <v>0.19154534856146743</v>
       </c>
-      <c r="K26" s="13">
+      <c r="K26" s="12">
         <f t="shared" si="5"/>
         <v>0.19154534856146743</v>
       </c>
-      <c r="L26" s="13">
+      <c r="L26" s="12">
         <f t="shared" si="5"/>
         <v>0.19154534856146743</v>
       </c>
-      <c r="M26" s="13">
+      <c r="M26" s="12">
         <f t="shared" si="5"/>
         <v>0.19154534856146743</v>
       </c>
-      <c r="N26" s="13">
+      <c r="N26" s="12">
         <f t="shared" si="5"/>
         <v>0.19154534856146743</v>
       </c>
-      <c r="O26" s="13">
+      <c r="O26" s="12">
         <f t="shared" si="5"/>
         <v>0.19154534856146743</v>
       </c>
-      <c r="P26" s="13">
+      <c r="P26" s="12">
         <f t="shared" si="5"/>
         <v>0.19154534856146743</v>
       </c>
-      <c r="Q26" s="13">
+      <c r="Q26" s="12">
         <f t="shared" si="5"/>
         <v>0.19154534856146743</v>
       </c>
-      <c r="R26" s="13">
+      <c r="R26" s="12">
         <f t="shared" si="5"/>
         <v>0.19154534856146743</v>
       </c>
-      <c r="S26" s="13">
+      <c r="S26" s="12">
         <f t="shared" si="5"/>
         <v>0.19154534856146743</v>
       </c>
-      <c r="T26" s="13">
+      <c r="T26" s="12">
         <f t="shared" si="5"/>
         <v>0.19154534856146743</v>
       </c>
-      <c r="U26" s="13">
+      <c r="U26" s="12">
         <f t="shared" si="5"/>
         <v>0.19154534856146743</v>
       </c>
-      <c r="V26" s="13">
+      <c r="V26" s="12">
         <f t="shared" si="5"/>
         <v>0.19154534856146743</v>
       </c>
@@ -2749,87 +2748,87 @@
       <c r="A27" s="2">
         <v>1.6</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="12">
         <f t="shared" si="6"/>
         <v>0.21755022357688758</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="12">
         <f t="shared" si="5"/>
         <v>0.21755022357688758</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="12">
         <f t="shared" si="5"/>
         <v>0.21755022357688758</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="12">
         <f t="shared" si="5"/>
         <v>0.21755022357688758</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="12">
         <f t="shared" si="5"/>
         <v>0.21755022357688758</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G27" s="12">
         <f t="shared" si="5"/>
         <v>0.21755022357688758</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="12">
         <f t="shared" si="5"/>
         <v>0.21755022357688758</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I27" s="12">
         <f t="shared" si="5"/>
         <v>0.21755022357688758</v>
       </c>
-      <c r="J27" s="13">
+      <c r="J27" s="12">
         <f t="shared" si="5"/>
         <v>0.21755022357688758</v>
       </c>
-      <c r="K27" s="13">
+      <c r="K27" s="12">
         <f t="shared" si="5"/>
         <v>0.21755022357688758</v>
       </c>
-      <c r="L27" s="13">
+      <c r="L27" s="12">
         <f t="shared" si="5"/>
         <v>0.21755022357688758</v>
       </c>
-      <c r="M27" s="13">
+      <c r="M27" s="12">
         <f t="shared" si="5"/>
         <v>0.21755022357688758</v>
       </c>
-      <c r="N27" s="13">
+      <c r="N27" s="12">
         <f t="shared" si="5"/>
         <v>0.21755022357688758</v>
       </c>
-      <c r="O27" s="13">
+      <c r="O27" s="12">
         <f t="shared" si="5"/>
         <v>0.21755022357688758</v>
       </c>
-      <c r="P27" s="13">
+      <c r="P27" s="12">
         <f t="shared" si="5"/>
         <v>0.21755022357688758</v>
       </c>
-      <c r="Q27" s="13">
+      <c r="Q27" s="12">
         <f t="shared" si="5"/>
         <v>0.21755022357688758</v>
       </c>
-      <c r="R27" s="13">
+      <c r="R27" s="12">
         <f t="shared" si="5"/>
         <v>0.21755022357688758</v>
       </c>
-      <c r="S27" s="13">
+      <c r="S27" s="12">
         <f t="shared" si="5"/>
         <v>0.21755022357688758</v>
       </c>
-      <c r="T27" s="13">
+      <c r="T27" s="12">
         <f t="shared" si="5"/>
         <v>0.21755022357688758</v>
       </c>
-      <c r="U27" s="13">
+      <c r="U27" s="12">
         <f t="shared" si="5"/>
         <v>0.21755022357688758</v>
       </c>
-      <c r="V27" s="13">
+      <c r="V27" s="12">
         <f t="shared" si="5"/>
         <v>0.21755022357688758</v>
       </c>
@@ -2838,87 +2837,87 @@
       <c r="A28" s="2">
         <v>1.4</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="12">
         <f t="shared" si="6"/>
         <v>0.24601128355105195</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="12">
         <f t="shared" si="5"/>
         <v>0.24601128355105195</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="12">
         <f t="shared" si="5"/>
         <v>0.24601128355105195</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="12">
         <f t="shared" si="5"/>
         <v>0.24601128355105195</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="12">
         <f t="shared" si="5"/>
         <v>0.24601128355105195</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G28" s="12">
         <f t="shared" si="5"/>
         <v>0.24601128355105195</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28" s="12">
         <f t="shared" si="5"/>
         <v>0.24601128355105195</v>
       </c>
-      <c r="I28" s="13">
+      <c r="I28" s="12">
         <f t="shared" si="5"/>
         <v>0.24601128355105195</v>
       </c>
-      <c r="J28" s="13">
+      <c r="J28" s="12">
         <f t="shared" si="5"/>
         <v>0.24601128355105195</v>
       </c>
-      <c r="K28" s="13">
+      <c r="K28" s="12">
         <f t="shared" si="5"/>
         <v>0.24601128355105195</v>
       </c>
-      <c r="L28" s="13">
+      <c r="L28" s="12">
         <f t="shared" si="5"/>
         <v>0.24601128355105195</v>
       </c>
-      <c r="M28" s="13">
+      <c r="M28" s="12">
         <f t="shared" si="5"/>
         <v>0.24601128355105195</v>
       </c>
-      <c r="N28" s="13">
+      <c r="N28" s="12">
         <f t="shared" si="5"/>
         <v>0.24601128355105195</v>
       </c>
-      <c r="O28" s="13">
+      <c r="O28" s="12">
         <f t="shared" si="5"/>
         <v>0.24601128355105195</v>
       </c>
-      <c r="P28" s="13">
+      <c r="P28" s="12">
         <f t="shared" si="5"/>
         <v>0.24601128355105195</v>
       </c>
-      <c r="Q28" s="13">
+      <c r="Q28" s="12">
         <f t="shared" si="5"/>
         <v>0.24601128355105195</v>
       </c>
-      <c r="R28" s="13">
+      <c r="R28" s="12">
         <f t="shared" si="5"/>
         <v>0.24601128355105195</v>
       </c>
-      <c r="S28" s="13">
+      <c r="S28" s="12">
         <f t="shared" si="5"/>
         <v>0.24601128355105195</v>
       </c>
-      <c r="T28" s="13">
+      <c r="T28" s="12">
         <f t="shared" si="5"/>
         <v>0.24601128355105195</v>
       </c>
-      <c r="U28" s="13">
+      <c r="U28" s="12">
         <f t="shared" si="5"/>
         <v>0.24601128355105195</v>
       </c>
-      <c r="V28" s="13">
+      <c r="V28" s="12">
         <f t="shared" si="5"/>
         <v>0.24601128355105195</v>
       </c>
@@ -2927,87 +2926,87 @@
       <c r="A29" s="2">
         <v>1.2</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="12">
         <f t="shared" si="6"/>
         <v>0.27687819487561016</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="12">
         <f t="shared" si="5"/>
         <v>0.27687819487561016</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="12">
         <f t="shared" si="5"/>
         <v>0.27687819487561016</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="12">
         <f t="shared" si="5"/>
         <v>0.27687819487561016</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="12">
         <f t="shared" si="5"/>
         <v>0.27687819487561016</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G29" s="12">
         <f t="shared" si="5"/>
         <v>0.27687819487561016</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H29" s="12">
         <f t="shared" si="5"/>
         <v>0.27687819487561016</v>
       </c>
-      <c r="I29" s="13">
+      <c r="I29" s="12">
         <f t="shared" si="5"/>
         <v>0.27687819487561016</v>
       </c>
-      <c r="J29" s="13">
+      <c r="J29" s="12">
         <f t="shared" si="5"/>
         <v>0.27687819487561016</v>
       </c>
-      <c r="K29" s="13">
+      <c r="K29" s="12">
         <f t="shared" si="5"/>
         <v>0.27687819487561016</v>
       </c>
-      <c r="L29" s="13">
+      <c r="L29" s="12">
         <f t="shared" si="5"/>
         <v>0.27687819487561016</v>
       </c>
-      <c r="M29" s="13">
+      <c r="M29" s="12">
         <f t="shared" si="5"/>
         <v>0.27687819487561016</v>
       </c>
-      <c r="N29" s="13">
+      <c r="N29" s="12">
         <f t="shared" si="5"/>
         <v>0.27687819487561016</v>
       </c>
-      <c r="O29" s="13">
+      <c r="O29" s="12">
         <f t="shared" si="5"/>
         <v>0.27687819487561016</v>
       </c>
-      <c r="P29" s="13">
+      <c r="P29" s="12">
         <f t="shared" si="5"/>
         <v>0.27687819487561016</v>
       </c>
-      <c r="Q29" s="13">
+      <c r="Q29" s="12">
         <f t="shared" si="5"/>
         <v>0.27687819487561016</v>
       </c>
-      <c r="R29" s="13">
+      <c r="R29" s="12">
         <f t="shared" si="5"/>
         <v>0.27687819487561016</v>
       </c>
-      <c r="S29" s="13">
+      <c r="S29" s="12">
         <f t="shared" si="5"/>
         <v>0.27687819487561016</v>
       </c>
-      <c r="T29" s="13">
+      <c r="T29" s="12">
         <f t="shared" si="5"/>
         <v>0.27687819487561016</v>
       </c>
-      <c r="U29" s="13">
+      <c r="U29" s="12">
         <f t="shared" si="5"/>
         <v>0.27687819487561016</v>
       </c>
-      <c r="V29" s="13">
+      <c r="V29" s="12">
         <f t="shared" si="5"/>
         <v>0.27687819487561016</v>
       </c>
@@ -3016,87 +3015,87 @@
       <c r="A30" s="2">
         <v>1</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="12">
         <f t="shared" si="6"/>
         <v>0.3100255188723875</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="12">
         <f t="shared" si="5"/>
         <v>0.3100255188723875</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="12">
         <f t="shared" si="5"/>
         <v>0.3100255188723875</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="12">
         <f t="shared" si="5"/>
         <v>0.3100255188723875</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="12">
         <f t="shared" si="5"/>
         <v>0.3100255188723875</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G30" s="12">
         <f t="shared" si="5"/>
         <v>0.3100255188723875</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30" s="12">
         <f t="shared" si="5"/>
         <v>0.3100255188723875</v>
       </c>
-      <c r="I30" s="13">
+      <c r="I30" s="12">
         <f t="shared" si="5"/>
         <v>0.3100255188723875</v>
       </c>
-      <c r="J30" s="13">
+      <c r="J30" s="12">
         <f t="shared" si="5"/>
         <v>0.3100255188723875</v>
       </c>
-      <c r="K30" s="13">
+      <c r="K30" s="12">
         <f t="shared" si="5"/>
         <v>0.3100255188723875</v>
       </c>
-      <c r="L30" s="13">
+      <c r="L30" s="12">
         <f t="shared" si="5"/>
         <v>0.3100255188723875</v>
       </c>
-      <c r="M30" s="13">
+      <c r="M30" s="12">
         <f t="shared" si="5"/>
         <v>0.3100255188723875</v>
       </c>
-      <c r="N30" s="13">
+      <c r="N30" s="12">
         <f t="shared" si="5"/>
         <v>0.3100255188723875</v>
       </c>
-      <c r="O30" s="13">
+      <c r="O30" s="12">
         <f t="shared" si="5"/>
         <v>0.3100255188723875</v>
       </c>
-      <c r="P30" s="13">
+      <c r="P30" s="12">
         <f t="shared" si="5"/>
         <v>0.3100255188723875</v>
       </c>
-      <c r="Q30" s="13">
+      <c r="Q30" s="12">
         <f t="shared" si="5"/>
         <v>0.3100255188723875</v>
       </c>
-      <c r="R30" s="13">
+      <c r="R30" s="12">
         <f t="shared" si="5"/>
         <v>0.3100255188723875</v>
       </c>
-      <c r="S30" s="13">
+      <c r="S30" s="12">
         <f t="shared" si="5"/>
         <v>0.3100255188723875</v>
       </c>
-      <c r="T30" s="13">
+      <c r="T30" s="12">
         <f t="shared" si="5"/>
         <v>0.3100255188723875</v>
       </c>
-      <c r="U30" s="13">
+      <c r="U30" s="12">
         <f t="shared" si="5"/>
         <v>0.3100255188723875</v>
       </c>
-      <c r="V30" s="13">
+      <c r="V30" s="12">
         <f t="shared" si="5"/>
         <v>0.3100255188723875</v>
       </c>
@@ -3105,87 +3104,87 @@
       <c r="A31" s="2">
         <v>0.8</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="12">
         <f t="shared" si="6"/>
         <v>0.34524653939368077</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="12">
         <f t="shared" si="5"/>
         <v>0.34524653939368077</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="12">
         <f t="shared" si="5"/>
         <v>0.34524653939368077</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="12">
         <f t="shared" si="5"/>
         <v>0.34524653939368077</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="12">
         <f t="shared" si="5"/>
         <v>0.34524653939368077</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G31" s="12">
         <f t="shared" si="5"/>
         <v>0.34524653939368077</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31" s="12">
         <f t="shared" si="5"/>
         <v>0.34524653939368077</v>
       </c>
-      <c r="I31" s="13">
+      <c r="I31" s="12">
         <f t="shared" si="5"/>
         <v>0.34524653939368077</v>
       </c>
-      <c r="J31" s="13">
+      <c r="J31" s="12">
         <f t="shared" si="5"/>
         <v>0.34524653939368077</v>
       </c>
-      <c r="K31" s="13">
+      <c r="K31" s="12">
         <f t="shared" si="5"/>
         <v>0.34524653939368077</v>
       </c>
-      <c r="L31" s="13">
+      <c r="L31" s="12">
         <f t="shared" si="5"/>
         <v>0.34524653939368077</v>
       </c>
-      <c r="M31" s="13">
+      <c r="M31" s="12">
         <f t="shared" si="5"/>
         <v>0.34524653939368077</v>
       </c>
-      <c r="N31" s="13">
+      <c r="N31" s="12">
         <f t="shared" si="5"/>
         <v>0.34524653939368077</v>
       </c>
-      <c r="O31" s="13">
+      <c r="O31" s="12">
         <f t="shared" si="5"/>
         <v>0.34524653939368077</v>
       </c>
-      <c r="P31" s="13">
+      <c r="P31" s="12">
         <f t="shared" si="5"/>
         <v>0.34524653939368077</v>
       </c>
-      <c r="Q31" s="13">
+      <c r="Q31" s="12">
         <f t="shared" si="5"/>
         <v>0.34524653939368077</v>
       </c>
-      <c r="R31" s="13">
+      <c r="R31" s="12">
         <f t="shared" si="5"/>
         <v>0.34524653939368077</v>
       </c>
-      <c r="S31" s="13">
+      <c r="S31" s="12">
         <f t="shared" si="5"/>
         <v>0.34524653939368077</v>
       </c>
-      <c r="T31" s="13">
+      <c r="T31" s="12">
         <f t="shared" si="5"/>
         <v>0.34524653939368077</v>
       </c>
-      <c r="U31" s="13">
+      <c r="U31" s="12">
         <f t="shared" si="5"/>
         <v>0.34524653939368077</v>
       </c>
-      <c r="V31" s="13">
+      <c r="V31" s="12">
         <f t="shared" si="5"/>
         <v>0.34524653939368077</v>
       </c>
@@ -3203,87 +3202,87 @@
       <c r="A32" s="2">
         <v>0.6</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="12">
         <f t="shared" si="6"/>
         <v>0.38225212523075103</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="12">
         <f t="shared" si="5"/>
         <v>0.38225212523075103</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="12">
         <f t="shared" si="5"/>
         <v>0.38225212523075103</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="12">
         <f t="shared" si="5"/>
         <v>0.38225212523075103</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F32" s="12">
         <f t="shared" si="5"/>
         <v>0.38225212523075103</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G32" s="12">
         <f t="shared" si="5"/>
         <v>0.38225212523075103</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="12">
         <f t="shared" si="5"/>
         <v>0.38225212523075103</v>
       </c>
-      <c r="I32" s="13">
+      <c r="I32" s="12">
         <f t="shared" si="5"/>
         <v>0.38225212523075103</v>
       </c>
-      <c r="J32" s="13">
+      <c r="J32" s="12">
         <f t="shared" si="5"/>
         <v>0.38225212523075103</v>
       </c>
-      <c r="K32" s="13">
+      <c r="K32" s="12">
         <f t="shared" si="5"/>
         <v>0.38225212523075103</v>
       </c>
-      <c r="L32" s="13">
+      <c r="L32" s="12">
         <f t="shared" si="5"/>
         <v>0.38225212523075103</v>
       </c>
-      <c r="M32" s="13">
+      <c r="M32" s="12">
         <f t="shared" si="5"/>
         <v>0.38225212523075103</v>
       </c>
-      <c r="N32" s="13">
+      <c r="N32" s="12">
         <f t="shared" si="5"/>
         <v>0.38225212523075103</v>
       </c>
-      <c r="O32" s="13">
+      <c r="O32" s="12">
         <f t="shared" si="5"/>
         <v>0.38225212523075103</v>
       </c>
-      <c r="P32" s="13">
+      <c r="P32" s="12">
         <f t="shared" si="5"/>
         <v>0.38225212523075103</v>
       </c>
-      <c r="Q32" s="13">
+      <c r="Q32" s="12">
         <f t="shared" si="5"/>
         <v>0.38225212523075103</v>
       </c>
-      <c r="R32" s="13">
+      <c r="R32" s="12">
         <f t="shared" si="5"/>
         <v>0.38225212523075103</v>
       </c>
-      <c r="S32" s="13">
+      <c r="S32" s="12">
         <f t="shared" si="5"/>
         <v>0.38225212523075103</v>
       </c>
-      <c r="T32" s="13">
+      <c r="T32" s="12">
         <f t="shared" si="5"/>
         <v>0.38225212523075103</v>
       </c>
-      <c r="U32" s="13">
+      <c r="U32" s="12">
         <f t="shared" si="5"/>
         <v>0.38225212523075103</v>
       </c>
-      <c r="V32" s="13">
+      <c r="V32" s="12">
         <f t="shared" si="5"/>
         <v>0.38225212523075103</v>
       </c>
@@ -3295,87 +3294,87 @@
       <c r="A33" s="2">
         <v>0.4</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="12">
         <f t="shared" si="6"/>
         <v>0.4206757478512505</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="12">
         <f t="shared" si="5"/>
         <v>0.4206757478512505</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="12">
         <f t="shared" si="5"/>
         <v>0.4206757478512505</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="12">
         <f t="shared" si="5"/>
         <v>0.4206757478512505</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="12">
         <f t="shared" si="5"/>
         <v>0.4206757478512505</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G33" s="12">
         <f t="shared" si="5"/>
         <v>0.4206757478512505</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="12">
         <f t="shared" si="5"/>
         <v>0.4206757478512505</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I33" s="12">
         <f t="shared" si="5"/>
         <v>0.4206757478512505</v>
       </c>
-      <c r="J33" s="13">
+      <c r="J33" s="12">
         <f t="shared" si="5"/>
         <v>0.4206757478512505</v>
       </c>
-      <c r="K33" s="13">
+      <c r="K33" s="12">
         <f t="shared" si="5"/>
         <v>0.4206757478512505</v>
       </c>
-      <c r="L33" s="13">
+      <c r="L33" s="12">
         <f t="shared" si="5"/>
         <v>0.4206757478512505</v>
       </c>
-      <c r="M33" s="13">
+      <c r="M33" s="12">
         <f t="shared" si="5"/>
         <v>0.4206757478512505</v>
       </c>
-      <c r="N33" s="13">
+      <c r="N33" s="12">
         <f t="shared" si="5"/>
         <v>0.4206757478512505</v>
       </c>
-      <c r="O33" s="13">
+      <c r="O33" s="12">
         <f t="shared" si="5"/>
         <v>0.4206757478512505</v>
       </c>
-      <c r="P33" s="13">
+      <c r="P33" s="12">
         <f t="shared" si="5"/>
         <v>0.4206757478512505</v>
       </c>
-      <c r="Q33" s="13">
+      <c r="Q33" s="12">
         <f t="shared" si="5"/>
         <v>0.4206757478512505</v>
       </c>
-      <c r="R33" s="13">
+      <c r="R33" s="12">
         <f t="shared" si="5"/>
         <v>0.4206757478512505</v>
       </c>
-      <c r="S33" s="13">
+      <c r="S33" s="12">
         <f t="shared" si="5"/>
         <v>0.4206757478512505</v>
       </c>
-      <c r="T33" s="13">
+      <c r="T33" s="12">
         <f t="shared" si="5"/>
         <v>0.4206757478512505</v>
       </c>
-      <c r="U33" s="13">
+      <c r="U33" s="12">
         <f t="shared" si="5"/>
         <v>0.4206757478512505</v>
       </c>
-      <c r="V33" s="13">
+      <c r="V33" s="12">
         <f t="shared" si="5"/>
         <v>0.4206757478512505</v>
       </c>
@@ -3393,87 +3392,87 @@
       <c r="A34" s="2">
         <v>0.2</v>
       </c>
-      <c r="B34" s="13">
+      <c r="B34" s="12">
         <f t="shared" si="6"/>
         <v>0.46008511544443431</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="12">
         <f t="shared" si="5"/>
         <v>0.46008511544443431</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="12">
         <f t="shared" si="5"/>
         <v>0.46008511544443431</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="12">
         <f t="shared" si="5"/>
         <v>0.46008511544443431</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="12">
         <f t="shared" si="5"/>
         <v>0.46008511544443431</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="12">
         <f t="shared" si="5"/>
         <v>0.46008511544443431</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="12">
         <f t="shared" si="5"/>
         <v>0.46008511544443431</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I34" s="12">
         <f t="shared" si="5"/>
         <v>0.46008511544443431</v>
       </c>
-      <c r="J34" s="13">
+      <c r="J34" s="12">
         <f t="shared" si="5"/>
         <v>0.46008511544443431</v>
       </c>
-      <c r="K34" s="13">
+      <c r="K34" s="12">
         <f t="shared" si="5"/>
         <v>0.46008511544443431</v>
       </c>
-      <c r="L34" s="13">
+      <c r="L34" s="12">
         <f t="shared" si="5"/>
         <v>0.46008511544443431</v>
       </c>
-      <c r="M34" s="13">
+      <c r="M34" s="12">
         <f t="shared" si="5"/>
         <v>0.46008511544443431</v>
       </c>
-      <c r="N34" s="13">
+      <c r="N34" s="12">
         <f t="shared" si="5"/>
         <v>0.46008511544443431</v>
       </c>
-      <c r="O34" s="13">
+      <c r="O34" s="12">
         <f t="shared" si="5"/>
         <v>0.46008511544443431</v>
       </c>
-      <c r="P34" s="13">
+      <c r="P34" s="12">
         <f t="shared" si="5"/>
         <v>0.46008511544443431</v>
       </c>
-      <c r="Q34" s="13">
+      <c r="Q34" s="12">
         <f t="shared" si="5"/>
         <v>0.46008511544443431</v>
       </c>
-      <c r="R34" s="13">
+      <c r="R34" s="12">
         <f t="shared" si="5"/>
         <v>0.46008511544443431</v>
       </c>
-      <c r="S34" s="13">
+      <c r="S34" s="12">
         <f t="shared" si="5"/>
         <v>0.46008511544443431</v>
       </c>
-      <c r="T34" s="13">
+      <c r="T34" s="12">
         <f t="shared" si="5"/>
         <v>0.46008511544443431</v>
       </c>
-      <c r="U34" s="13">
+      <c r="U34" s="12">
         <f t="shared" si="5"/>
         <v>0.46008511544443431</v>
       </c>
-      <c r="V34" s="13">
+      <c r="V34" s="12">
         <f t="shared" si="5"/>
         <v>0.46008511544443431</v>
       </c>
@@ -3482,87 +3481,87 @@
       <c r="A35" s="2">
         <v>0</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B35" s="12">
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="12">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="12">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="12">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="12">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="12">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35" s="12">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I35" s="12">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="J35" s="13">
+      <c r="J35" s="12">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="K35" s="13">
+      <c r="K35" s="12">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="L35" s="13">
+      <c r="L35" s="12">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="M35" s="13">
+      <c r="M35" s="12">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="N35" s="13">
+      <c r="N35" s="12">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="O35" s="13">
+      <c r="O35" s="12">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="P35" s="13">
+      <c r="P35" s="12">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="Q35" s="13">
+      <c r="Q35" s="12">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="R35" s="13">
+      <c r="R35" s="12">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="S35" s="13">
+      <c r="S35" s="12">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="T35" s="13">
+      <c r="T35" s="12">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="U35" s="13">
+      <c r="U35" s="12">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="V35" s="13">
+      <c r="V35" s="12">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
@@ -3571,87 +3570,87 @@
       <c r="A36" s="2">
         <v>-0.2</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="12">
         <f t="shared" si="6"/>
         <v>0.53991488455556569</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="12">
         <f t="shared" si="5"/>
         <v>0.53991488455556569</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D36" s="12">
         <f t="shared" si="5"/>
         <v>0.53991488455556569</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="12">
         <f t="shared" si="5"/>
         <v>0.53991488455556569</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="12">
         <f t="shared" si="5"/>
         <v>0.53991488455556569</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G36" s="12">
         <f t="shared" si="5"/>
         <v>0.53991488455556569</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H36" s="12">
         <f t="shared" si="5"/>
         <v>0.53991488455556569</v>
       </c>
-      <c r="I36" s="13">
+      <c r="I36" s="12">
         <f t="shared" si="5"/>
         <v>0.53991488455556569</v>
       </c>
-      <c r="J36" s="13">
+      <c r="J36" s="12">
         <f t="shared" si="5"/>
         <v>0.53991488455556569</v>
       </c>
-      <c r="K36" s="13">
+      <c r="K36" s="12">
         <f t="shared" si="5"/>
         <v>0.53991488455556569</v>
       </c>
-      <c r="L36" s="13">
+      <c r="L36" s="12">
         <f t="shared" si="5"/>
         <v>0.53991488455556569</v>
       </c>
-      <c r="M36" s="13">
+      <c r="M36" s="12">
         <f t="shared" si="5"/>
         <v>0.53991488455556569</v>
       </c>
-      <c r="N36" s="13">
+      <c r="N36" s="12">
         <f t="shared" si="5"/>
         <v>0.53991488455556569</v>
       </c>
-      <c r="O36" s="13">
+      <c r="O36" s="12">
         <f t="shared" si="5"/>
         <v>0.53991488455556569</v>
       </c>
-      <c r="P36" s="13">
+      <c r="P36" s="12">
         <f t="shared" si="5"/>
         <v>0.53991488455556569</v>
       </c>
-      <c r="Q36" s="13">
+      <c r="Q36" s="12">
         <f t="shared" si="5"/>
         <v>0.53991488455556569</v>
       </c>
-      <c r="R36" s="13">
+      <c r="R36" s="12">
         <f t="shared" si="5"/>
         <v>0.53991488455556569</v>
       </c>
-      <c r="S36" s="13">
+      <c r="S36" s="12">
         <f t="shared" si="5"/>
         <v>0.53991488455556569</v>
       </c>
-      <c r="T36" s="13">
+      <c r="T36" s="12">
         <f t="shared" si="5"/>
         <v>0.53991488455556569</v>
       </c>
-      <c r="U36" s="13">
+      <c r="U36" s="12">
         <f t="shared" si="5"/>
         <v>0.53991488455556569</v>
       </c>
-      <c r="V36" s="13">
+      <c r="V36" s="12">
         <f t="shared" si="5"/>
         <v>0.53991488455556569</v>
       </c>
@@ -3660,87 +3659,87 @@
       <c r="A37" s="2">
         <v>-0.4</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="12">
         <f t="shared" si="6"/>
         <v>0.57932425214874939</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="12">
         <f t="shared" si="5"/>
         <v>0.57932425214874939</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D37" s="12">
         <f t="shared" si="5"/>
         <v>0.57932425214874939</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="12">
         <f t="shared" si="5"/>
         <v>0.57932425214874939</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="12">
         <f t="shared" si="5"/>
         <v>0.57932425214874939</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G37" s="12">
         <f t="shared" si="5"/>
         <v>0.57932425214874939</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H37" s="12">
         <f t="shared" si="5"/>
         <v>0.57932425214874939</v>
       </c>
-      <c r="I37" s="13">
+      <c r="I37" s="12">
         <f t="shared" si="5"/>
         <v>0.57932425214874939</v>
       </c>
-      <c r="J37" s="13">
+      <c r="J37" s="12">
         <f t="shared" si="5"/>
         <v>0.57932425214874939</v>
       </c>
-      <c r="K37" s="13">
+      <c r="K37" s="12">
         <f t="shared" si="5"/>
         <v>0.57932425214874939</v>
       </c>
-      <c r="L37" s="13">
+      <c r="L37" s="12">
         <f t="shared" si="5"/>
         <v>0.57932425214874939</v>
       </c>
-      <c r="M37" s="13">
+      <c r="M37" s="12">
         <f t="shared" si="5"/>
         <v>0.57932425214874939</v>
       </c>
-      <c r="N37" s="13">
+      <c r="N37" s="12">
         <f t="shared" si="5"/>
         <v>0.57932425214874939</v>
       </c>
-      <c r="O37" s="13">
+      <c r="O37" s="12">
         <f t="shared" si="5"/>
         <v>0.57932425214874939</v>
       </c>
-      <c r="P37" s="13">
+      <c r="P37" s="12">
         <f t="shared" si="5"/>
         <v>0.57932425214874939</v>
       </c>
-      <c r="Q37" s="13">
+      <c r="Q37" s="12">
         <f t="shared" si="5"/>
         <v>0.57932425214874939</v>
       </c>
-      <c r="R37" s="13">
+      <c r="R37" s="12">
         <f t="shared" ref="R37:V45" si="7">1-1/(1+EXP(-0.8*($A37)))</f>
         <v>0.57932425214874939</v>
       </c>
-      <c r="S37" s="13">
+      <c r="S37" s="12">
         <f t="shared" si="7"/>
         <v>0.57932425214874939</v>
       </c>
-      <c r="T37" s="13">
+      <c r="T37" s="12">
         <f t="shared" si="7"/>
         <v>0.57932425214874939</v>
       </c>
-      <c r="U37" s="13">
+      <c r="U37" s="12">
         <f t="shared" si="7"/>
         <v>0.57932425214874939</v>
       </c>
-      <c r="V37" s="13">
+      <c r="V37" s="12">
         <f t="shared" si="7"/>
         <v>0.57932425214874939</v>
       </c>
@@ -3749,87 +3748,87 @@
       <c r="A38" s="2">
         <v>-0.6</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="12">
         <f t="shared" si="6"/>
         <v>0.61774787476924897</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="12">
         <f t="shared" si="6"/>
         <v>0.61774787476924897</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="12">
         <f t="shared" si="6"/>
         <v>0.61774787476924897</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E38" s="12">
         <f t="shared" si="6"/>
         <v>0.61774787476924897</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="12">
         <f t="shared" si="6"/>
         <v>0.61774787476924897</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G38" s="12">
         <f t="shared" si="6"/>
         <v>0.61774787476924897</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="12">
         <f t="shared" si="6"/>
         <v>0.61774787476924897</v>
       </c>
-      <c r="I38" s="13">
+      <c r="I38" s="12">
         <f t="shared" si="6"/>
         <v>0.61774787476924897</v>
       </c>
-      <c r="J38" s="13">
+      <c r="J38" s="12">
         <f t="shared" si="6"/>
         <v>0.61774787476924897</v>
       </c>
-      <c r="K38" s="13">
+      <c r="K38" s="12">
         <f t="shared" si="6"/>
         <v>0.61774787476924897</v>
       </c>
-      <c r="L38" s="13">
+      <c r="L38" s="12">
         <f t="shared" si="6"/>
         <v>0.61774787476924897</v>
       </c>
-      <c r="M38" s="13">
+      <c r="M38" s="12">
         <f t="shared" si="6"/>
         <v>0.61774787476924897</v>
       </c>
-      <c r="N38" s="13">
+      <c r="N38" s="12">
         <f t="shared" si="6"/>
         <v>0.61774787476924897</v>
       </c>
-      <c r="O38" s="13">
+      <c r="O38" s="12">
         <f t="shared" si="6"/>
         <v>0.61774787476924897</v>
       </c>
-      <c r="P38" s="13">
+      <c r="P38" s="12">
         <f t="shared" si="6"/>
         <v>0.61774787476924897</v>
       </c>
-      <c r="Q38" s="13">
+      <c r="Q38" s="12">
         <f t="shared" si="6"/>
         <v>0.61774787476924897</v>
       </c>
-      <c r="R38" s="13">
+      <c r="R38" s="12">
         <f t="shared" si="7"/>
         <v>0.61774787476924897</v>
       </c>
-      <c r="S38" s="13">
+      <c r="S38" s="12">
         <f t="shared" si="7"/>
         <v>0.61774787476924897</v>
       </c>
-      <c r="T38" s="13">
+      <c r="T38" s="12">
         <f t="shared" si="7"/>
         <v>0.61774787476924897</v>
       </c>
-      <c r="U38" s="13">
+      <c r="U38" s="12">
         <f t="shared" si="7"/>
         <v>0.61774787476924897</v>
       </c>
-      <c r="V38" s="13">
+      <c r="V38" s="12">
         <f t="shared" si="7"/>
         <v>0.61774787476924897</v>
       </c>
@@ -3838,87 +3837,87 @@
       <c r="A39" s="2">
         <v>-0.8</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B39" s="12">
         <f t="shared" si="6"/>
         <v>0.65475346060631923</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="12">
         <f t="shared" si="6"/>
         <v>0.65475346060631923</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="12">
         <f t="shared" si="6"/>
         <v>0.65475346060631923</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E39" s="12">
         <f t="shared" si="6"/>
         <v>0.65475346060631923</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="12">
         <f t="shared" si="6"/>
         <v>0.65475346060631923</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G39" s="12">
         <f t="shared" si="6"/>
         <v>0.65475346060631923</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H39" s="12">
         <f t="shared" si="6"/>
         <v>0.65475346060631923</v>
       </c>
-      <c r="I39" s="13">
+      <c r="I39" s="12">
         <f t="shared" si="6"/>
         <v>0.65475346060631923</v>
       </c>
-      <c r="J39" s="13">
+      <c r="J39" s="12">
         <f t="shared" si="6"/>
         <v>0.65475346060631923</v>
       </c>
-      <c r="K39" s="13">
+      <c r="K39" s="12">
         <f t="shared" si="6"/>
         <v>0.65475346060631923</v>
       </c>
-      <c r="L39" s="13">
+      <c r="L39" s="12">
         <f t="shared" si="6"/>
         <v>0.65475346060631923</v>
       </c>
-      <c r="M39" s="13">
+      <c r="M39" s="12">
         <f t="shared" si="6"/>
         <v>0.65475346060631923</v>
       </c>
-      <c r="N39" s="13">
+      <c r="N39" s="12">
         <f t="shared" si="6"/>
         <v>0.65475346060631923</v>
       </c>
-      <c r="O39" s="13">
+      <c r="O39" s="12">
         <f t="shared" si="6"/>
         <v>0.65475346060631923</v>
       </c>
-      <c r="P39" s="13">
+      <c r="P39" s="12">
         <f t="shared" si="6"/>
         <v>0.65475346060631923</v>
       </c>
-      <c r="Q39" s="13">
+      <c r="Q39" s="12">
         <f t="shared" si="6"/>
         <v>0.65475346060631923</v>
       </c>
-      <c r="R39" s="13">
+      <c r="R39" s="12">
         <f t="shared" si="7"/>
         <v>0.65475346060631923</v>
       </c>
-      <c r="S39" s="13">
+      <c r="S39" s="12">
         <f t="shared" si="7"/>
         <v>0.65475346060631923</v>
       </c>
-      <c r="T39" s="13">
+      <c r="T39" s="12">
         <f t="shared" si="7"/>
         <v>0.65475346060631923</v>
       </c>
-      <c r="U39" s="13">
+      <c r="U39" s="12">
         <f t="shared" si="7"/>
         <v>0.65475346060631923</v>
       </c>
-      <c r="V39" s="13">
+      <c r="V39" s="12">
         <f t="shared" si="7"/>
         <v>0.65475346060631923</v>
       </c>
@@ -3927,87 +3926,87 @@
       <c r="A40" s="2">
         <v>-1</v>
       </c>
-      <c r="B40" s="13">
+      <c r="B40" s="12">
         <f t="shared" si="6"/>
         <v>0.6899744811276125</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="12">
         <f t="shared" si="6"/>
         <v>0.6899744811276125</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D40" s="12">
         <f t="shared" si="6"/>
         <v>0.6899744811276125</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E40" s="12">
         <f t="shared" si="6"/>
         <v>0.6899744811276125</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F40" s="12">
         <f t="shared" si="6"/>
         <v>0.6899744811276125</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G40" s="12">
         <f t="shared" si="6"/>
         <v>0.6899744811276125</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H40" s="12">
         <f t="shared" si="6"/>
         <v>0.6899744811276125</v>
       </c>
-      <c r="I40" s="13">
+      <c r="I40" s="12">
         <f t="shared" si="6"/>
         <v>0.6899744811276125</v>
       </c>
-      <c r="J40" s="13">
+      <c r="J40" s="12">
         <f t="shared" si="6"/>
         <v>0.6899744811276125</v>
       </c>
-      <c r="K40" s="13">
+      <c r="K40" s="12">
         <f t="shared" si="6"/>
         <v>0.6899744811276125</v>
       </c>
-      <c r="L40" s="13">
+      <c r="L40" s="12">
         <f t="shared" si="6"/>
         <v>0.6899744811276125</v>
       </c>
-      <c r="M40" s="13">
+      <c r="M40" s="12">
         <f t="shared" si="6"/>
         <v>0.6899744811276125</v>
       </c>
-      <c r="N40" s="13">
+      <c r="N40" s="12">
         <f t="shared" si="6"/>
         <v>0.6899744811276125</v>
       </c>
-      <c r="O40" s="13">
+      <c r="O40" s="12">
         <f t="shared" si="6"/>
         <v>0.6899744811276125</v>
       </c>
-      <c r="P40" s="13">
+      <c r="P40" s="12">
         <f t="shared" si="6"/>
         <v>0.6899744811276125</v>
       </c>
-      <c r="Q40" s="13">
+      <c r="Q40" s="12">
         <f t="shared" si="6"/>
         <v>0.6899744811276125</v>
       </c>
-      <c r="R40" s="13">
+      <c r="R40" s="12">
         <f t="shared" si="7"/>
         <v>0.6899744811276125</v>
       </c>
-      <c r="S40" s="13">
+      <c r="S40" s="12">
         <f t="shared" si="7"/>
         <v>0.6899744811276125</v>
       </c>
-      <c r="T40" s="13">
+      <c r="T40" s="12">
         <f t="shared" si="7"/>
         <v>0.6899744811276125</v>
       </c>
-      <c r="U40" s="13">
+      <c r="U40" s="12">
         <f t="shared" si="7"/>
         <v>0.6899744811276125</v>
       </c>
-      <c r="V40" s="13">
+      <c r="V40" s="12">
         <f t="shared" si="7"/>
         <v>0.6899744811276125</v>
       </c>
@@ -4016,87 +4015,87 @@
       <c r="A41" s="2">
         <v>-1.2</v>
       </c>
-      <c r="B41" s="13">
+      <c r="B41" s="12">
         <f t="shared" si="6"/>
         <v>0.72312180512438984</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="12">
         <f t="shared" si="6"/>
         <v>0.72312180512438984</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="12">
         <f t="shared" si="6"/>
         <v>0.72312180512438984</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E41" s="12">
         <f t="shared" si="6"/>
         <v>0.72312180512438984</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="12">
         <f t="shared" si="6"/>
         <v>0.72312180512438984</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G41" s="12">
         <f t="shared" si="6"/>
         <v>0.72312180512438984</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H41" s="12">
         <f t="shared" si="6"/>
         <v>0.72312180512438984</v>
       </c>
-      <c r="I41" s="13">
+      <c r="I41" s="12">
         <f t="shared" si="6"/>
         <v>0.72312180512438984</v>
       </c>
-      <c r="J41" s="13">
+      <c r="J41" s="12">
         <f t="shared" si="6"/>
         <v>0.72312180512438984</v>
       </c>
-      <c r="K41" s="13">
+      <c r="K41" s="12">
         <f t="shared" si="6"/>
         <v>0.72312180512438984</v>
       </c>
-      <c r="L41" s="13">
+      <c r="L41" s="12">
         <f t="shared" si="6"/>
         <v>0.72312180512438984</v>
       </c>
-      <c r="M41" s="13">
+      <c r="M41" s="12">
         <f t="shared" si="6"/>
         <v>0.72312180512438984</v>
       </c>
-      <c r="N41" s="13">
+      <c r="N41" s="12">
         <f t="shared" si="6"/>
         <v>0.72312180512438984</v>
       </c>
-      <c r="O41" s="13">
+      <c r="O41" s="12">
         <f t="shared" si="6"/>
         <v>0.72312180512438984</v>
       </c>
-      <c r="P41" s="13">
+      <c r="P41" s="12">
         <f t="shared" si="6"/>
         <v>0.72312180512438984</v>
       </c>
-      <c r="Q41" s="13">
+      <c r="Q41" s="12">
         <f t="shared" si="6"/>
         <v>0.72312180512438984</v>
       </c>
-      <c r="R41" s="13">
+      <c r="R41" s="12">
         <f t="shared" si="7"/>
         <v>0.72312180512438984</v>
       </c>
-      <c r="S41" s="13">
+      <c r="S41" s="12">
         <f t="shared" si="7"/>
         <v>0.72312180512438984</v>
       </c>
-      <c r="T41" s="13">
+      <c r="T41" s="12">
         <f t="shared" si="7"/>
         <v>0.72312180512438984</v>
       </c>
-      <c r="U41" s="13">
+      <c r="U41" s="12">
         <f t="shared" si="7"/>
         <v>0.72312180512438984</v>
       </c>
-      <c r="V41" s="13">
+      <c r="V41" s="12">
         <f t="shared" si="7"/>
         <v>0.72312180512438984</v>
       </c>
@@ -4105,87 +4104,87 @@
       <c r="A42" s="2">
         <v>-1.4</v>
       </c>
-      <c r="B42" s="13">
+      <c r="B42" s="12">
         <f t="shared" si="6"/>
         <v>0.75398871644894805</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="12">
         <f t="shared" si="6"/>
         <v>0.75398871644894805</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D42" s="12">
         <f t="shared" si="6"/>
         <v>0.75398871644894805</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="12">
         <f t="shared" si="6"/>
         <v>0.75398871644894805</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F42" s="12">
         <f t="shared" si="6"/>
         <v>0.75398871644894805</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G42" s="12">
         <f t="shared" si="6"/>
         <v>0.75398871644894805</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H42" s="12">
         <f t="shared" si="6"/>
         <v>0.75398871644894805</v>
       </c>
-      <c r="I42" s="13">
+      <c r="I42" s="12">
         <f t="shared" si="6"/>
         <v>0.75398871644894805</v>
       </c>
-      <c r="J42" s="13">
+      <c r="J42" s="12">
         <f t="shared" si="6"/>
         <v>0.75398871644894805</v>
       </c>
-      <c r="K42" s="13">
+      <c r="K42" s="12">
         <f t="shared" si="6"/>
         <v>0.75398871644894805</v>
       </c>
-      <c r="L42" s="13">
+      <c r="L42" s="12">
         <f t="shared" si="6"/>
         <v>0.75398871644894805</v>
       </c>
-      <c r="M42" s="13">
+      <c r="M42" s="12">
         <f t="shared" si="6"/>
         <v>0.75398871644894805</v>
       </c>
-      <c r="N42" s="13">
+      <c r="N42" s="12">
         <f t="shared" si="6"/>
         <v>0.75398871644894805</v>
       </c>
-      <c r="O42" s="13">
+      <c r="O42" s="12">
         <f t="shared" si="6"/>
         <v>0.75398871644894805</v>
       </c>
-      <c r="P42" s="13">
+      <c r="P42" s="12">
         <f t="shared" si="6"/>
         <v>0.75398871644894805</v>
       </c>
-      <c r="Q42" s="13">
+      <c r="Q42" s="12">
         <f t="shared" si="6"/>
         <v>0.75398871644894805</v>
       </c>
-      <c r="R42" s="13">
+      <c r="R42" s="12">
         <f t="shared" si="7"/>
         <v>0.75398871644894805</v>
       </c>
-      <c r="S42" s="13">
+      <c r="S42" s="12">
         <f t="shared" si="7"/>
         <v>0.75398871644894805</v>
       </c>
-      <c r="T42" s="13">
+      <c r="T42" s="12">
         <f t="shared" si="7"/>
         <v>0.75398871644894805</v>
       </c>
-      <c r="U42" s="13">
+      <c r="U42" s="12">
         <f t="shared" si="7"/>
         <v>0.75398871644894805</v>
       </c>
-      <c r="V42" s="13">
+      <c r="V42" s="12">
         <f t="shared" si="7"/>
         <v>0.75398871644894805</v>
       </c>
@@ -4194,87 +4193,87 @@
       <c r="A43" s="2">
         <v>-1.6</v>
       </c>
-      <c r="B43" s="13">
+      <c r="B43" s="12">
         <f t="shared" si="6"/>
         <v>0.78244977642311253</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C43" s="12">
         <f t="shared" si="6"/>
         <v>0.78244977642311253</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D43" s="12">
         <f t="shared" si="6"/>
         <v>0.78244977642311253</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E43" s="12">
         <f t="shared" si="6"/>
         <v>0.78244977642311253</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F43" s="12">
         <f t="shared" si="6"/>
         <v>0.78244977642311253</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G43" s="12">
         <f t="shared" si="6"/>
         <v>0.78244977642311253</v>
       </c>
-      <c r="H43" s="13">
+      <c r="H43" s="12">
         <f t="shared" si="6"/>
         <v>0.78244977642311253</v>
       </c>
-      <c r="I43" s="13">
+      <c r="I43" s="12">
         <f t="shared" si="6"/>
         <v>0.78244977642311253</v>
       </c>
-      <c r="J43" s="13">
+      <c r="J43" s="12">
         <f t="shared" si="6"/>
         <v>0.78244977642311253</v>
       </c>
-      <c r="K43" s="13">
+      <c r="K43" s="12">
         <f t="shared" si="6"/>
         <v>0.78244977642311253</v>
       </c>
-      <c r="L43" s="13">
+      <c r="L43" s="12">
         <f t="shared" si="6"/>
         <v>0.78244977642311253</v>
       </c>
-      <c r="M43" s="13">
+      <c r="M43" s="12">
         <f t="shared" si="6"/>
         <v>0.78244977642311253</v>
       </c>
-      <c r="N43" s="13">
+      <c r="N43" s="12">
         <f t="shared" si="6"/>
         <v>0.78244977642311253</v>
       </c>
-      <c r="O43" s="13">
+      <c r="O43" s="12">
         <f t="shared" si="6"/>
         <v>0.78244977642311253</v>
       </c>
-      <c r="P43" s="13">
+      <c r="P43" s="12">
         <f t="shared" si="6"/>
         <v>0.78244977642311253</v>
       </c>
-      <c r="Q43" s="13">
+      <c r="Q43" s="12">
         <f t="shared" si="6"/>
         <v>0.78244977642311253</v>
       </c>
-      <c r="R43" s="13">
+      <c r="R43" s="12">
         <f t="shared" si="7"/>
         <v>0.78244977642311253</v>
       </c>
-      <c r="S43" s="13">
+      <c r="S43" s="12">
         <f t="shared" si="7"/>
         <v>0.78244977642311253</v>
       </c>
-      <c r="T43" s="13">
+      <c r="T43" s="12">
         <f t="shared" si="7"/>
         <v>0.78244977642311253</v>
       </c>
-      <c r="U43" s="13">
+      <c r="U43" s="12">
         <f t="shared" si="7"/>
         <v>0.78244977642311253</v>
       </c>
-      <c r="V43" s="13">
+      <c r="V43" s="12">
         <f t="shared" si="7"/>
         <v>0.78244977642311253</v>
       </c>
@@ -4283,87 +4282,87 @@
       <c r="A44" s="2">
         <v>-1.8</v>
       </c>
-      <c r="B44" s="13">
+      <c r="B44" s="12">
         <f t="shared" si="6"/>
         <v>0.80845465143853246</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44" s="12">
         <f t="shared" si="6"/>
         <v>0.80845465143853246</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D44" s="12">
         <f t="shared" si="6"/>
         <v>0.80845465143853246</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E44" s="12">
         <f t="shared" si="6"/>
         <v>0.80845465143853246</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F44" s="12">
         <f t="shared" si="6"/>
         <v>0.80845465143853246</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G44" s="12">
         <f t="shared" si="6"/>
         <v>0.80845465143853246</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H44" s="12">
         <f t="shared" si="6"/>
         <v>0.80845465143853246</v>
       </c>
-      <c r="I44" s="13">
+      <c r="I44" s="12">
         <f t="shared" si="6"/>
         <v>0.80845465143853246</v>
       </c>
-      <c r="J44" s="13">
+      <c r="J44" s="12">
         <f t="shared" si="6"/>
         <v>0.80845465143853246</v>
       </c>
-      <c r="K44" s="13">
+      <c r="K44" s="12">
         <f t="shared" si="6"/>
         <v>0.80845465143853246</v>
       </c>
-      <c r="L44" s="13">
+      <c r="L44" s="12">
         <f t="shared" si="6"/>
         <v>0.80845465143853246</v>
       </c>
-      <c r="M44" s="13">
+      <c r="M44" s="12">
         <f t="shared" si="6"/>
         <v>0.80845465143853246</v>
       </c>
-      <c r="N44" s="13">
+      <c r="N44" s="12">
         <f t="shared" si="6"/>
         <v>0.80845465143853246</v>
       </c>
-      <c r="O44" s="13">
+      <c r="O44" s="12">
         <f t="shared" si="6"/>
         <v>0.80845465143853246</v>
       </c>
-      <c r="P44" s="13">
+      <c r="P44" s="12">
         <f t="shared" si="6"/>
         <v>0.80845465143853246</v>
       </c>
-      <c r="Q44" s="13">
+      <c r="Q44" s="12">
         <f t="shared" si="6"/>
         <v>0.80845465143853246</v>
       </c>
-      <c r="R44" s="13">
+      <c r="R44" s="12">
         <f t="shared" si="7"/>
         <v>0.80845465143853246</v>
       </c>
-      <c r="S44" s="13">
+      <c r="S44" s="12">
         <f t="shared" si="7"/>
         <v>0.80845465143853246</v>
       </c>
-      <c r="T44" s="13">
+      <c r="T44" s="12">
         <f t="shared" si="7"/>
         <v>0.80845465143853246</v>
       </c>
-      <c r="U44" s="13">
+      <c r="U44" s="12">
         <f t="shared" si="7"/>
         <v>0.80845465143853246</v>
       </c>
-      <c r="V44" s="13">
+      <c r="V44" s="12">
         <f t="shared" si="7"/>
         <v>0.80845465143853246</v>
       </c>
@@ -4372,1894 +4371,2025 @@
       <c r="A45" s="2">
         <v>-2</v>
       </c>
-      <c r="B45" s="13">
+      <c r="B45" s="12">
         <f t="shared" si="6"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C45" s="12">
         <f t="shared" si="6"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D45" s="12">
         <f t="shared" si="6"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E45" s="12">
         <f t="shared" si="6"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F45" s="12">
         <f t="shared" si="6"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="G45" s="13">
+      <c r="G45" s="12">
         <f t="shared" si="6"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="H45" s="13">
+      <c r="H45" s="12">
         <f t="shared" si="6"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="I45" s="13">
+      <c r="I45" s="12">
         <f t="shared" si="6"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="J45" s="13">
+      <c r="J45" s="12">
         <f t="shared" si="6"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="K45" s="13">
+      <c r="K45" s="12">
         <f t="shared" si="6"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="L45" s="13">
+      <c r="L45" s="12">
         <f t="shared" si="6"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="M45" s="13">
+      <c r="M45" s="12">
         <f t="shared" si="6"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="N45" s="13">
+      <c r="N45" s="12">
         <f t="shared" si="6"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="O45" s="13">
+      <c r="O45" s="12">
         <f t="shared" si="6"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="P45" s="13">
+      <c r="P45" s="12">
         <f t="shared" si="6"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="Q45" s="13">
+      <c r="Q45" s="12">
         <f t="shared" si="6"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="R45" s="13">
+      <c r="R45" s="12">
         <f t="shared" si="7"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="S45" s="13">
+      <c r="S45" s="12">
         <f t="shared" si="7"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="T45" s="13">
+      <c r="T45" s="12">
         <f t="shared" si="7"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="U45" s="13">
+      <c r="U45" s="12">
         <f t="shared" si="7"/>
         <v>0.83201838513392445</v>
       </c>
-      <c r="V45" s="13">
+      <c r="V45" s="12">
         <f t="shared" si="7"/>
         <v>0.83201838513392445</v>
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B47">
+      <c r="B47" s="2">
+        <v>2</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="G47" s="2">
+        <v>1</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L47" s="2">
+        <v>0</v>
+      </c>
+      <c r="M47" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="N47" s="2">
+        <v>-0.4</v>
+      </c>
+      <c r="O47" s="2">
+        <v>-0.6</v>
+      </c>
+      <c r="P47" s="2">
+        <v>-0.8</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R47" s="2">
+        <v>-1.2</v>
+      </c>
+      <c r="S47" s="2">
+        <v>-1.4</v>
+      </c>
+      <c r="T47" s="2">
+        <v>-1.6</v>
+      </c>
+      <c r="U47" s="2">
+        <v>-1.8</v>
+      </c>
+      <c r="V47" s="2">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>2</v>
+      </c>
+      <c r="B48">
         <f>B2+B25</f>
         <v>1.1288158920693112</v>
       </c>
-      <c r="C47">
-        <f t="shared" ref="C47:V47" si="8">C2+C25</f>
+      <c r="C48">
+        <f>C2+C25</f>
         <v>1.1223304440816317</v>
       </c>
-      <c r="D47">
-        <f t="shared" si="8"/>
+      <c r="D48">
+        <f>D2+D25</f>
         <v>1.1148304784680119</v>
       </c>
-      <c r="E47">
-        <f t="shared" si="8"/>
+      <c r="E48">
+        <f>E2+E25</f>
         <v>1.1061781486024871</v>
       </c>
-      <c r="F47">
-        <f t="shared" si="8"/>
+      <c r="F48">
+        <f>F2+F25</f>
         <v>1.096224072602324</v>
       </c>
-      <c r="G47">
-        <f t="shared" si="8"/>
+      <c r="G48">
+        <f>G2+G25</f>
         <v>1.0848089183721532</v>
       </c>
-      <c r="H47">
-        <f t="shared" si="8"/>
+      <c r="H48">
+        <f>H2+H25</f>
         <v>1.0717660731553829</v>
       </c>
-      <c r="I47">
-        <f t="shared" si="8"/>
+      <c r="I48">
+        <f>I2+I25</f>
         <v>1.0569256481546678</v>
       </c>
-      <c r="J47">
-        <f t="shared" si="8"/>
+      <c r="J48">
+        <f>J2+J25</f>
         <v>1.0401200485469944</v>
       </c>
-      <c r="K47">
-        <f t="shared" si="8"/>
+      <c r="K48">
+        <f>K2+K25</f>
         <v>1.0211912750646932</v>
       </c>
-      <c r="L47">
-        <f t="shared" si="8"/>
+      <c r="L48">
+        <f>L2+L25</f>
         <v>1</v>
       </c>
-      <c r="M47">
-        <f t="shared" si="8"/>
+      <c r="M48">
+        <f>M2+M25</f>
         <v>0.97643626630460811</v>
       </c>
-      <c r="N47">
-        <f t="shared" si="8"/>
+      <c r="N48">
+        <f>N2+N25</f>
         <v>0.95043139128918797</v>
       </c>
-      <c r="O47">
-        <f t="shared" si="8"/>
+      <c r="O48">
+        <f>O2+O25</f>
         <v>0.92197033131502359</v>
       </c>
-      <c r="P47">
-        <f t="shared" si="8"/>
+      <c r="P48">
+        <f>P2+P25</f>
         <v>0.89110341999046538</v>
       </c>
-      <c r="Q47">
-        <f t="shared" si="8"/>
+      <c r="Q48">
+        <f>Q2+Q25</f>
         <v>0.85795609599368805</v>
       </c>
-      <c r="R47">
-        <f t="shared" si="8"/>
+      <c r="R48">
+        <f>R2+R25</f>
         <v>0.82273507547239477</v>
       </c>
-      <c r="S47">
-        <f t="shared" si="8"/>
+      <c r="S48">
+        <f>S2+S25</f>
         <v>0.78572948963532452</v>
       </c>
-      <c r="T47">
-        <f t="shared" si="8"/>
+      <c r="T48">
+        <f>T2+T25</f>
         <v>0.74730586701482504</v>
       </c>
-      <c r="U47">
-        <f t="shared" si="8"/>
+      <c r="U48">
+        <f>U2+U25</f>
         <v>0.70789649942164123</v>
       </c>
-      <c r="V47">
-        <f t="shared" si="8"/>
+      <c r="V48">
+        <f>V2+V25</f>
         <v>0.66798161486607555</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B48">
-        <f t="shared" ref="B48:V48" si="9">B3+B26</f>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="B49">
+        <f>B3+B26</f>
         <v>1.1458941777770235</v>
       </c>
-      <c r="C48">
-        <f t="shared" si="9"/>
+      <c r="C49">
+        <f>C3+C26</f>
         <v>1.1383942121634036</v>
       </c>
-      <c r="D48">
-        <f t="shared" si="9"/>
+      <c r="D49">
+        <f>D3+D26</f>
         <v>1.1297418822978789</v>
       </c>
-      <c r="E48">
-        <f t="shared" si="9"/>
+      <c r="E49">
+        <f>E3+E26</f>
         <v>1.119787806297716</v>
       </c>
-      <c r="F48">
-        <f t="shared" si="9"/>
+      <c r="F49">
+        <f>F3+F26</f>
         <v>1.108372652067545</v>
       </c>
-      <c r="G48">
-        <f t="shared" si="9"/>
+      <c r="G49">
+        <f>G3+G26</f>
         <v>1.0953298068507746</v>
       </c>
-      <c r="H48">
-        <f t="shared" si="9"/>
+      <c r="H49">
+        <f>H3+H26</f>
         <v>1.0804893818500598</v>
       </c>
-      <c r="I48">
-        <f t="shared" si="9"/>
+      <c r="I49">
+        <f>I3+I26</f>
         <v>1.0636837822423861</v>
       </c>
-      <c r="J48">
-        <f t="shared" si="9"/>
+      <c r="J49">
+        <f>J3+J26</f>
         <v>1.044755008760085</v>
       </c>
-      <c r="K48">
-        <f t="shared" si="9"/>
+      <c r="K49">
+        <f>K3+K26</f>
         <v>1.0235637336953918</v>
       </c>
-      <c r="L48">
-        <f t="shared" si="9"/>
+      <c r="L49">
+        <f>L3+L26</f>
         <v>1</v>
       </c>
-      <c r="M48">
-        <f t="shared" si="9"/>
+      <c r="M49">
+        <f>M3+M26</f>
         <v>0.97399512498457985</v>
       </c>
-      <c r="N48">
-        <f t="shared" si="9"/>
+      <c r="N49">
+        <f>N3+N26</f>
         <v>0.94553406501041548</v>
       </c>
-      <c r="O48">
-        <f t="shared" si="9"/>
+      <c r="O49">
+        <f>O3+O26</f>
         <v>0.91466715368585727</v>
       </c>
-      <c r="P48">
-        <f t="shared" si="9"/>
+      <c r="P49">
+        <f>P3+P26</f>
         <v>0.88151982968907994</v>
       </c>
-      <c r="Q48">
-        <f t="shared" si="9"/>
+      <c r="Q49">
+        <f>Q3+Q26</f>
         <v>0.84629880916778666</v>
       </c>
-      <c r="R48">
-        <f t="shared" si="9"/>
+      <c r="R49">
+        <f>R3+R26</f>
         <v>0.8092932233307164</v>
       </c>
-      <c r="S48">
-        <f t="shared" si="9"/>
+      <c r="S49">
+        <f>S3+S26</f>
         <v>0.77086960071021693</v>
       </c>
-      <c r="T48">
-        <f t="shared" si="9"/>
+      <c r="T49">
+        <f>T3+T26</f>
         <v>0.73146023311703312</v>
       </c>
-      <c r="U48">
-        <f t="shared" si="9"/>
+      <c r="U49">
+        <f>U3+U26</f>
         <v>0.69154534856146743</v>
       </c>
-      <c r="V48">
-        <f t="shared" si="9"/>
+      <c r="V49">
+        <f>V3+V26</f>
         <v>0.65163046400590163</v>
       </c>
     </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B49">
-        <f t="shared" ref="B49:V49" si="10">B4+B27</f>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="B50">
+        <f>B4+B27</f>
         <v>1.1643990871788237</v>
       </c>
-      <c r="C49">
-        <f t="shared" si="10"/>
+      <c r="C50">
+        <f>C4+C27</f>
         <v>1.1557467573132989</v>
       </c>
-      <c r="D49">
-        <f t="shared" si="10"/>
+      <c r="D50">
+        <f>D4+D27</f>
         <v>1.1457926813131363</v>
       </c>
-      <c r="E49">
-        <f t="shared" si="10"/>
+      <c r="E50">
+        <f>E4+E27</f>
         <v>1.1343775270829652</v>
       </c>
-      <c r="F49">
-        <f t="shared" si="10"/>
+      <c r="F50">
+        <f>F4+F27</f>
         <v>1.1213346818661947</v>
       </c>
-      <c r="G49">
-        <f t="shared" si="10"/>
+      <c r="G50">
+        <f>G4+G27</f>
         <v>1.1064942568654801</v>
       </c>
-      <c r="H49">
-        <f t="shared" si="10"/>
+      <c r="H50">
+        <f>H4+H27</f>
         <v>1.0896886572578062</v>
       </c>
-      <c r="I49">
-        <f t="shared" si="10"/>
+      <c r="I50">
+        <f>I4+I27</f>
         <v>1.0707598837755052</v>
       </c>
-      <c r="J49">
-        <f t="shared" si="10"/>
+      <c r="J50">
+        <f>J4+J27</f>
         <v>1.049568608710812</v>
       </c>
-      <c r="K49">
-        <f t="shared" si="10"/>
+      <c r="K50">
+        <f>K4+K27</f>
         <v>1.02600487501542</v>
       </c>
-      <c r="L49">
-        <f t="shared" si="10"/>
+      <c r="L50">
+        <f>L4+L27</f>
         <v>1</v>
       </c>
-      <c r="M49">
-        <f t="shared" si="10"/>
+      <c r="M50">
+        <f>M4+M27</f>
         <v>0.97153894002583574</v>
       </c>
-      <c r="N49">
-        <f t="shared" si="10"/>
+      <c r="N50">
+        <f>N4+N27</f>
         <v>0.94067202870127742</v>
       </c>
-      <c r="O49">
-        <f t="shared" si="10"/>
+      <c r="O50">
+        <f>O4+O27</f>
         <v>0.90752470470450008</v>
       </c>
-      <c r="P49">
-        <f t="shared" si="10"/>
+      <c r="P50">
+        <f>P4+P27</f>
         <v>0.87230368418320681</v>
       </c>
-      <c r="Q49">
-        <f t="shared" si="10"/>
+      <c r="Q50">
+        <f>Q4+Q27</f>
         <v>0.83529809834613655</v>
       </c>
-      <c r="R49">
-        <f t="shared" si="10"/>
+      <c r="R50">
+        <f>R4+R27</f>
         <v>0.79687447572563708</v>
       </c>
-      <c r="S49">
-        <f t="shared" si="10"/>
+      <c r="S50">
+        <f>S4+S27</f>
         <v>0.75746510813245327</v>
       </c>
-      <c r="T49">
-        <f t="shared" si="10"/>
+      <c r="T50">
+        <f>T4+T27</f>
         <v>0.71755022357688758</v>
       </c>
-      <c r="U49">
-        <f t="shared" si="10"/>
+      <c r="U50">
+        <f>U4+U27</f>
         <v>0.67763533902132189</v>
       </c>
-      <c r="V49">
-        <f t="shared" si="10"/>
+      <c r="V50">
+        <f>V4+V27</f>
         <v>0.63822597142813819</v>
       </c>
-    </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B50">
-        <f t="shared" ref="B50:V50" si="11">B5+B28</f>
+      <c r="W50">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="B51">
+        <f>B5+B28</f>
         <v>1.1842078172874633</v>
       </c>
-      <c r="C50">
-        <f t="shared" si="11"/>
+      <c r="C51">
+        <f>C5+C28</f>
         <v>1.1742537412873006</v>
       </c>
-      <c r="D50">
-        <f t="shared" si="11"/>
+      <c r="D51">
+        <f>D5+D28</f>
         <v>1.1628385870571296</v>
       </c>
-      <c r="E50">
-        <f t="shared" si="11"/>
+      <c r="E51">
+        <f>E5+E28</f>
         <v>1.149795741840359</v>
       </c>
-      <c r="F50">
-        <f t="shared" si="11"/>
+      <c r="F51">
+        <f>F5+F28</f>
         <v>1.1349553168396445</v>
       </c>
-      <c r="G50">
-        <f t="shared" si="11"/>
+      <c r="G51">
+        <f>G5+G28</f>
         <v>1.1181497172319705</v>
       </c>
-      <c r="H50">
-        <f t="shared" si="11"/>
+      <c r="H51">
+        <f>H5+H28</f>
         <v>1.0992209437496696</v>
       </c>
-      <c r="I50">
-        <f t="shared" si="11"/>
+      <c r="I51">
+        <f>I5+I28</f>
         <v>1.0780296686849764</v>
       </c>
-      <c r="J50">
-        <f t="shared" si="11"/>
+      <c r="J51">
+        <f>J5+J28</f>
         <v>1.0544659349895844</v>
       </c>
-      <c r="K50">
-        <f t="shared" si="11"/>
+      <c r="K51">
+        <f>K5+K28</f>
         <v>1.0284610599741644</v>
       </c>
-      <c r="L50">
-        <f t="shared" si="11"/>
+      <c r="L51">
+        <f>L5+L28</f>
         <v>1</v>
       </c>
-      <c r="M50">
-        <f t="shared" si="11"/>
+      <c r="M51">
+        <f>M5+M28</f>
         <v>0.96913308867544179</v>
       </c>
-      <c r="N50">
-        <f t="shared" si="11"/>
+      <c r="N51">
+        <f>N5+N28</f>
         <v>0.93598576467866446</v>
       </c>
-      <c r="O50">
-        <f t="shared" si="11"/>
+      <c r="O51">
+        <f>O5+O28</f>
         <v>0.90076474415737118</v>
       </c>
-      <c r="P50">
-        <f t="shared" si="11"/>
+      <c r="P51">
+        <f>P5+P28</f>
         <v>0.86375915832030092</v>
       </c>
-      <c r="Q50">
-        <f t="shared" si="11"/>
+      <c r="Q51">
+        <f>Q5+Q28</f>
         <v>0.82533553569980145</v>
       </c>
-      <c r="R50">
-        <f t="shared" si="11"/>
+      <c r="R51">
+        <f>R5+R28</f>
         <v>0.78592616810661764</v>
       </c>
-      <c r="S50">
-        <f t="shared" si="11"/>
+      <c r="S51">
+        <f>S5+S28</f>
         <v>0.74601128355105195</v>
       </c>
-      <c r="T50">
-        <f t="shared" si="11"/>
+      <c r="T51">
+        <f>T5+T28</f>
         <v>0.70609639899548626</v>
       </c>
-      <c r="U50">
-        <f t="shared" si="11"/>
+      <c r="U51">
+        <f>U5+U28</f>
         <v>0.66668703140230257</v>
       </c>
-      <c r="V50">
-        <f t="shared" si="11"/>
+      <c r="V51">
+        <f>V5+V28</f>
         <v>0.62826340878180298</v>
       </c>
     </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B51">
-        <f t="shared" ref="B51:V51" si="12">B6+B29</f>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="B52">
+        <f>B6+B29</f>
         <v>1.2051206526118587</v>
       </c>
-      <c r="C51">
-        <f t="shared" si="12"/>
+      <c r="C52">
+        <f>C6+C29</f>
         <v>1.1937054983816879</v>
       </c>
-      <c r="D51">
-        <f t="shared" si="12"/>
+      <c r="D52">
+        <f>D6+D29</f>
         <v>1.1806626531649174</v>
       </c>
-      <c r="E51">
-        <f t="shared" si="12"/>
+      <c r="E52">
+        <f>E6+E29</f>
         <v>1.1658222281642026</v>
       </c>
-      <c r="F51">
-        <f t="shared" si="12"/>
+      <c r="F52">
+        <f>F6+F29</f>
         <v>1.1490166285565289</v>
       </c>
-      <c r="G51">
-        <f t="shared" si="12"/>
+      <c r="G52">
+        <f>G6+G29</f>
         <v>1.1300878550742279</v>
       </c>
-      <c r="H51">
-        <f t="shared" si="12"/>
+      <c r="H52">
+        <f>H6+H29</f>
         <v>1.1088965800095347</v>
       </c>
-      <c r="I51">
-        <f t="shared" si="12"/>
+      <c r="I52">
+        <f>I6+I29</f>
         <v>1.0853328463141427</v>
       </c>
-      <c r="J51">
-        <f t="shared" si="12"/>
+      <c r="J52">
+        <f>J6+J29</f>
         <v>1.0593279712987225</v>
       </c>
-      <c r="K51">
-        <f t="shared" si="12"/>
+      <c r="K52">
+        <f>K6+K29</f>
         <v>1.0308669113245581</v>
       </c>
-      <c r="L51">
-        <f t="shared" si="12"/>
+      <c r="L52">
+        <f>L6+L29</f>
         <v>1</v>
       </c>
-      <c r="M51">
-        <f t="shared" si="12"/>
+      <c r="M52">
+        <f>M6+M29</f>
         <v>0.96685267600322267</v>
       </c>
-      <c r="N51">
-        <f t="shared" si="12"/>
+      <c r="N52">
+        <f>N6+N29</f>
         <v>0.93163165548192939</v>
       </c>
-      <c r="O51">
-        <f t="shared" si="12"/>
+      <c r="O52">
+        <f>O6+O29</f>
         <v>0.89462606964485913</v>
       </c>
-      <c r="P51">
-        <f t="shared" si="12"/>
+      <c r="P52">
+        <f>P6+P29</f>
         <v>0.85620244702435966</v>
       </c>
-      <c r="Q51">
-        <f t="shared" si="12"/>
+      <c r="Q52">
+        <f>Q6+Q29</f>
         <v>0.81679307943117585</v>
       </c>
-      <c r="R51">
-        <f t="shared" si="12"/>
+      <c r="R52">
+        <f>R6+R29</f>
         <v>0.77687819487561016</v>
       </c>
-      <c r="S51">
-        <f t="shared" si="12"/>
+      <c r="S52">
+        <f>S6+S29</f>
         <v>0.73696331032004436</v>
       </c>
-      <c r="T51">
-        <f t="shared" si="12"/>
+      <c r="T52">
+        <f>T6+T29</f>
         <v>0.69755394272686067</v>
       </c>
-      <c r="U51">
-        <f t="shared" si="12"/>
+      <c r="U52">
+        <f>U6+U29</f>
         <v>0.65913032010636119</v>
       </c>
-      <c r="V51">
-        <f t="shared" si="12"/>
+      <c r="V52">
+        <f>V6+V29</f>
         <v>0.62212473426929082</v>
       </c>
     </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B52">
-        <f t="shared" ref="B52:V52" si="13">B7+B30</f>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <f>B7+B30</f>
         <v>1.2268528223784652</v>
       </c>
-      <c r="C52">
-        <f t="shared" si="13"/>
+      <c r="C53">
+        <f>C7+C30</f>
         <v>1.2138099771616946</v>
       </c>
-      <c r="D52">
-        <f t="shared" si="13"/>
+      <c r="D53">
+        <f>D7+D30</f>
         <v>1.19896955216098</v>
       </c>
-      <c r="E52">
-        <f t="shared" si="13"/>
+      <c r="E53">
+        <f>E7+E30</f>
         <v>1.1821639525533061</v>
       </c>
-      <c r="F52">
-        <f t="shared" si="13"/>
+      <c r="F53">
+        <f>F7+F30</f>
         <v>1.1632351790710052</v>
       </c>
-      <c r="G52">
-        <f t="shared" si="13"/>
+      <c r="G53">
+        <f>G7+G30</f>
         <v>1.1420439040063119</v>
       </c>
-      <c r="H52">
-        <f t="shared" si="13"/>
+      <c r="H53">
+        <f>H7+H30</f>
         <v>1.11848017031092</v>
       </c>
-      <c r="I52">
-        <f t="shared" si="13"/>
+      <c r="I53">
+        <f>I7+I30</f>
         <v>1.0924752952954999</v>
       </c>
-      <c r="J52">
-        <f t="shared" si="13"/>
+      <c r="J53">
+        <f>J7+J30</f>
         <v>1.0640142353213355</v>
       </c>
-      <c r="K52">
-        <f t="shared" si="13"/>
+      <c r="K53">
+        <f>K7+K30</f>
         <v>1.0331473239967774</v>
       </c>
-      <c r="L52">
-        <f t="shared" si="13"/>
+      <c r="L53">
+        <f>L7+L30</f>
         <v>1</v>
       </c>
-      <c r="M52">
-        <f t="shared" si="13"/>
+      <c r="M53">
+        <f>M7+M30</f>
         <v>0.96477897947870672</v>
       </c>
-      <c r="N52">
-        <f t="shared" si="13"/>
+      <c r="N53">
+        <f>N7+N30</f>
         <v>0.92777339364163647</v>
       </c>
-      <c r="O52">
-        <f t="shared" si="13"/>
+      <c r="O53">
+        <f>O7+O30</f>
         <v>0.88934977102113699</v>
       </c>
-      <c r="P52">
-        <f t="shared" si="13"/>
+      <c r="P53">
+        <f>P7+P30</f>
         <v>0.84994040342795318</v>
       </c>
-      <c r="Q52">
-        <f t="shared" si="13"/>
+      <c r="Q53">
+        <f>Q7+Q30</f>
         <v>0.8100255188723875</v>
       </c>
-      <c r="R52">
-        <f t="shared" si="13"/>
+      <c r="R53">
+        <f>R7+R30</f>
         <v>0.77011063431682181</v>
       </c>
-      <c r="S52">
-        <f t="shared" si="13"/>
+      <c r="S53">
+        <f>S7+S30</f>
         <v>0.73070126672363811</v>
       </c>
-      <c r="T52">
-        <f t="shared" si="13"/>
+      <c r="T53">
+        <f>T7+T30</f>
         <v>0.69227764410313852</v>
       </c>
-      <c r="U52">
-        <f t="shared" si="13"/>
+      <c r="U53">
+        <f>U7+U30</f>
         <v>0.65527205826606827</v>
       </c>
-      <c r="V52" s="14">
-        <f t="shared" si="13"/>
+      <c r="V53" s="13">
+        <f>V7+V30</f>
         <v>0.62005103774477499</v>
       </c>
     </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B53">
-        <f t="shared" ref="B53:V53" si="14">B8+B31</f>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="B54">
+        <f>B8+B31</f>
         <v>1.2490309976829881</v>
       </c>
-      <c r="C53">
-        <f t="shared" si="14"/>
+      <c r="C54">
+        <f>C8+C31</f>
         <v>1.2341905726822731</v>
       </c>
-      <c r="D53">
-        <f t="shared" si="14"/>
+      <c r="D54">
+        <f>D8+D31</f>
         <v>1.2173849730745996</v>
       </c>
-      <c r="E53">
-        <f t="shared" si="14"/>
+      <c r="E54">
+        <f>E8+E31</f>
         <v>1.1984561995922984</v>
       </c>
-      <c r="F53">
-        <f t="shared" si="14"/>
+      <c r="F54">
+        <f>F8+F31</f>
         <v>1.1772649245276052</v>
       </c>
-      <c r="G53">
-        <f t="shared" si="14"/>
+      <c r="G54">
+        <f>G8+G31</f>
         <v>1.1537011908322135</v>
       </c>
-      <c r="H53">
-        <f t="shared" si="14"/>
+      <c r="H54">
+        <f>H8+H31</f>
         <v>1.1276963158167932</v>
       </c>
-      <c r="I53">
-        <f t="shared" si="14"/>
+      <c r="I54">
+        <f>I8+I31</f>
         <v>1.0992352558426288</v>
       </c>
-      <c r="J53">
-        <f t="shared" si="14"/>
+      <c r="J54">
+        <f>J8+J31</f>
         <v>1.0683683445180705</v>
       </c>
-      <c r="K53">
-        <f t="shared" si="14"/>
+      <c r="K54">
+        <f>K8+K31</f>
         <v>1.0352210205212933</v>
       </c>
-      <c r="L53">
-        <f t="shared" si="14"/>
+      <c r="L54">
+        <f>L8+L31</f>
         <v>1</v>
       </c>
-      <c r="M53">
-        <f t="shared" si="14"/>
+      <c r="M54">
+        <f>M8+M31</f>
         <v>0.96299441416292975</v>
       </c>
-      <c r="N53">
-        <f t="shared" si="14"/>
+      <c r="N54">
+        <f>N8+N31</f>
         <v>0.92457079154243027</v>
       </c>
-      <c r="O53">
-        <f t="shared" si="14"/>
+      <c r="O54">
+        <f>O8+O31</f>
         <v>0.88516142394924646</v>
       </c>
-      <c r="P53">
-        <f t="shared" si="14"/>
+      <c r="P54">
+        <f>P8+P31</f>
         <v>0.84524653939368077</v>
       </c>
-      <c r="Q53">
-        <f t="shared" si="14"/>
+      <c r="Q54">
+        <f>Q8+Q31</f>
         <v>0.80533165483811509</v>
       </c>
-      <c r="R53">
-        <f t="shared" si="14"/>
+      <c r="R54">
+        <f>R8+R31</f>
         <v>0.76592228724493139</v>
       </c>
-      <c r="S53">
-        <f t="shared" si="14"/>
+      <c r="S54">
+        <f>S8+S31</f>
         <v>0.7274986646244318</v>
       </c>
-      <c r="T53">
-        <f t="shared" si="14"/>
+      <c r="T54">
+        <f>T8+T31</f>
         <v>0.69049307878736155</v>
       </c>
-      <c r="U53">
-        <f t="shared" si="14"/>
+      <c r="U54">
+        <f>U8+U31</f>
         <v>0.65527205826606827</v>
       </c>
-      <c r="V53">
-        <f t="shared" si="14"/>
+      <c r="V54">
+        <f>V8+V31</f>
         <v>0.62212473426929094</v>
       </c>
     </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B54">
-        <f t="shared" ref="B54:V54" si="15">B9+B32</f>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="B55">
+        <f>B9+B32</f>
         <v>1.2711961585193434</v>
       </c>
-      <c r="C54">
-        <f t="shared" si="15"/>
+      <c r="C55">
+        <f>C9+C32</f>
         <v>1.2543905589116697</v>
       </c>
-      <c r="D54">
-        <f t="shared" si="15"/>
+      <c r="D55">
+        <f>D9+D32</f>
         <v>1.2354617854293686</v>
       </c>
-      <c r="E54">
-        <f t="shared" si="15"/>
+      <c r="E55">
+        <f>E9+E32</f>
         <v>1.2142705103646754</v>
       </c>
-      <c r="F54">
-        <f t="shared" si="15"/>
+      <c r="F55">
+        <f>F9+F32</f>
         <v>1.1907067766692836</v>
       </c>
-      <c r="G54">
-        <f t="shared" si="15"/>
+      <c r="G55">
+        <f>G9+G32</f>
         <v>1.1647019016538636</v>
       </c>
-      <c r="H54">
-        <f t="shared" si="15"/>
+      <c r="H55">
+        <f>H9+H32</f>
         <v>1.1362408416796992</v>
       </c>
-      <c r="I54">
-        <f t="shared" si="15"/>
+      <c r="I55">
+        <f>I9+I32</f>
         <v>1.1053739303551409</v>
       </c>
-      <c r="J54">
-        <f t="shared" si="15"/>
+      <c r="J55">
+        <f>J9+J32</f>
         <v>1.0722266063583636</v>
       </c>
-      <c r="K54">
-        <f t="shared" si="15"/>
+      <c r="K55">
+        <f>K9+K32</f>
         <v>1.0370055858370701</v>
       </c>
-      <c r="L54">
-        <f t="shared" si="15"/>
+      <c r="L55">
+        <f>L9+L32</f>
         <v>1</v>
       </c>
-      <c r="M54">
-        <f t="shared" si="15"/>
+      <c r="M55">
+        <f>M9+M32</f>
         <v>0.96157637737950052</v>
       </c>
-      <c r="N54">
-        <f t="shared" si="15"/>
+      <c r="N55">
+        <f>N9+N32</f>
         <v>0.92216700978631672</v>
       </c>
-      <c r="O54">
-        <f t="shared" si="15"/>
+      <c r="O55">
+        <f>O9+O32</f>
         <v>0.88225212523075103</v>
       </c>
-      <c r="P54">
-        <f t="shared" si="15"/>
+      <c r="P55">
+        <f>P9+P32</f>
         <v>0.84233724067518523</v>
       </c>
-      <c r="Q54">
-        <f t="shared" si="15"/>
+      <c r="Q55">
+        <f>Q9+Q32</f>
         <v>0.80292787308200153</v>
       </c>
-      <c r="R54">
-        <f t="shared" si="15"/>
+      <c r="R55">
+        <f>R9+R32</f>
         <v>0.76450425046150206</v>
       </c>
-      <c r="S54">
-        <f t="shared" si="15"/>
+      <c r="S55">
+        <f>S9+S32</f>
         <v>0.7274986646244318</v>
       </c>
-      <c r="T54">
-        <f t="shared" si="15"/>
+      <c r="T55">
+        <f>T9+T32</f>
         <v>0.69227764410313863</v>
       </c>
-      <c r="U54">
-        <f t="shared" si="15"/>
+      <c r="U55">
+        <f>U9+U32</f>
         <v>0.65913032010636119</v>
       </c>
-      <c r="V54">
-        <f t="shared" si="15"/>
+      <c r="V55">
+        <f>V9+V32</f>
         <v>0.62826340878180298</v>
       </c>
     </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <f t="shared" ref="B55:V55" si="16">B10+B33</f>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="B56">
+        <f>B10+B33</f>
         <v>1.2928141815321692</v>
       </c>
-      <c r="C55">
-        <f t="shared" si="16"/>
+      <c r="C56">
+        <f>C10+C33</f>
         <v>1.2738854080498681</v>
       </c>
-      <c r="D55">
-        <f t="shared" si="16"/>
+      <c r="D56">
+        <f>D10+D33</f>
         <v>1.2526941329851748</v>
       </c>
-      <c r="E55">
-        <f t="shared" si="16"/>
+      <c r="E56">
+        <f>E10+E33</f>
         <v>1.2291303992897831</v>
       </c>
-      <c r="F55">
-        <f t="shared" si="16"/>
+      <c r="F56">
+        <f>F10+F33</f>
         <v>1.203125524274363</v>
       </c>
-      <c r="G55">
-        <f t="shared" si="16"/>
+      <c r="G56">
+        <f>G10+G33</f>
         <v>1.1746644643001987</v>
       </c>
-      <c r="H55">
-        <f t="shared" si="16"/>
+      <c r="H56">
+        <f>H10+H33</f>
         <v>1.1437975529756403</v>
       </c>
-      <c r="I55">
-        <f t="shared" si="16"/>
+      <c r="I56">
+        <f>I10+I33</f>
         <v>1.1106502289788631</v>
       </c>
-      <c r="J55">
-        <f t="shared" si="16"/>
+      <c r="J56">
+        <f>J10+J33</f>
         <v>1.0754292084575696</v>
       </c>
-      <c r="K55">
-        <f t="shared" si="16"/>
+      <c r="K56">
+        <f>K10+K33</f>
         <v>1.0384236226204995</v>
       </c>
-      <c r="L55">
-        <f t="shared" si="16"/>
+      <c r="L56">
+        <f>L10+L33</f>
         <v>1</v>
       </c>
-      <c r="M55">
-        <f t="shared" si="16"/>
+      <c r="M56">
+        <f>M10+M33</f>
         <v>0.96059063240681619</v>
       </c>
-      <c r="N55">
-        <f t="shared" si="16"/>
+      <c r="N56">
+        <f>N10+N33</f>
         <v>0.9206757478512505</v>
       </c>
-      <c r="O55">
-        <f t="shared" si="16"/>
+      <c r="O56">
+        <f>O10+O33</f>
         <v>0.8807608632956847</v>
       </c>
-      <c r="P55">
-        <f t="shared" si="16"/>
+      <c r="P56">
+        <f>P10+P33</f>
         <v>0.84135149570250101</v>
       </c>
-      <c r="Q55">
-        <f t="shared" si="16"/>
+      <c r="Q56">
+        <f>Q10+Q33</f>
         <v>0.80292787308200153</v>
       </c>
-      <c r="R55">
-        <f t="shared" si="16"/>
+      <c r="R56">
+        <f>R10+R33</f>
         <v>0.76592228724493128</v>
       </c>
-      <c r="S55">
-        <f t="shared" si="16"/>
+      <c r="S56">
+        <f>S10+S33</f>
         <v>0.73070126672363811</v>
       </c>
-      <c r="T55">
-        <f t="shared" si="16"/>
+      <c r="T56">
+        <f>T10+T33</f>
         <v>0.69755394272686067</v>
       </c>
-      <c r="U55">
-        <f t="shared" si="16"/>
+      <c r="U56">
+        <f>U10+U33</f>
         <v>0.66668703140230245</v>
       </c>
-      <c r="V55">
-        <f t="shared" si="16"/>
+      <c r="V56">
+        <f>V10+V33</f>
         <v>0.63822597142813797</v>
       </c>
     </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B56">
-        <f t="shared" ref="B56:V56" si="17">B11+B34</f>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="B57">
+        <f>B11+B34</f>
         <v>1.313294775643052</v>
       </c>
-      <c r="C56">
-        <f t="shared" si="17"/>
+      <c r="C57">
+        <f>C11+C34</f>
         <v>1.2921035005783588</v>
       </c>
-      <c r="D56">
-        <f t="shared" si="17"/>
+      <c r="D57">
+        <f>D11+D34</f>
         <v>1.268539766882967</v>
       </c>
-      <c r="E56">
-        <f t="shared" si="17"/>
+      <c r="E57">
+        <f>E11+E34</f>
         <v>1.2425348918675467</v>
       </c>
-      <c r="F56">
-        <f t="shared" si="17"/>
+      <c r="F57">
+        <f>F11+F34</f>
         <v>1.2140738318933824</v>
       </c>
-      <c r="G56">
-        <f t="shared" si="17"/>
+      <c r="G57">
+        <f>G11+G34</f>
         <v>1.183206920568824</v>
       </c>
-      <c r="H56">
-        <f t="shared" si="17"/>
+      <c r="H57">
+        <f>H11+H34</f>
         <v>1.1500595965720468</v>
       </c>
-      <c r="I56">
-        <f t="shared" si="17"/>
+      <c r="I57">
+        <f>I11+I34</f>
         <v>1.1148385760507535</v>
       </c>
-      <c r="J56">
-        <f t="shared" si="17"/>
+      <c r="J57">
+        <f>J11+J34</f>
         <v>1.0778329902136834</v>
       </c>
-      <c r="K56">
-        <f t="shared" si="17"/>
+      <c r="K57">
+        <f>K11+K34</f>
         <v>1.0394093675931839</v>
       </c>
-      <c r="L56">
-        <f t="shared" si="17"/>
+      <c r="L57">
+        <f>L11+L34</f>
         <v>1</v>
       </c>
-      <c r="M56">
-        <f t="shared" si="17"/>
+      <c r="M57">
+        <f>M11+M34</f>
         <v>0.96008511544443431</v>
       </c>
-      <c r="N56">
-        <f t="shared" si="17"/>
+      <c r="N57">
+        <f>N11+N34</f>
         <v>0.92017023088886862</v>
       </c>
-      <c r="O56">
-        <f t="shared" si="17"/>
+      <c r="O57">
+        <f>O11+O34</f>
         <v>0.88076086329568493</v>
       </c>
-      <c r="P56">
-        <f t="shared" si="17"/>
+      <c r="P57">
+        <f>P11+P34</f>
         <v>0.84233724067518534</v>
       </c>
-      <c r="Q56">
-        <f t="shared" si="17"/>
+      <c r="Q57">
+        <f>Q11+Q34</f>
         <v>0.80533165483811509</v>
       </c>
-      <c r="R56">
-        <f t="shared" si="17"/>
+      <c r="R57">
+        <f>R11+R34</f>
         <v>0.77011063431682181</v>
       </c>
-      <c r="S56">
-        <f t="shared" si="17"/>
+      <c r="S57">
+        <f>S11+S34</f>
         <v>0.73696331032004447</v>
       </c>
-      <c r="T56">
-        <f t="shared" si="17"/>
+      <c r="T57">
+        <f>T11+T34</f>
         <v>0.70609639899548626</v>
       </c>
-      <c r="U56">
-        <f t="shared" si="17"/>
+      <c r="U57">
+        <f>U11+U34</f>
         <v>0.67763533902132178</v>
       </c>
-      <c r="V56">
-        <f t="shared" si="17"/>
+      <c r="V57">
+        <f>V11+V34</f>
         <v>0.65163046400590185</v>
       </c>
     </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B57">
-        <f t="shared" ref="B57:V57" si="18">B12+B35</f>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <f>B12+B35</f>
         <v>1.3320183851339245</v>
       </c>
-      <c r="C57">
-        <f t="shared" si="18"/>
+      <c r="C58">
+        <f>C12+C35</f>
         <v>1.3084546514385327</v>
       </c>
-      <c r="D57">
-        <f t="shared" si="18"/>
+      <c r="D58">
+        <f>D12+D35</f>
         <v>1.2824497764231124</v>
       </c>
-      <c r="E57">
-        <f t="shared" si="18"/>
+      <c r="E58">
+        <f>E12+E35</f>
         <v>1.253988716448948</v>
       </c>
-      <c r="F57">
-        <f t="shared" si="18"/>
+      <c r="F58">
+        <f>F12+F35</f>
         <v>1.2231218051243897</v>
       </c>
-      <c r="G57">
-        <f t="shared" si="18"/>
+      <c r="G58">
+        <f>G12+G35</f>
         <v>1.1899744811276125</v>
       </c>
-      <c r="H57">
-        <f t="shared" si="18"/>
+      <c r="H58">
+        <f>H12+H35</f>
         <v>1.1547534606063192</v>
       </c>
-      <c r="I57">
-        <f t="shared" si="18"/>
+      <c r="I58">
+        <f>I12+I35</f>
         <v>1.1177478747692491</v>
       </c>
-      <c r="J57">
-        <f t="shared" si="18"/>
+      <c r="J58">
+        <f>J12+J35</f>
         <v>1.0793242521487496</v>
       </c>
-      <c r="K57">
-        <f t="shared" si="18"/>
+      <c r="K58">
+        <f>K12+K35</f>
         <v>1.0399148845555657</v>
       </c>
-      <c r="L57">
-        <f t="shared" si="18"/>
+      <c r="L58">
+        <f>L12+L35</f>
         <v>1</v>
       </c>
-      <c r="M57">
-        <f t="shared" si="18"/>
+      <c r="M58">
+        <f>M12+M35</f>
         <v>0.96008511544443431</v>
       </c>
-      <c r="N57">
-        <f t="shared" si="18"/>
+      <c r="N58">
+        <f>N12+N35</f>
         <v>0.92067574785125061</v>
       </c>
-      <c r="O57">
-        <f t="shared" si="18"/>
+      <c r="O58">
+        <f>O12+O35</f>
         <v>0.88225212523075103</v>
       </c>
-      <c r="P57">
-        <f t="shared" si="18"/>
+      <c r="P58">
+        <f>P12+P35</f>
         <v>0.84524653939368077</v>
       </c>
-      <c r="Q57">
-        <f t="shared" si="18"/>
+      <c r="Q58">
+        <f>Q12+Q35</f>
         <v>0.8100255188723875</v>
       </c>
-      <c r="R57">
-        <f t="shared" si="18"/>
+      <c r="R58">
+        <f>R12+R35</f>
         <v>0.77687819487561016</v>
       </c>
-      <c r="S57">
-        <f t="shared" si="18"/>
+      <c r="S58">
+        <f>S12+S35</f>
         <v>0.74601128355105195</v>
       </c>
-      <c r="T57">
-        <f t="shared" si="18"/>
+      <c r="T58">
+        <f>T12+T35</f>
         <v>0.71755022357688747</v>
       </c>
-      <c r="U57">
-        <f t="shared" si="18"/>
+      <c r="U58">
+        <f>U12+U35</f>
         <v>0.69154534856146754</v>
       </c>
-      <c r="V57">
-        <f t="shared" si="18"/>
+      <c r="V58">
+        <f>V12+V35</f>
         <v>0.66798161486607555</v>
       </c>
     </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B58">
-        <f t="shared" ref="B58:V58" si="19">B13+B36</f>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="B59">
+        <f>B13+B36</f>
         <v>1.3483695359940984</v>
       </c>
-      <c r="C58">
-        <f t="shared" si="19"/>
+      <c r="C59">
+        <f>C13+C36</f>
         <v>1.3223646609786781</v>
       </c>
-      <c r="D58">
-        <f t="shared" si="19"/>
+      <c r="D59">
+        <f>D13+D36</f>
         <v>1.293903601004514</v>
       </c>
-      <c r="E58">
-        <f t="shared" si="19"/>
+      <c r="E59">
+        <f>E13+E36</f>
         <v>1.2630366896799554</v>
       </c>
-      <c r="F58">
-        <f t="shared" si="19"/>
+      <c r="F59">
+        <f>F13+F36</f>
         <v>1.2298893656831782</v>
       </c>
-      <c r="G58">
-        <f t="shared" si="19"/>
+      <c r="G59">
+        <f>G13+G36</f>
         <v>1.1946683451618849</v>
       </c>
-      <c r="H58">
-        <f t="shared" si="19"/>
+      <c r="H59">
+        <f>H13+H36</f>
         <v>1.1576627593248148</v>
       </c>
-      <c r="I58">
-        <f t="shared" si="19"/>
+      <c r="I59">
+        <f>I13+I36</f>
         <v>1.1192391367043153</v>
       </c>
-      <c r="J58">
-        <f t="shared" si="19"/>
+      <c r="J59">
+        <f>J13+J36</f>
         <v>1.0798297691111314</v>
       </c>
-      <c r="K58">
-        <f t="shared" si="19"/>
+      <c r="K59">
+        <f>K13+K36</f>
         <v>1.0399148845555657</v>
       </c>
-      <c r="L58">
-        <f t="shared" si="19"/>
+      <c r="L59">
+        <f>L13+L36</f>
         <v>1</v>
       </c>
-      <c r="M58">
-        <f t="shared" si="19"/>
+      <c r="M59">
+        <f>M13+M36</f>
         <v>0.9605906324068163</v>
       </c>
-      <c r="N58">
-        <f t="shared" si="19"/>
+      <c r="N59">
+        <f>N13+N36</f>
         <v>0.92216700978631672</v>
       </c>
-      <c r="O58">
-        <f t="shared" si="19"/>
+      <c r="O59">
+        <f>O13+O36</f>
         <v>0.88516142394924646</v>
       </c>
-      <c r="P58">
-        <f t="shared" si="19"/>
+      <c r="P59">
+        <f>P13+P36</f>
         <v>0.84994040342795318</v>
       </c>
-      <c r="Q58">
-        <f t="shared" si="19"/>
+      <c r="Q59">
+        <f>Q13+Q36</f>
         <v>0.81679307943117585</v>
       </c>
-      <c r="R58">
-        <f t="shared" si="19"/>
+      <c r="R59">
+        <f>R13+R36</f>
         <v>0.78592616810661764</v>
       </c>
-      <c r="S58">
-        <f t="shared" si="19"/>
+      <c r="S59">
+        <f>S13+S36</f>
         <v>0.75746510813245316</v>
       </c>
-      <c r="T58">
-        <f t="shared" si="19"/>
+      <c r="T59">
+        <f>T13+T36</f>
         <v>0.73146023311703323</v>
       </c>
-      <c r="U58">
-        <f t="shared" si="19"/>
+      <c r="U59">
+        <f>U13+U36</f>
         <v>0.70789649942164123</v>
       </c>
-      <c r="V58">
-        <f t="shared" si="19"/>
+      <c r="V59">
+        <f>V13+V36</f>
         <v>0.68670522435694803</v>
       </c>
     </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B59">
-        <f t="shared" ref="B59:V59" si="20">B14+B37</f>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>-0.4</v>
+      </c>
+      <c r="B60">
+        <f>B14+B37</f>
         <v>1.3617740285718618</v>
       </c>
-      <c r="C59">
-        <f t="shared" si="20"/>
+      <c r="C60">
+        <f>C14+C37</f>
         <v>1.3333129685976974</v>
       </c>
-      <c r="D59">
-        <f t="shared" si="20"/>
+      <c r="D60">
+        <f>D14+D37</f>
         <v>1.3024460572731393</v>
       </c>
-      <c r="E59">
-        <f t="shared" si="20"/>
+      <c r="E60">
+        <f>E14+E37</f>
         <v>1.2692987332763619</v>
       </c>
-      <c r="F59">
-        <f t="shared" si="20"/>
+      <c r="F60">
+        <f>F14+F37</f>
         <v>1.2340777127550686</v>
       </c>
-      <c r="G59">
-        <f t="shared" si="20"/>
+      <c r="G60">
+        <f>G14+G37</f>
         <v>1.1970721269179982</v>
       </c>
-      <c r="H59">
-        <f t="shared" si="20"/>
+      <c r="H60">
+        <f>H14+H37</f>
         <v>1.1586485042974988</v>
       </c>
-      <c r="I59">
-        <f t="shared" si="20"/>
+      <c r="I60">
+        <f>I14+I37</f>
         <v>1.1192391367043151</v>
       </c>
-      <c r="J59">
-        <f t="shared" si="20"/>
+      <c r="J60">
+        <f>J14+J37</f>
         <v>1.0793242521487494</v>
       </c>
-      <c r="K59">
-        <f t="shared" si="20"/>
+      <c r="K60">
+        <f>K14+K37</f>
         <v>1.0394093675931837</v>
       </c>
-      <c r="L59">
-        <f t="shared" si="20"/>
+      <c r="L60">
+        <f>L14+L37</f>
         <v>1</v>
       </c>
-      <c r="M59">
-        <f t="shared" si="20"/>
+      <c r="M60">
+        <f>M14+M37</f>
         <v>0.96157637737950041</v>
       </c>
-      <c r="N59">
-        <f t="shared" si="20"/>
+      <c r="N60">
+        <f>N14+N37</f>
         <v>0.92457079154243016</v>
       </c>
-      <c r="O59">
-        <f t="shared" si="20"/>
+      <c r="O60">
+        <f>O14+O37</f>
         <v>0.88934977102113688</v>
       </c>
-      <c r="P59">
-        <f t="shared" si="20"/>
+      <c r="P60">
+        <f>P14+P37</f>
         <v>0.85620244702435944</v>
       </c>
-      <c r="Q59">
-        <f t="shared" si="20"/>
+      <c r="Q60">
+        <f>Q14+Q37</f>
         <v>0.82533553569980134</v>
       </c>
-      <c r="R59">
-        <f t="shared" si="20"/>
+      <c r="R60">
+        <f>R14+R37</f>
         <v>0.79687447572563685</v>
       </c>
-      <c r="S59">
-        <f t="shared" si="20"/>
+      <c r="S60">
+        <f>S14+S37</f>
         <v>0.77086960071021693</v>
       </c>
-      <c r="T59">
-        <f t="shared" si="20"/>
+      <c r="T60">
+        <f>T14+T37</f>
         <v>0.74730586701482493</v>
       </c>
-      <c r="U59">
-        <f t="shared" si="20"/>
+      <c r="U60">
+        <f>U14+U37</f>
         <v>0.72611459195013173</v>
       </c>
-      <c r="V59">
-        <f t="shared" si="20"/>
+      <c r="V60">
+        <f>V14+V37</f>
         <v>0.70718581846783068</v>
       </c>
     </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B60">
-        <f t="shared" ref="B60:V60" si="21">B15+B38</f>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>-0.6</v>
+      </c>
+      <c r="B61">
+        <f>B15+B38</f>
         <v>1.3717365912181969</v>
       </c>
-      <c r="C60">
-        <f t="shared" si="21"/>
+      <c r="C61">
+        <f>C15+C38</f>
         <v>1.3408696798936388</v>
       </c>
-      <c r="D60">
-        <f t="shared" si="21"/>
+      <c r="D61">
+        <f>D15+D38</f>
         <v>1.3077223558968614</v>
       </c>
-      <c r="E60">
-        <f t="shared" si="21"/>
+      <c r="E61">
+        <f>E15+E38</f>
         <v>1.2725013353755683</v>
       </c>
-      <c r="F60">
-        <f t="shared" si="21"/>
+      <c r="F61">
+        <f>F15+F38</f>
         <v>1.2354957495384979</v>
       </c>
-      <c r="G60">
-        <f t="shared" si="21"/>
+      <c r="G61">
+        <f>G15+G38</f>
         <v>1.1970721269179985</v>
       </c>
-      <c r="H60">
-        <f t="shared" si="21"/>
+      <c r="H61">
+        <f>H15+H38</f>
         <v>1.1576627593248148</v>
       </c>
-      <c r="I60">
-        <f t="shared" si="21"/>
+      <c r="I61">
+        <f>I15+I38</f>
         <v>1.1177478747692491</v>
       </c>
-      <c r="J60">
-        <f t="shared" si="21"/>
+      <c r="J61">
+        <f>J15+J38</f>
         <v>1.0778329902136832</v>
       </c>
-      <c r="K60">
-        <f t="shared" si="21"/>
+      <c r="K61">
+        <f>K15+K38</f>
         <v>1.0384236226204995</v>
       </c>
-      <c r="L60">
-        <f t="shared" si="21"/>
+      <c r="L61">
+        <f>L15+L38</f>
         <v>1</v>
       </c>
-      <c r="M60">
-        <f t="shared" si="21"/>
+      <c r="M61">
+        <f>M15+M38</f>
         <v>0.96299441416292964</v>
       </c>
-      <c r="N60">
-        <f t="shared" si="21"/>
+      <c r="N61">
+        <f>N15+N38</f>
         <v>0.92777339364163658</v>
       </c>
-      <c r="O60">
-        <f t="shared" si="21"/>
+      <c r="O61">
+        <f>O15+O38</f>
         <v>0.89462606964485913</v>
       </c>
-      <c r="P60">
-        <f t="shared" si="21"/>
+      <c r="P61">
+        <f>P15+P38</f>
         <v>0.86375915832030092</v>
       </c>
-      <c r="Q60">
-        <f t="shared" si="21"/>
+      <c r="Q61">
+        <f>Q15+Q38</f>
         <v>0.83529809834613644</v>
       </c>
-      <c r="R60">
-        <f t="shared" si="21"/>
+      <c r="R61">
+        <f>R15+R38</f>
         <v>0.80929322333071652</v>
       </c>
-      <c r="S60">
-        <f t="shared" si="21"/>
+      <c r="S61">
+        <f>S15+S38</f>
         <v>0.78572948963532452</v>
       </c>
-      <c r="T60">
-        <f t="shared" si="21"/>
+      <c r="T61">
+        <f>T15+T38</f>
         <v>0.76453821457063131</v>
       </c>
-      <c r="U60">
-        <f t="shared" si="21"/>
+      <c r="U61">
+        <f>U15+U38</f>
         <v>0.74560944108833027</v>
       </c>
-      <c r="V60">
-        <f t="shared" si="21"/>
+      <c r="V61">
+        <f>V15+V38</f>
         <v>0.72880384148065658</v>
       </c>
     </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B61">
-        <f t="shared" ref="B61:V61" si="22">B16+B39</f>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>-0.8</v>
+      </c>
+      <c r="B62">
+        <f>B16+B39</f>
         <v>1.377875265730709</v>
       </c>
-      <c r="C61">
-        <f t="shared" si="22"/>
+      <c r="C62">
+        <f>C16+C39</f>
         <v>1.3447279417339317</v>
       </c>
-      <c r="D61">
-        <f t="shared" si="22"/>
+      <c r="D62">
+        <f>D16+D39</f>
         <v>1.3095069212126385</v>
       </c>
-      <c r="E61">
-        <f t="shared" si="22"/>
+      <c r="E62">
+        <f>E16+E39</f>
         <v>1.2725013353755683</v>
       </c>
-      <c r="F61">
-        <f t="shared" si="22"/>
+      <c r="F62">
+        <f>F16+F39</f>
         <v>1.2340777127550688</v>
       </c>
-      <c r="G61">
-        <f t="shared" si="22"/>
+      <c r="G62">
+        <f>G16+G39</f>
         <v>1.1946683451618849</v>
       </c>
-      <c r="H61">
-        <f t="shared" si="22"/>
+      <c r="H62">
+        <f>H16+H39</f>
         <v>1.1547534606063192</v>
       </c>
-      <c r="I61">
-        <f t="shared" si="22"/>
+      <c r="I62">
+        <f>I16+I39</f>
         <v>1.1148385760507535</v>
       </c>
-      <c r="J61">
-        <f t="shared" si="22"/>
+      <c r="J62">
+        <f>J16+J39</f>
         <v>1.0754292084575698</v>
       </c>
-      <c r="K61">
-        <f t="shared" si="22"/>
+      <c r="K62">
+        <f>K16+K39</f>
         <v>1.0370055858370701</v>
       </c>
-      <c r="L61">
-        <f t="shared" si="22"/>
+      <c r="L62">
+        <f>L16+L39</f>
         <v>1</v>
       </c>
-      <c r="M61">
-        <f t="shared" si="22"/>
+      <c r="M62">
+        <f>M16+M39</f>
         <v>0.96477897947870672</v>
       </c>
-      <c r="N61">
-        <f t="shared" si="22"/>
+      <c r="N62">
+        <f>N16+N39</f>
         <v>0.93163165548192928</v>
       </c>
-      <c r="O61">
-        <f t="shared" si="22"/>
+      <c r="O62">
+        <f>O16+O39</f>
         <v>0.90076474415737118</v>
       </c>
-      <c r="P61">
-        <f t="shared" si="22"/>
+      <c r="P62">
+        <f>P16+P39</f>
         <v>0.8723036841832067</v>
       </c>
-      <c r="Q61">
-        <f t="shared" si="22"/>
+      <c r="Q62">
+        <f>Q16+Q39</f>
         <v>0.84629880916778677</v>
       </c>
-      <c r="R61">
-        <f t="shared" si="22"/>
+      <c r="R62">
+        <f>R16+R39</f>
         <v>0.82273507547239477</v>
       </c>
-      <c r="S61">
-        <f t="shared" si="22"/>
+      <c r="S62">
+        <f>S16+S39</f>
         <v>0.80154380040770157</v>
       </c>
-      <c r="T61">
-        <f t="shared" si="22"/>
+      <c r="T62">
+        <f>T16+T39</f>
         <v>0.78261502692540053</v>
       </c>
-      <c r="U61">
-        <f t="shared" si="22"/>
+      <c r="U62">
+        <f>U16+U39</f>
         <v>0.76580942731772683</v>
       </c>
-      <c r="V61">
-        <f t="shared" si="22"/>
+      <c r="V62">
+        <f>V16+V39</f>
         <v>0.75096900231701214</v>
       </c>
     </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B62">
-        <f t="shared" ref="B62:V62" si="23">B17+B40</f>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B63">
+        <f>B17+B40</f>
         <v>1.379948962255225</v>
       </c>
-      <c r="C62">
-        <f t="shared" si="23"/>
+      <c r="C63">
+        <f>C17+C40</f>
         <v>1.3447279417339317</v>
       </c>
-      <c r="D62">
-        <f t="shared" si="23"/>
+      <c r="D63">
+        <f>D17+D40</f>
         <v>1.3077223558968614</v>
       </c>
-      <c r="E62">
-        <f t="shared" si="23"/>
+      <c r="E63">
+        <f>E17+E40</f>
         <v>1.2692987332763619</v>
       </c>
-      <c r="F62">
-        <f t="shared" si="23"/>
+      <c r="F63">
+        <f>F17+F40</f>
         <v>1.2298893656831782</v>
       </c>
-      <c r="G62">
-        <f t="shared" si="23"/>
+      <c r="G63">
+        <f>G17+G40</f>
         <v>1.1899744811276125</v>
       </c>
-      <c r="H62">
-        <f t="shared" si="23"/>
+      <c r="H63">
+        <f>H17+H40</f>
         <v>1.1500595965720468</v>
       </c>
-      <c r="I62">
-        <f t="shared" si="23"/>
+      <c r="I63">
+        <f>I17+I40</f>
         <v>1.1106502289788631</v>
       </c>
-      <c r="J62">
-        <f t="shared" si="23"/>
+      <c r="J63">
+        <f>J17+J40</f>
         <v>1.0722266063583636</v>
       </c>
-      <c r="K62">
-        <f t="shared" si="23"/>
+      <c r="K63">
+        <f>K17+K40</f>
         <v>1.0352210205212933</v>
       </c>
-      <c r="L62">
-        <f t="shared" si="23"/>
+      <c r="L63">
+        <f>L17+L40</f>
         <v>1</v>
       </c>
-      <c r="M62">
-        <f t="shared" si="23"/>
+      <c r="M63">
+        <f>M17+M40</f>
         <v>0.96685267600322267</v>
       </c>
-      <c r="N62">
-        <f t="shared" si="23"/>
+      <c r="N63">
+        <f>N17+N40</f>
         <v>0.93598576467866446</v>
       </c>
-      <c r="O62">
-        <f t="shared" si="23"/>
+      <c r="O63">
+        <f>O17+O40</f>
         <v>0.90752470470449997</v>
       </c>
-      <c r="P62">
-        <f t="shared" si="23"/>
+      <c r="P63">
+        <f>P17+P40</f>
         <v>0.88151982968908005</v>
       </c>
-      <c r="Q62">
-        <f t="shared" si="23"/>
+      <c r="Q63">
+        <f>Q17+Q40</f>
         <v>0.85795609599368805</v>
       </c>
-      <c r="R62">
-        <f t="shared" si="23"/>
+      <c r="R63">
+        <f>R17+R40</f>
         <v>0.83676482092899485</v>
       </c>
-      <c r="S62">
-        <f t="shared" si="23"/>
+      <c r="S63">
+        <f>S17+S40</f>
         <v>0.8178360474466938</v>
       </c>
-      <c r="T62">
-        <f t="shared" si="23"/>
+      <c r="T63">
+        <f>T17+T40</f>
         <v>0.80103044783902011</v>
       </c>
-      <c r="U62">
-        <f t="shared" si="23"/>
+      <c r="U63">
+        <f>U17+U40</f>
         <v>0.78619002283830541</v>
       </c>
-      <c r="V62">
-        <f t="shared" si="23"/>
+      <c r="V63">
+        <f>V17+V40</f>
         <v>0.77314717762153484</v>
       </c>
     </row>
-    <row r="63" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B63">
-        <f t="shared" ref="B63:V63" si="24">B18+B41</f>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>-1.2</v>
+      </c>
+      <c r="B64">
+        <f>B18+B41</f>
         <v>1.377875265730709</v>
       </c>
-      <c r="C63">
-        <f t="shared" si="24"/>
+      <c r="C64">
+        <f>C18+C41</f>
         <v>1.3408696798936388</v>
       </c>
-      <c r="D63">
-        <f t="shared" si="24"/>
+      <c r="D64">
+        <f>D18+D41</f>
         <v>1.3024460572731393</v>
       </c>
-      <c r="E63">
-        <f t="shared" si="24"/>
+      <c r="E64">
+        <f>E18+E41</f>
         <v>1.2630366896799554</v>
       </c>
-      <c r="F63">
-        <f t="shared" si="24"/>
+      <c r="F64">
+        <f>F18+F41</f>
         <v>1.2231218051243897</v>
       </c>
-      <c r="G63">
-        <f t="shared" si="24"/>
+      <c r="G64">
+        <f>G18+G41</f>
         <v>1.183206920568824</v>
       </c>
-      <c r="H63">
-        <f t="shared" si="24"/>
+      <c r="H64">
+        <f>H18+H41</f>
         <v>1.1437975529756403</v>
       </c>
-      <c r="I63">
-        <f t="shared" si="24"/>
+      <c r="I64">
+        <f>I18+I41</f>
         <v>1.1053739303551409</v>
       </c>
-      <c r="J63">
-        <f t="shared" si="24"/>
+      <c r="J64">
+        <f>J18+J41</f>
         <v>1.0683683445180705</v>
       </c>
-      <c r="K63">
-        <f t="shared" si="24"/>
+      <c r="K64">
+        <f>K18+K41</f>
         <v>1.0331473239967774</v>
       </c>
-      <c r="L63">
-        <f t="shared" si="24"/>
+      <c r="L64">
+        <f>L18+L41</f>
         <v>1</v>
       </c>
-      <c r="M63">
-        <f t="shared" si="24"/>
+      <c r="M64">
+        <f>M18+M41</f>
         <v>0.96913308867544179</v>
       </c>
-      <c r="N63">
-        <f t="shared" si="24"/>
+      <c r="N64">
+        <f>N18+N41</f>
         <v>0.94067202870127731</v>
       </c>
-      <c r="O63">
-        <f t="shared" si="24"/>
+      <c r="O64">
+        <f>O18+O41</f>
         <v>0.91466715368585738</v>
       </c>
-      <c r="P63">
-        <f t="shared" si="24"/>
+      <c r="P64">
+        <f>P18+P41</f>
         <v>0.89110341999046538</v>
       </c>
-      <c r="Q63">
-        <f t="shared" si="24"/>
+      <c r="Q64">
+        <f>Q18+Q41</f>
         <v>0.86991214492577218</v>
       </c>
-      <c r="R63">
-        <f t="shared" si="24"/>
+      <c r="R64">
+        <f>R18+R41</f>
         <v>0.85098337144347114</v>
       </c>
-      <c r="S63">
-        <f t="shared" si="24"/>
+      <c r="S64">
+        <f>S18+S41</f>
         <v>0.83417777183579744</v>
       </c>
-      <c r="T63">
-        <f t="shared" si="24"/>
+      <c r="T64">
+        <f>T18+T41</f>
         <v>0.81933734683508275</v>
       </c>
-      <c r="U63">
-        <f t="shared" si="24"/>
+      <c r="U64">
+        <f>U18+U41</f>
         <v>0.80629450161831218</v>
       </c>
-      <c r="V63">
-        <f t="shared" si="24"/>
+      <c r="V64">
+        <f>V18+V41</f>
         <v>0.79487934738814114</v>
       </c>
     </row>
-    <row r="64" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B64">
-        <f t="shared" ref="B64:V64" si="25">B19+B42</f>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>-1.4</v>
+      </c>
+      <c r="B65">
+        <f>B19+B42</f>
         <v>1.3717365912181969</v>
       </c>
-      <c r="C64">
-        <f t="shared" si="25"/>
+      <c r="C65">
+        <f>C19+C42</f>
         <v>1.3333129685976974</v>
       </c>
-      <c r="D64">
-        <f t="shared" si="25"/>
+      <c r="D65">
+        <f>D19+D42</f>
         <v>1.2939036010045137</v>
       </c>
-      <c r="E64">
-        <f t="shared" si="25"/>
+      <c r="E65">
+        <f>E19+E42</f>
         <v>1.253988716448948</v>
       </c>
-      <c r="F64">
-        <f t="shared" si="25"/>
+      <c r="F65">
+        <f>F19+F42</f>
         <v>1.2140738318933824</v>
       </c>
-      <c r="G64">
-        <f t="shared" si="25"/>
+      <c r="G65">
+        <f>G19+G42</f>
         <v>1.1746644643001987</v>
       </c>
-      <c r="H64">
-        <f t="shared" si="25"/>
+      <c r="H65">
+        <f>H19+H42</f>
         <v>1.1362408416796992</v>
       </c>
-      <c r="I64">
-        <f t="shared" si="25"/>
+      <c r="I65">
+        <f>I19+I42</f>
         <v>1.0992352558426288</v>
       </c>
-      <c r="J64">
-        <f t="shared" si="25"/>
+      <c r="J65">
+        <f>J19+J42</f>
         <v>1.0640142353213355</v>
       </c>
-      <c r="K64">
-        <f t="shared" si="25"/>
+      <c r="K65">
+        <f>K19+K42</f>
         <v>1.0308669113245581</v>
       </c>
-      <c r="L64">
-        <f t="shared" si="25"/>
+      <c r="L65">
+        <f>L19+L42</f>
         <v>1</v>
       </c>
-      <c r="M64">
-        <f t="shared" si="25"/>
+      <c r="M65">
+        <f>M19+M42</f>
         <v>0.97153894002583552</v>
       </c>
-      <c r="N64">
-        <f t="shared" si="25"/>
+      <c r="N65">
+        <f>N19+N42</f>
         <v>0.94553406501041559</v>
       </c>
-      <c r="O64">
-        <f t="shared" si="25"/>
+      <c r="O65">
+        <f>O19+O42</f>
         <v>0.92197033131502359</v>
       </c>
-      <c r="P64">
-        <f t="shared" si="25"/>
+      <c r="P65">
+        <f>P19+P42</f>
         <v>0.90077905625033039</v>
       </c>
-      <c r="Q64">
-        <f t="shared" si="25"/>
+      <c r="Q65">
+        <f>Q19+Q42</f>
         <v>0.88185028276802935</v>
       </c>
-      <c r="R64">
-        <f t="shared" si="25"/>
+      <c r="R65">
+        <f>R19+R42</f>
         <v>0.86504468316035565</v>
       </c>
-      <c r="S64">
-        <f t="shared" si="25"/>
+      <c r="S65">
+        <f>S19+S42</f>
         <v>0.85020425815964096</v>
       </c>
-      <c r="T64">
-        <f t="shared" si="25"/>
+      <c r="T65">
+        <f>T19+T42</f>
         <v>0.83716141294287039</v>
       </c>
-      <c r="U64">
-        <f t="shared" si="25"/>
+      <c r="U65">
+        <f>U19+U42</f>
         <v>0.82574625871269935</v>
       </c>
-      <c r="V64">
-        <f t="shared" si="25"/>
+      <c r="V65">
+        <f>V19+V42</f>
         <v>0.81579218271253662</v>
       </c>
     </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B65">
-        <f t="shared" ref="B65:V65" si="26">B20+B43</f>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>-1.6</v>
+      </c>
+      <c r="B66">
+        <f>B20+B43</f>
         <v>1.361774028571862</v>
       </c>
-      <c r="C65">
-        <f t="shared" si="26"/>
+      <c r="C66">
+        <f>C20+C43</f>
         <v>1.3223646609786783</v>
       </c>
-      <c r="D65">
-        <f t="shared" si="26"/>
+      <c r="D66">
+        <f>D20+D43</f>
         <v>1.2824497764231126</v>
       </c>
-      <c r="E65">
-        <f t="shared" si="26"/>
+      <c r="E66">
+        <f>E20+E43</f>
         <v>1.2425348918675467</v>
       </c>
-      <c r="F65">
-        <f t="shared" si="26"/>
+      <c r="F66">
+        <f>F20+F43</f>
         <v>1.203125524274363</v>
       </c>
-      <c r="G65">
-        <f t="shared" si="26"/>
+      <c r="G66">
+        <f>G20+G43</f>
         <v>1.1647019016538636</v>
       </c>
-      <c r="H65">
-        <f t="shared" si="26"/>
+      <c r="H66">
+        <f>H20+H43</f>
         <v>1.1276963158167932</v>
       </c>
-      <c r="I65">
-        <f t="shared" si="26"/>
+      <c r="I66">
+        <f>I20+I43</f>
         <v>1.0924752952955001</v>
       </c>
-      <c r="J65">
-        <f t="shared" si="26"/>
+      <c r="J66">
+        <f>J20+J43</f>
         <v>1.0593279712987227</v>
       </c>
-      <c r="K65">
-        <f t="shared" si="26"/>
+      <c r="K66">
+        <f>K20+K43</f>
         <v>1.0284610599741644</v>
       </c>
-      <c r="L65">
-        <f t="shared" si="26"/>
+      <c r="L66">
+        <f>L20+L43</f>
         <v>1</v>
       </c>
-      <c r="M65">
-        <f t="shared" si="26"/>
+      <c r="M66">
+        <f>M20+M43</f>
         <v>0.97399512498457996</v>
       </c>
-      <c r="N65">
-        <f t="shared" si="26"/>
+      <c r="N66">
+        <f>N20+N43</f>
         <v>0.95043139128918808</v>
       </c>
-      <c r="O65">
-        <f t="shared" si="26"/>
+      <c r="O66">
+        <f>O20+O43</f>
         <v>0.92924011622449487</v>
       </c>
-      <c r="P65">
-        <f t="shared" si="26"/>
+      <c r="P66">
+        <f>P20+P43</f>
         <v>0.91031134274219383</v>
       </c>
-      <c r="Q65">
-        <f t="shared" si="26"/>
+      <c r="Q66">
+        <f>Q20+Q43</f>
         <v>0.89350574313452014</v>
       </c>
-      <c r="R65">
-        <f t="shared" si="26"/>
+      <c r="R66">
+        <f>R20+R43</f>
         <v>0.87866531813380544</v>
       </c>
-      <c r="S65">
-        <f t="shared" si="26"/>
+      <c r="S66">
+        <f>S20+S43</f>
         <v>0.86562247291703487</v>
       </c>
-      <c r="T65">
-        <f t="shared" si="26"/>
+      <c r="T66">
+        <f>T20+T43</f>
         <v>0.85420731868686384</v>
       </c>
-      <c r="U65">
-        <f t="shared" si="26"/>
+      <c r="U66">
+        <f>U20+U43</f>
         <v>0.8442532426867011</v>
       </c>
-      <c r="V65">
-        <f t="shared" si="26"/>
+      <c r="V66">
+        <f>V20+V43</f>
         <v>0.83560091282117621</v>
       </c>
     </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B66">
-        <f t="shared" ref="B66:V66" si="27">B21+B44</f>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>-1.8</v>
+      </c>
+      <c r="B67">
+        <f>B21+B44</f>
         <v>1.3483695359940981</v>
       </c>
-      <c r="C66">
-        <f t="shared" si="27"/>
+      <c r="C67">
+        <f>C21+C44</f>
         <v>1.3084546514385325</v>
       </c>
-      <c r="D66">
-        <f t="shared" si="27"/>
+      <c r="D67">
+        <f>D21+D44</f>
         <v>1.2685397668829668</v>
       </c>
-      <c r="E66">
-        <f t="shared" si="27"/>
+      <c r="E67">
+        <f>E21+E44</f>
         <v>1.2291303992897831</v>
       </c>
-      <c r="F66">
-        <f t="shared" si="27"/>
+      <c r="F67">
+        <f>F21+F44</f>
         <v>1.1907067766692836</v>
       </c>
-      <c r="G66">
-        <f t="shared" si="27"/>
+      <c r="G67">
+        <f>G21+G44</f>
         <v>1.1537011908322132</v>
       </c>
-      <c r="H66">
-        <f t="shared" si="27"/>
+      <c r="H67">
+        <f>H21+H44</f>
         <v>1.11848017031092</v>
       </c>
-      <c r="I66">
-        <f t="shared" si="27"/>
+      <c r="I67">
+        <f>I21+I44</f>
         <v>1.0853328463141425</v>
       </c>
-      <c r="J66">
-        <f t="shared" si="27"/>
+      <c r="J67">
+        <f>J21+J44</f>
         <v>1.0544659349895844</v>
       </c>
-      <c r="K66">
-        <f t="shared" si="27"/>
+      <c r="K67">
+        <f>K21+K44</f>
         <v>1.0260048750154198</v>
       </c>
-      <c r="L66">
-        <f t="shared" si="27"/>
+      <c r="L67">
+        <f>L21+L44</f>
         <v>1</v>
       </c>
-      <c r="M66">
-        <f t="shared" si="27"/>
+      <c r="M67">
+        <f>M21+M44</f>
         <v>0.976436266304608</v>
       </c>
-      <c r="N66">
-        <f t="shared" si="27"/>
+      <c r="N67">
+        <f>N21+N44</f>
         <v>0.9552449912399148</v>
       </c>
-      <c r="O66">
-        <f t="shared" si="27"/>
+      <c r="O67">
+        <f>O21+O44</f>
         <v>0.93631621775761376</v>
       </c>
-      <c r="P66">
-        <f t="shared" si="27"/>
+      <c r="P67">
+        <f>P21+P44</f>
         <v>0.91951061814994006</v>
       </c>
-      <c r="Q66">
-        <f t="shared" si="27"/>
+      <c r="Q67">
+        <f>Q21+Q44</f>
         <v>0.90467019314922537</v>
       </c>
-      <c r="R66">
-        <f t="shared" si="27"/>
+      <c r="R67">
+        <f>R21+R44</f>
         <v>0.89162734793245479</v>
       </c>
-      <c r="S66">
-        <f t="shared" si="27"/>
+      <c r="S67">
+        <f>S21+S44</f>
         <v>0.88021219370228376</v>
       </c>
-      <c r="T66">
-        <f t="shared" si="27"/>
+      <c r="T67">
+        <f>T21+T44</f>
         <v>0.87025811770212103</v>
       </c>
-      <c r="U66">
-        <f t="shared" si="27"/>
+      <c r="U67">
+        <f>U21+U44</f>
         <v>0.86160578783659614</v>
       </c>
-      <c r="V66">
-        <f t="shared" si="27"/>
+      <c r="V67">
+        <f>V21+V44</f>
         <v>0.85410582222297615</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B67">
-        <f t="shared" ref="B67:V67" si="28">B22+B45</f>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>-2</v>
+      </c>
+      <c r="B68">
+        <f>B22+B45</f>
         <v>1.3320183851339245</v>
       </c>
-      <c r="C67">
-        <f t="shared" si="28"/>
+      <c r="C68">
+        <f>C22+C45</f>
         <v>1.2921035005783588</v>
       </c>
-      <c r="D67">
-        <f t="shared" si="28"/>
+      <c r="D68">
+        <f>D22+D45</f>
         <v>1.2526941329851751</v>
       </c>
-      <c r="E67">
-        <f t="shared" si="28"/>
+      <c r="E68">
+        <f>E22+E45</f>
         <v>1.2142705103646754</v>
       </c>
-      <c r="F67">
-        <f t="shared" si="28"/>
+      <c r="F68">
+        <f>F22+F45</f>
         <v>1.1772649245276052</v>
       </c>
-      <c r="G67">
-        <f t="shared" si="28"/>
+      <c r="G68">
+        <f>G22+G45</f>
         <v>1.1420439040063119</v>
       </c>
-      <c r="H67">
-        <f t="shared" si="28"/>
+      <c r="H68">
+        <f>H22+H45</f>
         <v>1.1088965800095347</v>
       </c>
-      <c r="I67">
-        <f t="shared" si="28"/>
+      <c r="I68">
+        <f>I22+I45</f>
         <v>1.0780296686849764</v>
       </c>
-      <c r="J67">
-        <f t="shared" si="28"/>
+      <c r="J68">
+        <f>J22+J45</f>
         <v>1.0495686087108118</v>
       </c>
-      <c r="K67">
-        <f t="shared" si="28"/>
+      <c r="K68">
+        <f>K22+K45</f>
         <v>1.023563733695392</v>
       </c>
-      <c r="L67">
-        <f t="shared" si="28"/>
+      <c r="L68">
+        <f>L22+L45</f>
         <v>1</v>
       </c>
-      <c r="M67">
-        <f t="shared" si="28"/>
+      <c r="M68">
+        <f>M22+M45</f>
         <v>0.9788087249353068</v>
       </c>
-      <c r="N67">
-        <f t="shared" si="28"/>
+      <c r="N68">
+        <f>N22+N45</f>
         <v>0.95987995145300575</v>
       </c>
-      <c r="O67">
-        <f t="shared" si="28"/>
+      <c r="O68">
+        <f>O22+O45</f>
         <v>0.94307435184533206</v>
       </c>
-      <c r="P67">
-        <f t="shared" si="28"/>
+      <c r="P68">
+        <f>P22+P45</f>
         <v>0.92823392684461736</v>
       </c>
-      <c r="Q67">
-        <f t="shared" si="28"/>
+      <c r="Q68">
+        <f>Q22+Q45</f>
         <v>0.91519108162784679</v>
       </c>
-      <c r="R67">
-        <f t="shared" si="28"/>
+      <c r="R68">
+        <f>R22+R45</f>
         <v>0.90377592739767576</v>
       </c>
-      <c r="S67">
-        <f t="shared" si="28"/>
+      <c r="S68">
+        <f>S22+S45</f>
         <v>0.89382185139751302</v>
       </c>
-      <c r="T67">
-        <f t="shared" si="28"/>
+      <c r="T68">
+        <f>T22+T45</f>
         <v>0.88516952153198813</v>
       </c>
-      <c r="U67">
-        <f t="shared" si="28"/>
+      <c r="U68">
+        <f>U22+U45</f>
         <v>0.87766955591836815</v>
       </c>
-      <c r="V67">
-        <f t="shared" si="28"/>
+      <c r="V68">
+        <f>V22+V45</f>
         <v>0.87118410793068879</v>
       </c>
     </row>

--- a/Лист Microsoft Excel.xlsx
+++ b/Лист Microsoft Excel.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Program\Neuronets\Neuronets-v2-6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\JavaScript\Neuronets\Neuronets-v2-6\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC4D6F8-7A37-4DAD-9273-46BEE2308E0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="1350" windowWidth="23445" windowHeight="14400"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -449,11 +450,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+      <selection activeCell="M73" sqref="M73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4526,87 +4527,87 @@
         <v>2</v>
       </c>
       <c r="B48">
-        <f>B2+B25</f>
+        <f t="shared" ref="B48:V48" si="8">B2+B25</f>
         <v>1.1288158920693112</v>
       </c>
       <c r="C48">
-        <f>C2+C25</f>
+        <f t="shared" si="8"/>
         <v>1.1223304440816317</v>
       </c>
       <c r="D48">
-        <f>D2+D25</f>
+        <f t="shared" si="8"/>
         <v>1.1148304784680119</v>
       </c>
       <c r="E48">
-        <f>E2+E25</f>
+        <f t="shared" si="8"/>
         <v>1.1061781486024871</v>
       </c>
       <c r="F48">
-        <f>F2+F25</f>
+        <f t="shared" si="8"/>
         <v>1.096224072602324</v>
       </c>
       <c r="G48">
-        <f>G2+G25</f>
+        <f t="shared" si="8"/>
         <v>1.0848089183721532</v>
       </c>
       <c r="H48">
-        <f>H2+H25</f>
+        <f t="shared" si="8"/>
         <v>1.0717660731553829</v>
       </c>
       <c r="I48">
-        <f>I2+I25</f>
+        <f t="shared" si="8"/>
         <v>1.0569256481546678</v>
       </c>
       <c r="J48">
-        <f>J2+J25</f>
+        <f t="shared" si="8"/>
         <v>1.0401200485469944</v>
       </c>
       <c r="K48">
-        <f>K2+K25</f>
+        <f t="shared" si="8"/>
         <v>1.0211912750646932</v>
       </c>
       <c r="L48">
-        <f>L2+L25</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M48">
-        <f>M2+M25</f>
+        <f t="shared" si="8"/>
         <v>0.97643626630460811</v>
       </c>
       <c r="N48">
-        <f>N2+N25</f>
+        <f t="shared" si="8"/>
         <v>0.95043139128918797</v>
       </c>
       <c r="O48">
-        <f>O2+O25</f>
+        <f t="shared" si="8"/>
         <v>0.92197033131502359</v>
       </c>
       <c r="P48">
-        <f>P2+P25</f>
+        <f t="shared" si="8"/>
         <v>0.89110341999046538</v>
       </c>
       <c r="Q48">
-        <f>Q2+Q25</f>
+        <f t="shared" si="8"/>
         <v>0.85795609599368805</v>
       </c>
       <c r="R48">
-        <f>R2+R25</f>
+        <f t="shared" si="8"/>
         <v>0.82273507547239477</v>
       </c>
       <c r="S48">
-        <f>S2+S25</f>
+        <f t="shared" si="8"/>
         <v>0.78572948963532452</v>
       </c>
       <c r="T48">
-        <f>T2+T25</f>
+        <f t="shared" si="8"/>
         <v>0.74730586701482504</v>
       </c>
       <c r="U48">
-        <f>U2+U25</f>
+        <f t="shared" si="8"/>
         <v>0.70789649942164123</v>
       </c>
       <c r="V48">
-        <f>V2+V25</f>
+        <f t="shared" si="8"/>
         <v>0.66798161486607555</v>
       </c>
     </row>
@@ -4615,87 +4616,87 @@
         <v>1.8</v>
       </c>
       <c r="B49">
-        <f>B3+B26</f>
+        <f t="shared" ref="B49:V49" si="9">B3+B26</f>
         <v>1.1458941777770235</v>
       </c>
       <c r="C49">
-        <f>C3+C26</f>
+        <f t="shared" si="9"/>
         <v>1.1383942121634036</v>
       </c>
       <c r="D49">
-        <f>D3+D26</f>
+        <f t="shared" si="9"/>
         <v>1.1297418822978789</v>
       </c>
       <c r="E49">
-        <f>E3+E26</f>
+        <f t="shared" si="9"/>
         <v>1.119787806297716</v>
       </c>
       <c r="F49">
-        <f>F3+F26</f>
+        <f t="shared" si="9"/>
         <v>1.108372652067545</v>
       </c>
       <c r="G49">
-        <f>G3+G26</f>
+        <f t="shared" si="9"/>
         <v>1.0953298068507746</v>
       </c>
       <c r="H49">
-        <f>H3+H26</f>
+        <f t="shared" si="9"/>
         <v>1.0804893818500598</v>
       </c>
       <c r="I49">
-        <f>I3+I26</f>
+        <f t="shared" si="9"/>
         <v>1.0636837822423861</v>
       </c>
       <c r="J49">
-        <f>J3+J26</f>
+        <f t="shared" si="9"/>
         <v>1.044755008760085</v>
       </c>
       <c r="K49">
-        <f>K3+K26</f>
+        <f t="shared" si="9"/>
         <v>1.0235637336953918</v>
       </c>
       <c r="L49">
-        <f>L3+L26</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="M49">
-        <f>M3+M26</f>
+        <f t="shared" si="9"/>
         <v>0.97399512498457985</v>
       </c>
       <c r="N49">
-        <f>N3+N26</f>
+        <f t="shared" si="9"/>
         <v>0.94553406501041548</v>
       </c>
       <c r="O49">
-        <f>O3+O26</f>
+        <f t="shared" si="9"/>
         <v>0.91466715368585727</v>
       </c>
       <c r="P49">
-        <f>P3+P26</f>
+        <f t="shared" si="9"/>
         <v>0.88151982968907994</v>
       </c>
       <c r="Q49">
-        <f>Q3+Q26</f>
+        <f t="shared" si="9"/>
         <v>0.84629880916778666</v>
       </c>
       <c r="R49">
-        <f>R3+R26</f>
+        <f t="shared" si="9"/>
         <v>0.8092932233307164</v>
       </c>
       <c r="S49">
-        <f>S3+S26</f>
+        <f t="shared" si="9"/>
         <v>0.77086960071021693</v>
       </c>
       <c r="T49">
-        <f>T3+T26</f>
+        <f t="shared" si="9"/>
         <v>0.73146023311703312</v>
       </c>
       <c r="U49">
-        <f>U3+U26</f>
+        <f t="shared" si="9"/>
         <v>0.69154534856146743</v>
       </c>
       <c r="V49">
-        <f>V3+V26</f>
+        <f t="shared" si="9"/>
         <v>0.65163046400590163</v>
       </c>
     </row>
@@ -4704,87 +4705,87 @@
         <v>1.6</v>
       </c>
       <c r="B50">
-        <f>B4+B27</f>
+        <f t="shared" ref="B50:V50" si="10">B4+B27</f>
         <v>1.1643990871788237</v>
       </c>
       <c r="C50">
-        <f>C4+C27</f>
+        <f t="shared" si="10"/>
         <v>1.1557467573132989</v>
       </c>
       <c r="D50">
-        <f>D4+D27</f>
+        <f t="shared" si="10"/>
         <v>1.1457926813131363</v>
       </c>
       <c r="E50">
-        <f>E4+E27</f>
+        <f t="shared" si="10"/>
         <v>1.1343775270829652</v>
       </c>
       <c r="F50">
-        <f>F4+F27</f>
+        <f t="shared" si="10"/>
         <v>1.1213346818661947</v>
       </c>
       <c r="G50">
-        <f>G4+G27</f>
+        <f t="shared" si="10"/>
         <v>1.1064942568654801</v>
       </c>
       <c r="H50">
-        <f>H4+H27</f>
+        <f t="shared" si="10"/>
         <v>1.0896886572578062</v>
       </c>
       <c r="I50">
-        <f>I4+I27</f>
+        <f t="shared" si="10"/>
         <v>1.0707598837755052</v>
       </c>
       <c r="J50">
-        <f>J4+J27</f>
+        <f t="shared" si="10"/>
         <v>1.049568608710812</v>
       </c>
       <c r="K50">
-        <f>K4+K27</f>
+        <f t="shared" si="10"/>
         <v>1.02600487501542</v>
       </c>
       <c r="L50">
-        <f>L4+L27</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="M50">
-        <f>M4+M27</f>
+        <f t="shared" si="10"/>
         <v>0.97153894002583574</v>
       </c>
       <c r="N50">
-        <f>N4+N27</f>
+        <f t="shared" si="10"/>
         <v>0.94067202870127742</v>
       </c>
       <c r="O50">
-        <f>O4+O27</f>
+        <f t="shared" si="10"/>
         <v>0.90752470470450008</v>
       </c>
       <c r="P50">
-        <f>P4+P27</f>
+        <f t="shared" si="10"/>
         <v>0.87230368418320681</v>
       </c>
       <c r="Q50">
-        <f>Q4+Q27</f>
+        <f t="shared" si="10"/>
         <v>0.83529809834613655</v>
       </c>
       <c r="R50">
-        <f>R4+R27</f>
+        <f t="shared" si="10"/>
         <v>0.79687447572563708</v>
       </c>
       <c r="S50">
-        <f>S4+S27</f>
+        <f t="shared" si="10"/>
         <v>0.75746510813245327</v>
       </c>
       <c r="T50">
-        <f>T4+T27</f>
+        <f t="shared" si="10"/>
         <v>0.71755022357688758</v>
       </c>
       <c r="U50">
-        <f>U4+U27</f>
+        <f t="shared" si="10"/>
         <v>0.67763533902132189</v>
       </c>
       <c r="V50">
-        <f>V4+V27</f>
+        <f t="shared" si="10"/>
         <v>0.63822597142813819</v>
       </c>
       <c r="W50">
@@ -4796,87 +4797,87 @@
         <v>1.4</v>
       </c>
       <c r="B51">
-        <f>B5+B28</f>
+        <f t="shared" ref="B51:V51" si="11">B5+B28</f>
         <v>1.1842078172874633</v>
       </c>
       <c r="C51">
-        <f>C5+C28</f>
+        <f t="shared" si="11"/>
         <v>1.1742537412873006</v>
       </c>
       <c r="D51">
-        <f>D5+D28</f>
+        <f t="shared" si="11"/>
         <v>1.1628385870571296</v>
       </c>
       <c r="E51">
-        <f>E5+E28</f>
+        <f t="shared" si="11"/>
         <v>1.149795741840359</v>
       </c>
       <c r="F51">
-        <f>F5+F28</f>
+        <f t="shared" si="11"/>
         <v>1.1349553168396445</v>
       </c>
       <c r="G51">
-        <f>G5+G28</f>
+        <f t="shared" si="11"/>
         <v>1.1181497172319705</v>
       </c>
       <c r="H51">
-        <f>H5+H28</f>
+        <f t="shared" si="11"/>
         <v>1.0992209437496696</v>
       </c>
       <c r="I51">
-        <f>I5+I28</f>
+        <f t="shared" si="11"/>
         <v>1.0780296686849764</v>
       </c>
       <c r="J51">
-        <f>J5+J28</f>
+        <f t="shared" si="11"/>
         <v>1.0544659349895844</v>
       </c>
       <c r="K51">
-        <f>K5+K28</f>
+        <f t="shared" si="11"/>
         <v>1.0284610599741644</v>
       </c>
       <c r="L51">
-        <f>L5+L28</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="M51">
-        <f>M5+M28</f>
+        <f t="shared" si="11"/>
         <v>0.96913308867544179</v>
       </c>
       <c r="N51">
-        <f>N5+N28</f>
+        <f t="shared" si="11"/>
         <v>0.93598576467866446</v>
       </c>
       <c r="O51">
-        <f>O5+O28</f>
+        <f t="shared" si="11"/>
         <v>0.90076474415737118</v>
       </c>
       <c r="P51">
-        <f>P5+P28</f>
+        <f t="shared" si="11"/>
         <v>0.86375915832030092</v>
       </c>
       <c r="Q51">
-        <f>Q5+Q28</f>
+        <f t="shared" si="11"/>
         <v>0.82533553569980145</v>
       </c>
       <c r="R51">
-        <f>R5+R28</f>
+        <f t="shared" si="11"/>
         <v>0.78592616810661764</v>
       </c>
       <c r="S51">
-        <f>S5+S28</f>
+        <f t="shared" si="11"/>
         <v>0.74601128355105195</v>
       </c>
       <c r="T51">
-        <f>T5+T28</f>
+        <f t="shared" si="11"/>
         <v>0.70609639899548626</v>
       </c>
       <c r="U51">
-        <f>U5+U28</f>
+        <f t="shared" si="11"/>
         <v>0.66668703140230257</v>
       </c>
       <c r="V51">
-        <f>V5+V28</f>
+        <f t="shared" si="11"/>
         <v>0.62826340878180298</v>
       </c>
     </row>
@@ -4885,87 +4886,87 @@
         <v>1.2</v>
       </c>
       <c r="B52">
-        <f>B6+B29</f>
+        <f t="shared" ref="B52:V52" si="12">B6+B29</f>
         <v>1.2051206526118587</v>
       </c>
       <c r="C52">
-        <f>C6+C29</f>
+        <f t="shared" si="12"/>
         <v>1.1937054983816879</v>
       </c>
       <c r="D52">
-        <f>D6+D29</f>
+        <f t="shared" si="12"/>
         <v>1.1806626531649174</v>
       </c>
       <c r="E52">
-        <f>E6+E29</f>
+        <f t="shared" si="12"/>
         <v>1.1658222281642026</v>
       </c>
       <c r="F52">
-        <f>F6+F29</f>
+        <f t="shared" si="12"/>
         <v>1.1490166285565289</v>
       </c>
       <c r="G52">
-        <f>G6+G29</f>
+        <f t="shared" si="12"/>
         <v>1.1300878550742279</v>
       </c>
       <c r="H52">
-        <f>H6+H29</f>
+        <f t="shared" si="12"/>
         <v>1.1088965800095347</v>
       </c>
       <c r="I52">
-        <f>I6+I29</f>
+        <f t="shared" si="12"/>
         <v>1.0853328463141427</v>
       </c>
       <c r="J52">
-        <f>J6+J29</f>
+        <f t="shared" si="12"/>
         <v>1.0593279712987225</v>
       </c>
       <c r="K52">
-        <f>K6+K29</f>
+        <f t="shared" si="12"/>
         <v>1.0308669113245581</v>
       </c>
       <c r="L52">
-        <f>L6+L29</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="M52">
-        <f>M6+M29</f>
+        <f t="shared" si="12"/>
         <v>0.96685267600322267</v>
       </c>
       <c r="N52">
-        <f>N6+N29</f>
+        <f t="shared" si="12"/>
         <v>0.93163165548192939</v>
       </c>
       <c r="O52">
-        <f>O6+O29</f>
+        <f t="shared" si="12"/>
         <v>0.89462606964485913</v>
       </c>
       <c r="P52">
-        <f>P6+P29</f>
+        <f t="shared" si="12"/>
         <v>0.85620244702435966</v>
       </c>
       <c r="Q52">
-        <f>Q6+Q29</f>
+        <f t="shared" si="12"/>
         <v>0.81679307943117585</v>
       </c>
       <c r="R52">
-        <f>R6+R29</f>
+        <f t="shared" si="12"/>
         <v>0.77687819487561016</v>
       </c>
       <c r="S52">
-        <f>S6+S29</f>
+        <f t="shared" si="12"/>
         <v>0.73696331032004436</v>
       </c>
       <c r="T52">
-        <f>T6+T29</f>
+        <f t="shared" si="12"/>
         <v>0.69755394272686067</v>
       </c>
       <c r="U52">
-        <f>U6+U29</f>
+        <f t="shared" si="12"/>
         <v>0.65913032010636119</v>
       </c>
       <c r="V52">
-        <f>V6+V29</f>
+        <f t="shared" si="12"/>
         <v>0.62212473426929082</v>
       </c>
     </row>
@@ -4974,87 +4975,87 @@
         <v>1</v>
       </c>
       <c r="B53">
-        <f>B7+B30</f>
+        <f t="shared" ref="B53:V53" si="13">B7+B30</f>
         <v>1.2268528223784652</v>
       </c>
       <c r="C53">
-        <f>C7+C30</f>
+        <f t="shared" si="13"/>
         <v>1.2138099771616946</v>
       </c>
       <c r="D53">
-        <f>D7+D30</f>
+        <f t="shared" si="13"/>
         <v>1.19896955216098</v>
       </c>
       <c r="E53">
-        <f>E7+E30</f>
+        <f t="shared" si="13"/>
         <v>1.1821639525533061</v>
       </c>
       <c r="F53">
-        <f>F7+F30</f>
+        <f t="shared" si="13"/>
         <v>1.1632351790710052</v>
       </c>
       <c r="G53">
-        <f>G7+G30</f>
+        <f t="shared" si="13"/>
         <v>1.1420439040063119</v>
       </c>
       <c r="H53">
-        <f>H7+H30</f>
+        <f t="shared" si="13"/>
         <v>1.11848017031092</v>
       </c>
       <c r="I53">
-        <f>I7+I30</f>
+        <f t="shared" si="13"/>
         <v>1.0924752952954999</v>
       </c>
       <c r="J53">
-        <f>J7+J30</f>
+        <f t="shared" si="13"/>
         <v>1.0640142353213355</v>
       </c>
       <c r="K53">
-        <f>K7+K30</f>
+        <f t="shared" si="13"/>
         <v>1.0331473239967774</v>
       </c>
       <c r="L53">
-        <f>L7+L30</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M53">
-        <f>M7+M30</f>
+        <f t="shared" si="13"/>
         <v>0.96477897947870672</v>
       </c>
       <c r="N53">
-        <f>N7+N30</f>
+        <f t="shared" si="13"/>
         <v>0.92777339364163647</v>
       </c>
       <c r="O53">
-        <f>O7+O30</f>
+        <f t="shared" si="13"/>
         <v>0.88934977102113699</v>
       </c>
       <c r="P53">
-        <f>P7+P30</f>
+        <f t="shared" si="13"/>
         <v>0.84994040342795318</v>
       </c>
       <c r="Q53">
-        <f>Q7+Q30</f>
+        <f t="shared" si="13"/>
         <v>0.8100255188723875</v>
       </c>
       <c r="R53">
-        <f>R7+R30</f>
+        <f t="shared" si="13"/>
         <v>0.77011063431682181</v>
       </c>
       <c r="S53">
-        <f>S7+S30</f>
+        <f t="shared" si="13"/>
         <v>0.73070126672363811</v>
       </c>
       <c r="T53">
-        <f>T7+T30</f>
+        <f t="shared" si="13"/>
         <v>0.69227764410313852</v>
       </c>
       <c r="U53">
-        <f>U7+U30</f>
+        <f t="shared" si="13"/>
         <v>0.65527205826606827</v>
       </c>
       <c r="V53" s="13">
-        <f>V7+V30</f>
+        <f t="shared" si="13"/>
         <v>0.62005103774477499</v>
       </c>
     </row>
@@ -5063,87 +5064,87 @@
         <v>0.8</v>
       </c>
       <c r="B54">
-        <f>B8+B31</f>
+        <f t="shared" ref="B54:V54" si="14">B8+B31</f>
         <v>1.2490309976829881</v>
       </c>
       <c r="C54">
-        <f>C8+C31</f>
+        <f t="shared" si="14"/>
         <v>1.2341905726822731</v>
       </c>
       <c r="D54">
-        <f>D8+D31</f>
+        <f t="shared" si="14"/>
         <v>1.2173849730745996</v>
       </c>
       <c r="E54">
-        <f>E8+E31</f>
+        <f t="shared" si="14"/>
         <v>1.1984561995922984</v>
       </c>
       <c r="F54">
-        <f>F8+F31</f>
+        <f t="shared" si="14"/>
         <v>1.1772649245276052</v>
       </c>
       <c r="G54">
-        <f>G8+G31</f>
+        <f t="shared" si="14"/>
         <v>1.1537011908322135</v>
       </c>
       <c r="H54">
-        <f>H8+H31</f>
+        <f t="shared" si="14"/>
         <v>1.1276963158167932</v>
       </c>
       <c r="I54">
-        <f>I8+I31</f>
+        <f t="shared" si="14"/>
         <v>1.0992352558426288</v>
       </c>
       <c r="J54">
-        <f>J8+J31</f>
+        <f t="shared" si="14"/>
         <v>1.0683683445180705</v>
       </c>
       <c r="K54">
-        <f>K8+K31</f>
+        <f t="shared" si="14"/>
         <v>1.0352210205212933</v>
       </c>
       <c r="L54">
-        <f>L8+L31</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="M54">
-        <f>M8+M31</f>
+        <f t="shared" si="14"/>
         <v>0.96299441416292975</v>
       </c>
       <c r="N54">
-        <f>N8+N31</f>
+        <f t="shared" si="14"/>
         <v>0.92457079154243027</v>
       </c>
       <c r="O54">
-        <f>O8+O31</f>
+        <f t="shared" si="14"/>
         <v>0.88516142394924646</v>
       </c>
       <c r="P54">
-        <f>P8+P31</f>
+        <f t="shared" si="14"/>
         <v>0.84524653939368077</v>
       </c>
       <c r="Q54">
-        <f>Q8+Q31</f>
+        <f t="shared" si="14"/>
         <v>0.80533165483811509</v>
       </c>
       <c r="R54">
-        <f>R8+R31</f>
+        <f t="shared" si="14"/>
         <v>0.76592228724493139</v>
       </c>
       <c r="S54">
-        <f>S8+S31</f>
+        <f t="shared" si="14"/>
         <v>0.7274986646244318</v>
       </c>
       <c r="T54">
-        <f>T8+T31</f>
+        <f t="shared" si="14"/>
         <v>0.69049307878736155</v>
       </c>
       <c r="U54">
-        <f>U8+U31</f>
+        <f t="shared" si="14"/>
         <v>0.65527205826606827</v>
       </c>
       <c r="V54">
-        <f>V8+V31</f>
+        <f t="shared" si="14"/>
         <v>0.62212473426929094</v>
       </c>
     </row>
@@ -5152,87 +5153,87 @@
         <v>0.6</v>
       </c>
       <c r="B55">
-        <f>B9+B32</f>
+        <f t="shared" ref="B55:V55" si="15">B9+B32</f>
         <v>1.2711961585193434</v>
       </c>
       <c r="C55">
-        <f>C9+C32</f>
+        <f t="shared" si="15"/>
         <v>1.2543905589116697</v>
       </c>
       <c r="D55">
-        <f>D9+D32</f>
+        <f t="shared" si="15"/>
         <v>1.2354617854293686</v>
       </c>
       <c r="E55">
-        <f>E9+E32</f>
+        <f t="shared" si="15"/>
         <v>1.2142705103646754</v>
       </c>
       <c r="F55">
-        <f>F9+F32</f>
+        <f t="shared" si="15"/>
         <v>1.1907067766692836</v>
       </c>
       <c r="G55">
-        <f>G9+G32</f>
+        <f t="shared" si="15"/>
         <v>1.1647019016538636</v>
       </c>
       <c r="H55">
-        <f>H9+H32</f>
+        <f t="shared" si="15"/>
         <v>1.1362408416796992</v>
       </c>
       <c r="I55">
-        <f>I9+I32</f>
+        <f t="shared" si="15"/>
         <v>1.1053739303551409</v>
       </c>
       <c r="J55">
-        <f>J9+J32</f>
+        <f t="shared" si="15"/>
         <v>1.0722266063583636</v>
       </c>
       <c r="K55">
-        <f>K9+K32</f>
+        <f t="shared" si="15"/>
         <v>1.0370055858370701</v>
       </c>
       <c r="L55">
-        <f>L9+L32</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="M55">
-        <f>M9+M32</f>
+        <f t="shared" si="15"/>
         <v>0.96157637737950052</v>
       </c>
       <c r="N55">
-        <f>N9+N32</f>
+        <f t="shared" si="15"/>
         <v>0.92216700978631672</v>
       </c>
       <c r="O55">
-        <f>O9+O32</f>
+        <f t="shared" si="15"/>
         <v>0.88225212523075103</v>
       </c>
       <c r="P55">
-        <f>P9+P32</f>
+        <f t="shared" si="15"/>
         <v>0.84233724067518523</v>
       </c>
       <c r="Q55">
-        <f>Q9+Q32</f>
+        <f t="shared" si="15"/>
         <v>0.80292787308200153</v>
       </c>
       <c r="R55">
-        <f>R9+R32</f>
+        <f t="shared" si="15"/>
         <v>0.76450425046150206</v>
       </c>
       <c r="S55">
-        <f>S9+S32</f>
+        <f t="shared" si="15"/>
         <v>0.7274986646244318</v>
       </c>
       <c r="T55">
-        <f>T9+T32</f>
+        <f t="shared" si="15"/>
         <v>0.69227764410313863</v>
       </c>
       <c r="U55">
-        <f>U9+U32</f>
+        <f t="shared" si="15"/>
         <v>0.65913032010636119</v>
       </c>
       <c r="V55">
-        <f>V9+V32</f>
+        <f t="shared" si="15"/>
         <v>0.62826340878180298</v>
       </c>
     </row>
@@ -5241,87 +5242,87 @@
         <v>0.4</v>
       </c>
       <c r="B56">
-        <f>B10+B33</f>
+        <f t="shared" ref="B56:V56" si="16">B10+B33</f>
         <v>1.2928141815321692</v>
       </c>
       <c r="C56">
-        <f>C10+C33</f>
+        <f t="shared" si="16"/>
         <v>1.2738854080498681</v>
       </c>
       <c r="D56">
-        <f>D10+D33</f>
+        <f t="shared" si="16"/>
         <v>1.2526941329851748</v>
       </c>
       <c r="E56">
-        <f>E10+E33</f>
+        <f t="shared" si="16"/>
         <v>1.2291303992897831</v>
       </c>
       <c r="F56">
-        <f>F10+F33</f>
+        <f t="shared" si="16"/>
         <v>1.203125524274363</v>
       </c>
       <c r="G56">
-        <f>G10+G33</f>
+        <f t="shared" si="16"/>
         <v>1.1746644643001987</v>
       </c>
       <c r="H56">
-        <f>H10+H33</f>
+        <f t="shared" si="16"/>
         <v>1.1437975529756403</v>
       </c>
       <c r="I56">
-        <f>I10+I33</f>
+        <f t="shared" si="16"/>
         <v>1.1106502289788631</v>
       </c>
       <c r="J56">
-        <f>J10+J33</f>
+        <f t="shared" si="16"/>
         <v>1.0754292084575696</v>
       </c>
       <c r="K56">
-        <f>K10+K33</f>
+        <f t="shared" si="16"/>
         <v>1.0384236226204995</v>
       </c>
       <c r="L56">
-        <f>L10+L33</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="M56">
-        <f>M10+M33</f>
+        <f t="shared" si="16"/>
         <v>0.96059063240681619</v>
       </c>
       <c r="N56">
-        <f>N10+N33</f>
+        <f t="shared" si="16"/>
         <v>0.9206757478512505</v>
       </c>
       <c r="O56">
-        <f>O10+O33</f>
+        <f t="shared" si="16"/>
         <v>0.8807608632956847</v>
       </c>
       <c r="P56">
-        <f>P10+P33</f>
+        <f t="shared" si="16"/>
         <v>0.84135149570250101</v>
       </c>
       <c r="Q56">
-        <f>Q10+Q33</f>
+        <f t="shared" si="16"/>
         <v>0.80292787308200153</v>
       </c>
       <c r="R56">
-        <f>R10+R33</f>
+        <f t="shared" si="16"/>
         <v>0.76592228724493128</v>
       </c>
       <c r="S56">
-        <f>S10+S33</f>
+        <f t="shared" si="16"/>
         <v>0.73070126672363811</v>
       </c>
       <c r="T56">
-        <f>T10+T33</f>
+        <f t="shared" si="16"/>
         <v>0.69755394272686067</v>
       </c>
       <c r="U56">
-        <f>U10+U33</f>
+        <f t="shared" si="16"/>
         <v>0.66668703140230245</v>
       </c>
       <c r="V56">
-        <f>V10+V33</f>
+        <f t="shared" si="16"/>
         <v>0.63822597142813797</v>
       </c>
     </row>
@@ -5330,87 +5331,87 @@
         <v>0.2</v>
       </c>
       <c r="B57">
-        <f>B11+B34</f>
+        <f t="shared" ref="B57:V57" si="17">B11+B34</f>
         <v>1.313294775643052</v>
       </c>
       <c r="C57">
-        <f>C11+C34</f>
+        <f t="shared" si="17"/>
         <v>1.2921035005783588</v>
       </c>
       <c r="D57">
-        <f>D11+D34</f>
+        <f t="shared" si="17"/>
         <v>1.268539766882967</v>
       </c>
       <c r="E57">
-        <f>E11+E34</f>
+        <f t="shared" si="17"/>
         <v>1.2425348918675467</v>
       </c>
       <c r="F57">
-        <f>F11+F34</f>
+        <f t="shared" si="17"/>
         <v>1.2140738318933824</v>
       </c>
       <c r="G57">
-        <f>G11+G34</f>
+        <f t="shared" si="17"/>
         <v>1.183206920568824</v>
       </c>
       <c r="H57">
-        <f>H11+H34</f>
+        <f t="shared" si="17"/>
         <v>1.1500595965720468</v>
       </c>
       <c r="I57">
-        <f>I11+I34</f>
+        <f t="shared" si="17"/>
         <v>1.1148385760507535</v>
       </c>
       <c r="J57">
-        <f>J11+J34</f>
+        <f t="shared" si="17"/>
         <v>1.0778329902136834</v>
       </c>
       <c r="K57">
-        <f>K11+K34</f>
+        <f t="shared" si="17"/>
         <v>1.0394093675931839</v>
       </c>
       <c r="L57">
-        <f>L11+L34</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="M57">
-        <f>M11+M34</f>
+        <f t="shared" si="17"/>
         <v>0.96008511544443431</v>
       </c>
       <c r="N57">
-        <f>N11+N34</f>
+        <f t="shared" si="17"/>
         <v>0.92017023088886862</v>
       </c>
       <c r="O57">
-        <f>O11+O34</f>
+        <f t="shared" si="17"/>
         <v>0.88076086329568493</v>
       </c>
       <c r="P57">
-        <f>P11+P34</f>
+        <f t="shared" si="17"/>
         <v>0.84233724067518534</v>
       </c>
       <c r="Q57">
-        <f>Q11+Q34</f>
+        <f t="shared" si="17"/>
         <v>0.80533165483811509</v>
       </c>
       <c r="R57">
-        <f>R11+R34</f>
+        <f t="shared" si="17"/>
         <v>0.77011063431682181</v>
       </c>
       <c r="S57">
-        <f>S11+S34</f>
+        <f t="shared" si="17"/>
         <v>0.73696331032004447</v>
       </c>
       <c r="T57">
-        <f>T11+T34</f>
+        <f t="shared" si="17"/>
         <v>0.70609639899548626</v>
       </c>
       <c r="U57">
-        <f>U11+U34</f>
+        <f t="shared" si="17"/>
         <v>0.67763533902132178</v>
       </c>
       <c r="V57">
-        <f>V11+V34</f>
+        <f t="shared" si="17"/>
         <v>0.65163046400590185</v>
       </c>
     </row>
@@ -5419,87 +5420,87 @@
         <v>0</v>
       </c>
       <c r="B58">
-        <f>B12+B35</f>
+        <f t="shared" ref="B58:V58" si="18">B12+B35</f>
         <v>1.3320183851339245</v>
       </c>
       <c r="C58">
-        <f>C12+C35</f>
+        <f t="shared" si="18"/>
         <v>1.3084546514385327</v>
       </c>
       <c r="D58">
-        <f>D12+D35</f>
+        <f t="shared" si="18"/>
         <v>1.2824497764231124</v>
       </c>
       <c r="E58">
-        <f>E12+E35</f>
+        <f t="shared" si="18"/>
         <v>1.253988716448948</v>
       </c>
       <c r="F58">
-        <f>F12+F35</f>
+        <f t="shared" si="18"/>
         <v>1.2231218051243897</v>
       </c>
       <c r="G58">
-        <f>G12+G35</f>
+        <f t="shared" si="18"/>
         <v>1.1899744811276125</v>
       </c>
       <c r="H58">
-        <f>H12+H35</f>
+        <f t="shared" si="18"/>
         <v>1.1547534606063192</v>
       </c>
       <c r="I58">
-        <f>I12+I35</f>
+        <f t="shared" si="18"/>
         <v>1.1177478747692491</v>
       </c>
       <c r="J58">
-        <f>J12+J35</f>
+        <f t="shared" si="18"/>
         <v>1.0793242521487496</v>
       </c>
       <c r="K58">
-        <f>K12+K35</f>
+        <f t="shared" si="18"/>
         <v>1.0399148845555657</v>
       </c>
       <c r="L58">
-        <f>L12+L35</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="M58">
-        <f>M12+M35</f>
+        <f t="shared" si="18"/>
         <v>0.96008511544443431</v>
       </c>
       <c r="N58">
-        <f>N12+N35</f>
+        <f t="shared" si="18"/>
         <v>0.92067574785125061</v>
       </c>
       <c r="O58">
-        <f>O12+O35</f>
+        <f t="shared" si="18"/>
         <v>0.88225212523075103</v>
       </c>
       <c r="P58">
-        <f>P12+P35</f>
+        <f t="shared" si="18"/>
         <v>0.84524653939368077</v>
       </c>
       <c r="Q58">
-        <f>Q12+Q35</f>
+        <f t="shared" si="18"/>
         <v>0.8100255188723875</v>
       </c>
       <c r="R58">
-        <f>R12+R35</f>
+        <f t="shared" si="18"/>
         <v>0.77687819487561016</v>
       </c>
       <c r="S58">
-        <f>S12+S35</f>
+        <f t="shared" si="18"/>
         <v>0.74601128355105195</v>
       </c>
       <c r="T58">
-        <f>T12+T35</f>
+        <f t="shared" si="18"/>
         <v>0.71755022357688747</v>
       </c>
       <c r="U58">
-        <f>U12+U35</f>
+        <f t="shared" si="18"/>
         <v>0.69154534856146754</v>
       </c>
       <c r="V58">
-        <f>V12+V35</f>
+        <f t="shared" si="18"/>
         <v>0.66798161486607555</v>
       </c>
     </row>
@@ -5508,87 +5509,87 @@
         <v>-0.2</v>
       </c>
       <c r="B59">
-        <f>B13+B36</f>
+        <f t="shared" ref="B59:V59" si="19">B13+B36</f>
         <v>1.3483695359940984</v>
       </c>
       <c r="C59">
-        <f>C13+C36</f>
+        <f t="shared" si="19"/>
         <v>1.3223646609786781</v>
       </c>
       <c r="D59">
-        <f>D13+D36</f>
+        <f t="shared" si="19"/>
         <v>1.293903601004514</v>
       </c>
       <c r="E59">
-        <f>E13+E36</f>
+        <f t="shared" si="19"/>
         <v>1.2630366896799554</v>
       </c>
       <c r="F59">
-        <f>F13+F36</f>
+        <f t="shared" si="19"/>
         <v>1.2298893656831782</v>
       </c>
       <c r="G59">
-        <f>G13+G36</f>
+        <f t="shared" si="19"/>
         <v>1.1946683451618849</v>
       </c>
       <c r="H59">
-        <f>H13+H36</f>
+        <f t="shared" si="19"/>
         <v>1.1576627593248148</v>
       </c>
       <c r="I59">
-        <f>I13+I36</f>
+        <f t="shared" si="19"/>
         <v>1.1192391367043153</v>
       </c>
       <c r="J59">
-        <f>J13+J36</f>
+        <f t="shared" si="19"/>
         <v>1.0798297691111314</v>
       </c>
       <c r="K59">
-        <f>K13+K36</f>
+        <f t="shared" si="19"/>
         <v>1.0399148845555657</v>
       </c>
       <c r="L59">
-        <f>L13+L36</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="M59">
-        <f>M13+M36</f>
+        <f t="shared" si="19"/>
         <v>0.9605906324068163</v>
       </c>
       <c r="N59">
-        <f>N13+N36</f>
+        <f t="shared" si="19"/>
         <v>0.92216700978631672</v>
       </c>
       <c r="O59">
-        <f>O13+O36</f>
+        <f t="shared" si="19"/>
         <v>0.88516142394924646</v>
       </c>
       <c r="P59">
-        <f>P13+P36</f>
+        <f t="shared" si="19"/>
         <v>0.84994040342795318</v>
       </c>
       <c r="Q59">
-        <f>Q13+Q36</f>
+        <f t="shared" si="19"/>
         <v>0.81679307943117585</v>
       </c>
       <c r="R59">
-        <f>R13+R36</f>
+        <f t="shared" si="19"/>
         <v>0.78592616810661764</v>
       </c>
       <c r="S59">
-        <f>S13+S36</f>
+        <f t="shared" si="19"/>
         <v>0.75746510813245316</v>
       </c>
       <c r="T59">
-        <f>T13+T36</f>
+        <f t="shared" si="19"/>
         <v>0.73146023311703323</v>
       </c>
       <c r="U59">
-        <f>U13+U36</f>
+        <f t="shared" si="19"/>
         <v>0.70789649942164123</v>
       </c>
       <c r="V59">
-        <f>V13+V36</f>
+        <f t="shared" si="19"/>
         <v>0.68670522435694803</v>
       </c>
     </row>
@@ -5597,87 +5598,87 @@
         <v>-0.4</v>
       </c>
       <c r="B60">
-        <f>B14+B37</f>
+        <f t="shared" ref="B60:V60" si="20">B14+B37</f>
         <v>1.3617740285718618</v>
       </c>
       <c r="C60">
-        <f>C14+C37</f>
+        <f t="shared" si="20"/>
         <v>1.3333129685976974</v>
       </c>
       <c r="D60">
-        <f>D14+D37</f>
+        <f t="shared" si="20"/>
         <v>1.3024460572731393</v>
       </c>
       <c r="E60">
-        <f>E14+E37</f>
+        <f t="shared" si="20"/>
         <v>1.2692987332763619</v>
       </c>
       <c r="F60">
-        <f>F14+F37</f>
+        <f t="shared" si="20"/>
         <v>1.2340777127550686</v>
       </c>
       <c r="G60">
-        <f>G14+G37</f>
+        <f t="shared" si="20"/>
         <v>1.1970721269179982</v>
       </c>
       <c r="H60">
-        <f>H14+H37</f>
+        <f t="shared" si="20"/>
         <v>1.1586485042974988</v>
       </c>
       <c r="I60">
-        <f>I14+I37</f>
+        <f t="shared" si="20"/>
         <v>1.1192391367043151</v>
       </c>
       <c r="J60">
-        <f>J14+J37</f>
+        <f t="shared" si="20"/>
         <v>1.0793242521487494</v>
       </c>
       <c r="K60">
-        <f>K14+K37</f>
+        <f t="shared" si="20"/>
         <v>1.0394093675931837</v>
       </c>
       <c r="L60">
-        <f>L14+L37</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="M60">
-        <f>M14+M37</f>
+        <f t="shared" si="20"/>
         <v>0.96157637737950041</v>
       </c>
       <c r="N60">
-        <f>N14+N37</f>
+        <f t="shared" si="20"/>
         <v>0.92457079154243016</v>
       </c>
       <c r="O60">
-        <f>O14+O37</f>
+        <f t="shared" si="20"/>
         <v>0.88934977102113688</v>
       </c>
       <c r="P60">
-        <f>P14+P37</f>
+        <f t="shared" si="20"/>
         <v>0.85620244702435944</v>
       </c>
       <c r="Q60">
-        <f>Q14+Q37</f>
+        <f t="shared" si="20"/>
         <v>0.82533553569980134</v>
       </c>
       <c r="R60">
-        <f>R14+R37</f>
+        <f t="shared" si="20"/>
         <v>0.79687447572563685</v>
       </c>
       <c r="S60">
-        <f>S14+S37</f>
+        <f t="shared" si="20"/>
         <v>0.77086960071021693</v>
       </c>
       <c r="T60">
-        <f>T14+T37</f>
+        <f t="shared" si="20"/>
         <v>0.74730586701482493</v>
       </c>
       <c r="U60">
-        <f>U14+U37</f>
+        <f t="shared" si="20"/>
         <v>0.72611459195013173</v>
       </c>
       <c r="V60">
-        <f>V14+V37</f>
+        <f t="shared" si="20"/>
         <v>0.70718581846783068</v>
       </c>
     </row>
@@ -5686,87 +5687,87 @@
         <v>-0.6</v>
       </c>
       <c r="B61">
-        <f>B15+B38</f>
+        <f t="shared" ref="B61:V61" si="21">B15+B38</f>
         <v>1.3717365912181969</v>
       </c>
       <c r="C61">
-        <f>C15+C38</f>
+        <f t="shared" si="21"/>
         <v>1.3408696798936388</v>
       </c>
       <c r="D61">
-        <f>D15+D38</f>
+        <f t="shared" si="21"/>
         <v>1.3077223558968614</v>
       </c>
       <c r="E61">
-        <f>E15+E38</f>
+        <f t="shared" si="21"/>
         <v>1.2725013353755683</v>
       </c>
       <c r="F61">
-        <f>F15+F38</f>
+        <f t="shared" si="21"/>
         <v>1.2354957495384979</v>
       </c>
       <c r="G61">
-        <f>G15+G38</f>
+        <f t="shared" si="21"/>
         <v>1.1970721269179985</v>
       </c>
       <c r="H61">
-        <f>H15+H38</f>
+        <f t="shared" si="21"/>
         <v>1.1576627593248148</v>
       </c>
       <c r="I61">
-        <f>I15+I38</f>
+        <f t="shared" si="21"/>
         <v>1.1177478747692491</v>
       </c>
       <c r="J61">
-        <f>J15+J38</f>
+        <f t="shared" si="21"/>
         <v>1.0778329902136832</v>
       </c>
       <c r="K61">
-        <f>K15+K38</f>
+        <f t="shared" si="21"/>
         <v>1.0384236226204995</v>
       </c>
       <c r="L61">
-        <f>L15+L38</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="M61">
-        <f>M15+M38</f>
+        <f t="shared" si="21"/>
         <v>0.96299441416292964</v>
       </c>
       <c r="N61">
-        <f>N15+N38</f>
+        <f t="shared" si="21"/>
         <v>0.92777339364163658</v>
       </c>
       <c r="O61">
-        <f>O15+O38</f>
+        <f t="shared" si="21"/>
         <v>0.89462606964485913</v>
       </c>
       <c r="P61">
-        <f>P15+P38</f>
+        <f t="shared" si="21"/>
         <v>0.86375915832030092</v>
       </c>
       <c r="Q61">
-        <f>Q15+Q38</f>
+        <f t="shared" si="21"/>
         <v>0.83529809834613644</v>
       </c>
       <c r="R61">
-        <f>R15+R38</f>
+        <f t="shared" si="21"/>
         <v>0.80929322333071652</v>
       </c>
       <c r="S61">
-        <f>S15+S38</f>
+        <f t="shared" si="21"/>
         <v>0.78572948963532452</v>
       </c>
       <c r="T61">
-        <f>T15+T38</f>
+        <f t="shared" si="21"/>
         <v>0.76453821457063131</v>
       </c>
       <c r="U61">
-        <f>U15+U38</f>
+        <f t="shared" si="21"/>
         <v>0.74560944108833027</v>
       </c>
       <c r="V61">
-        <f>V15+V38</f>
+        <f t="shared" si="21"/>
         <v>0.72880384148065658</v>
       </c>
     </row>
@@ -5775,87 +5776,87 @@
         <v>-0.8</v>
       </c>
       <c r="B62">
-        <f>B16+B39</f>
+        <f t="shared" ref="B62:V62" si="22">B16+B39</f>
         <v>1.377875265730709</v>
       </c>
       <c r="C62">
-        <f>C16+C39</f>
+        <f t="shared" si="22"/>
         <v>1.3447279417339317</v>
       </c>
       <c r="D62">
-        <f>D16+D39</f>
+        <f t="shared" si="22"/>
         <v>1.3095069212126385</v>
       </c>
       <c r="E62">
-        <f>E16+E39</f>
+        <f t="shared" si="22"/>
         <v>1.2725013353755683</v>
       </c>
       <c r="F62">
-        <f>F16+F39</f>
+        <f t="shared" si="22"/>
         <v>1.2340777127550688</v>
       </c>
       <c r="G62">
-        <f>G16+G39</f>
+        <f t="shared" si="22"/>
         <v>1.1946683451618849</v>
       </c>
       <c r="H62">
-        <f>H16+H39</f>
+        <f t="shared" si="22"/>
         <v>1.1547534606063192</v>
       </c>
       <c r="I62">
-        <f>I16+I39</f>
+        <f t="shared" si="22"/>
         <v>1.1148385760507535</v>
       </c>
       <c r="J62">
-        <f>J16+J39</f>
+        <f t="shared" si="22"/>
         <v>1.0754292084575698</v>
       </c>
       <c r="K62">
-        <f>K16+K39</f>
+        <f t="shared" si="22"/>
         <v>1.0370055858370701</v>
       </c>
       <c r="L62">
-        <f>L16+L39</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="M62">
-        <f>M16+M39</f>
+        <f t="shared" si="22"/>
         <v>0.96477897947870672</v>
       </c>
       <c r="N62">
-        <f>N16+N39</f>
+        <f t="shared" si="22"/>
         <v>0.93163165548192928</v>
       </c>
       <c r="O62">
-        <f>O16+O39</f>
+        <f t="shared" si="22"/>
         <v>0.90076474415737118</v>
       </c>
       <c r="P62">
-        <f>P16+P39</f>
+        <f t="shared" si="22"/>
         <v>0.8723036841832067</v>
       </c>
       <c r="Q62">
-        <f>Q16+Q39</f>
+        <f t="shared" si="22"/>
         <v>0.84629880916778677</v>
       </c>
       <c r="R62">
-        <f>R16+R39</f>
+        <f t="shared" si="22"/>
         <v>0.82273507547239477</v>
       </c>
       <c r="S62">
-        <f>S16+S39</f>
+        <f t="shared" si="22"/>
         <v>0.80154380040770157</v>
       </c>
       <c r="T62">
-        <f>T16+T39</f>
+        <f t="shared" si="22"/>
         <v>0.78261502692540053</v>
       </c>
       <c r="U62">
-        <f>U16+U39</f>
+        <f t="shared" si="22"/>
         <v>0.76580942731772683</v>
       </c>
       <c r="V62">
-        <f>V16+V39</f>
+        <f t="shared" si="22"/>
         <v>0.75096900231701214</v>
       </c>
     </row>
@@ -5864,87 +5865,87 @@
         <v>-1</v>
       </c>
       <c r="B63">
-        <f>B17+B40</f>
+        <f t="shared" ref="B63:V63" si="23">B17+B40</f>
         <v>1.379948962255225</v>
       </c>
       <c r="C63">
-        <f>C17+C40</f>
+        <f t="shared" si="23"/>
         <v>1.3447279417339317</v>
       </c>
       <c r="D63">
-        <f>D17+D40</f>
+        <f t="shared" si="23"/>
         <v>1.3077223558968614</v>
       </c>
       <c r="E63">
-        <f>E17+E40</f>
+        <f t="shared" si="23"/>
         <v>1.2692987332763619</v>
       </c>
       <c r="F63">
-        <f>F17+F40</f>
+        <f t="shared" si="23"/>
         <v>1.2298893656831782</v>
       </c>
       <c r="G63">
-        <f>G17+G40</f>
+        <f t="shared" si="23"/>
         <v>1.1899744811276125</v>
       </c>
       <c r="H63">
-        <f>H17+H40</f>
+        <f t="shared" si="23"/>
         <v>1.1500595965720468</v>
       </c>
       <c r="I63">
-        <f>I17+I40</f>
+        <f t="shared" si="23"/>
         <v>1.1106502289788631</v>
       </c>
       <c r="J63">
-        <f>J17+J40</f>
+        <f t="shared" si="23"/>
         <v>1.0722266063583636</v>
       </c>
       <c r="K63">
-        <f>K17+K40</f>
+        <f t="shared" si="23"/>
         <v>1.0352210205212933</v>
       </c>
       <c r="L63">
-        <f>L17+L40</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="M63">
-        <f>M17+M40</f>
+        <f t="shared" si="23"/>
         <v>0.96685267600322267</v>
       </c>
       <c r="N63">
-        <f>N17+N40</f>
+        <f t="shared" si="23"/>
         <v>0.93598576467866446</v>
       </c>
       <c r="O63">
-        <f>O17+O40</f>
+        <f t="shared" si="23"/>
         <v>0.90752470470449997</v>
       </c>
       <c r="P63">
-        <f>P17+P40</f>
+        <f t="shared" si="23"/>
         <v>0.88151982968908005</v>
       </c>
       <c r="Q63">
-        <f>Q17+Q40</f>
+        <f t="shared" si="23"/>
         <v>0.85795609599368805</v>
       </c>
       <c r="R63">
-        <f>R17+R40</f>
+        <f t="shared" si="23"/>
         <v>0.83676482092899485</v>
       </c>
       <c r="S63">
-        <f>S17+S40</f>
+        <f t="shared" si="23"/>
         <v>0.8178360474466938</v>
       </c>
       <c r="T63">
-        <f>T17+T40</f>
+        <f t="shared" si="23"/>
         <v>0.80103044783902011</v>
       </c>
       <c r="U63">
-        <f>U17+U40</f>
+        <f t="shared" si="23"/>
         <v>0.78619002283830541</v>
       </c>
       <c r="V63">
-        <f>V17+V40</f>
+        <f t="shared" si="23"/>
         <v>0.77314717762153484</v>
       </c>
     </row>
@@ -5953,87 +5954,87 @@
         <v>-1.2</v>
       </c>
       <c r="B64">
-        <f>B18+B41</f>
+        <f t="shared" ref="B64:V64" si="24">B18+B41</f>
         <v>1.377875265730709</v>
       </c>
       <c r="C64">
-        <f>C18+C41</f>
+        <f t="shared" si="24"/>
         <v>1.3408696798936388</v>
       </c>
       <c r="D64">
-        <f>D18+D41</f>
+        <f t="shared" si="24"/>
         <v>1.3024460572731393</v>
       </c>
       <c r="E64">
-        <f>E18+E41</f>
+        <f t="shared" si="24"/>
         <v>1.2630366896799554</v>
       </c>
       <c r="F64">
-        <f>F18+F41</f>
+        <f t="shared" si="24"/>
         <v>1.2231218051243897</v>
       </c>
       <c r="G64">
-        <f>G18+G41</f>
+        <f t="shared" si="24"/>
         <v>1.183206920568824</v>
       </c>
       <c r="H64">
-        <f>H18+H41</f>
+        <f t="shared" si="24"/>
         <v>1.1437975529756403</v>
       </c>
       <c r="I64">
-        <f>I18+I41</f>
+        <f t="shared" si="24"/>
         <v>1.1053739303551409</v>
       </c>
       <c r="J64">
-        <f>J18+J41</f>
+        <f t="shared" si="24"/>
         <v>1.0683683445180705</v>
       </c>
       <c r="K64">
-        <f>K18+K41</f>
+        <f t="shared" si="24"/>
         <v>1.0331473239967774</v>
       </c>
       <c r="L64">
-        <f>L18+L41</f>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="M64">
-        <f>M18+M41</f>
+        <f t="shared" si="24"/>
         <v>0.96913308867544179</v>
       </c>
       <c r="N64">
-        <f>N18+N41</f>
+        <f t="shared" si="24"/>
         <v>0.94067202870127731</v>
       </c>
       <c r="O64">
-        <f>O18+O41</f>
+        <f t="shared" si="24"/>
         <v>0.91466715368585738</v>
       </c>
       <c r="P64">
-        <f>P18+P41</f>
+        <f t="shared" si="24"/>
         <v>0.89110341999046538</v>
       </c>
       <c r="Q64">
-        <f>Q18+Q41</f>
+        <f t="shared" si="24"/>
         <v>0.86991214492577218</v>
       </c>
       <c r="R64">
-        <f>R18+R41</f>
+        <f t="shared" si="24"/>
         <v>0.85098337144347114</v>
       </c>
       <c r="S64">
-        <f>S18+S41</f>
+        <f t="shared" si="24"/>
         <v>0.83417777183579744</v>
       </c>
       <c r="T64">
-        <f>T18+T41</f>
+        <f t="shared" si="24"/>
         <v>0.81933734683508275</v>
       </c>
       <c r="U64">
-        <f>U18+U41</f>
+        <f t="shared" si="24"/>
         <v>0.80629450161831218</v>
       </c>
       <c r="V64">
-        <f>V18+V41</f>
+        <f t="shared" si="24"/>
         <v>0.79487934738814114</v>
       </c>
     </row>
@@ -6042,87 +6043,87 @@
         <v>-1.4</v>
       </c>
       <c r="B65">
-        <f>B19+B42</f>
+        <f t="shared" ref="B65:V65" si="25">B19+B42</f>
         <v>1.3717365912181969</v>
       </c>
       <c r="C65">
-        <f>C19+C42</f>
+        <f t="shared" si="25"/>
         <v>1.3333129685976974</v>
       </c>
       <c r="D65">
-        <f>D19+D42</f>
+        <f t="shared" si="25"/>
         <v>1.2939036010045137</v>
       </c>
       <c r="E65">
-        <f>E19+E42</f>
+        <f t="shared" si="25"/>
         <v>1.253988716448948</v>
       </c>
       <c r="F65">
-        <f>F19+F42</f>
+        <f t="shared" si="25"/>
         <v>1.2140738318933824</v>
       </c>
       <c r="G65">
-        <f>G19+G42</f>
+        <f t="shared" si="25"/>
         <v>1.1746644643001987</v>
       </c>
       <c r="H65">
-        <f>H19+H42</f>
+        <f t="shared" si="25"/>
         <v>1.1362408416796992</v>
       </c>
       <c r="I65">
-        <f>I19+I42</f>
+        <f t="shared" si="25"/>
         <v>1.0992352558426288</v>
       </c>
       <c r="J65">
-        <f>J19+J42</f>
+        <f t="shared" si="25"/>
         <v>1.0640142353213355</v>
       </c>
       <c r="K65">
-        <f>K19+K42</f>
+        <f t="shared" si="25"/>
         <v>1.0308669113245581</v>
       </c>
       <c r="L65">
-        <f>L19+L42</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="M65">
-        <f>M19+M42</f>
+        <f t="shared" si="25"/>
         <v>0.97153894002583552</v>
       </c>
       <c r="N65">
-        <f>N19+N42</f>
+        <f t="shared" si="25"/>
         <v>0.94553406501041559</v>
       </c>
       <c r="O65">
-        <f>O19+O42</f>
+        <f t="shared" si="25"/>
         <v>0.92197033131502359</v>
       </c>
       <c r="P65">
-        <f>P19+P42</f>
+        <f t="shared" si="25"/>
         <v>0.90077905625033039</v>
       </c>
       <c r="Q65">
-        <f>Q19+Q42</f>
+        <f t="shared" si="25"/>
         <v>0.88185028276802935</v>
       </c>
       <c r="R65">
-        <f>R19+R42</f>
+        <f t="shared" si="25"/>
         <v>0.86504468316035565</v>
       </c>
       <c r="S65">
-        <f>S19+S42</f>
+        <f t="shared" si="25"/>
         <v>0.85020425815964096</v>
       </c>
       <c r="T65">
-        <f>T19+T42</f>
+        <f t="shared" si="25"/>
         <v>0.83716141294287039</v>
       </c>
       <c r="U65">
-        <f>U19+U42</f>
+        <f t="shared" si="25"/>
         <v>0.82574625871269935</v>
       </c>
       <c r="V65">
-        <f>V19+V42</f>
+        <f t="shared" si="25"/>
         <v>0.81579218271253662</v>
       </c>
     </row>
@@ -6131,87 +6132,87 @@
         <v>-1.6</v>
       </c>
       <c r="B66">
-        <f>B20+B43</f>
+        <f t="shared" ref="B66:V66" si="26">B20+B43</f>
         <v>1.361774028571862</v>
       </c>
       <c r="C66">
-        <f>C20+C43</f>
+        <f t="shared" si="26"/>
         <v>1.3223646609786783</v>
       </c>
       <c r="D66">
-        <f>D20+D43</f>
+        <f t="shared" si="26"/>
         <v>1.2824497764231126</v>
       </c>
       <c r="E66">
-        <f>E20+E43</f>
+        <f t="shared" si="26"/>
         <v>1.2425348918675467</v>
       </c>
       <c r="F66">
-        <f>F20+F43</f>
+        <f t="shared" si="26"/>
         <v>1.203125524274363</v>
       </c>
       <c r="G66">
-        <f>G20+G43</f>
+        <f t="shared" si="26"/>
         <v>1.1647019016538636</v>
       </c>
       <c r="H66">
-        <f>H20+H43</f>
+        <f t="shared" si="26"/>
         <v>1.1276963158167932</v>
       </c>
       <c r="I66">
-        <f>I20+I43</f>
+        <f t="shared" si="26"/>
         <v>1.0924752952955001</v>
       </c>
       <c r="J66">
-        <f>J20+J43</f>
+        <f t="shared" si="26"/>
         <v>1.0593279712987227</v>
       </c>
       <c r="K66">
-        <f>K20+K43</f>
+        <f t="shared" si="26"/>
         <v>1.0284610599741644</v>
       </c>
       <c r="L66">
-        <f>L20+L43</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="M66">
-        <f>M20+M43</f>
+        <f t="shared" si="26"/>
         <v>0.97399512498457996</v>
       </c>
       <c r="N66">
-        <f>N20+N43</f>
+        <f t="shared" si="26"/>
         <v>0.95043139128918808</v>
       </c>
       <c r="O66">
-        <f>O20+O43</f>
+        <f t="shared" si="26"/>
         <v>0.92924011622449487</v>
       </c>
       <c r="P66">
-        <f>P20+P43</f>
+        <f t="shared" si="26"/>
         <v>0.91031134274219383</v>
       </c>
       <c r="Q66">
-        <f>Q20+Q43</f>
+        <f t="shared" si="26"/>
         <v>0.89350574313452014</v>
       </c>
       <c r="R66">
-        <f>R20+R43</f>
+        <f t="shared" si="26"/>
         <v>0.87866531813380544</v>
       </c>
       <c r="S66">
-        <f>S20+S43</f>
+        <f t="shared" si="26"/>
         <v>0.86562247291703487</v>
       </c>
       <c r="T66">
-        <f>T20+T43</f>
+        <f t="shared" si="26"/>
         <v>0.85420731868686384</v>
       </c>
       <c r="U66">
-        <f>U20+U43</f>
+        <f t="shared" si="26"/>
         <v>0.8442532426867011</v>
       </c>
       <c r="V66">
-        <f>V20+V43</f>
+        <f t="shared" si="26"/>
         <v>0.83560091282117621</v>
       </c>
     </row>
@@ -6220,87 +6221,87 @@
         <v>-1.8</v>
       </c>
       <c r="B67">
-        <f>B21+B44</f>
+        <f t="shared" ref="B67:V67" si="27">B21+B44</f>
         <v>1.3483695359940981</v>
       </c>
       <c r="C67">
-        <f>C21+C44</f>
+        <f t="shared" si="27"/>
         <v>1.3084546514385325</v>
       </c>
       <c r="D67">
-        <f>D21+D44</f>
+        <f t="shared" si="27"/>
         <v>1.2685397668829668</v>
       </c>
       <c r="E67">
-        <f>E21+E44</f>
+        <f t="shared" si="27"/>
         <v>1.2291303992897831</v>
       </c>
       <c r="F67">
-        <f>F21+F44</f>
+        <f t="shared" si="27"/>
         <v>1.1907067766692836</v>
       </c>
       <c r="G67">
-        <f>G21+G44</f>
+        <f t="shared" si="27"/>
         <v>1.1537011908322132</v>
       </c>
       <c r="H67">
-        <f>H21+H44</f>
+        <f t="shared" si="27"/>
         <v>1.11848017031092</v>
       </c>
       <c r="I67">
-        <f>I21+I44</f>
+        <f t="shared" si="27"/>
         <v>1.0853328463141425</v>
       </c>
       <c r="J67">
-        <f>J21+J44</f>
+        <f t="shared" si="27"/>
         <v>1.0544659349895844</v>
       </c>
       <c r="K67">
-        <f>K21+K44</f>
+        <f t="shared" si="27"/>
         <v>1.0260048750154198</v>
       </c>
       <c r="L67">
-        <f>L21+L44</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="M67">
-        <f>M21+M44</f>
+        <f t="shared" si="27"/>
         <v>0.976436266304608</v>
       </c>
       <c r="N67">
-        <f>N21+N44</f>
+        <f t="shared" si="27"/>
         <v>0.9552449912399148</v>
       </c>
       <c r="O67">
-        <f>O21+O44</f>
+        <f t="shared" si="27"/>
         <v>0.93631621775761376</v>
       </c>
       <c r="P67">
-        <f>P21+P44</f>
+        <f t="shared" si="27"/>
         <v>0.91951061814994006</v>
       </c>
       <c r="Q67">
-        <f>Q21+Q44</f>
+        <f t="shared" si="27"/>
         <v>0.90467019314922537</v>
       </c>
       <c r="R67">
-        <f>R21+R44</f>
+        <f t="shared" si="27"/>
         <v>0.89162734793245479</v>
       </c>
       <c r="S67">
-        <f>S21+S44</f>
+        <f t="shared" si="27"/>
         <v>0.88021219370228376</v>
       </c>
       <c r="T67">
-        <f>T21+T44</f>
+        <f t="shared" si="27"/>
         <v>0.87025811770212103</v>
       </c>
       <c r="U67">
-        <f>U21+U44</f>
+        <f t="shared" si="27"/>
         <v>0.86160578783659614</v>
       </c>
       <c r="V67">
-        <f>V21+V44</f>
+        <f t="shared" si="27"/>
         <v>0.85410582222297615</v>
       </c>
     </row>
@@ -6309,87 +6310,87 @@
         <v>-2</v>
       </c>
       <c r="B68">
-        <f>B22+B45</f>
+        <f t="shared" ref="B68:V68" si="28">B22+B45</f>
         <v>1.3320183851339245</v>
       </c>
       <c r="C68">
-        <f>C22+C45</f>
+        <f t="shared" si="28"/>
         <v>1.2921035005783588</v>
       </c>
       <c r="D68">
-        <f>D22+D45</f>
+        <f t="shared" si="28"/>
         <v>1.2526941329851751</v>
       </c>
       <c r="E68">
-        <f>E22+E45</f>
+        <f t="shared" si="28"/>
         <v>1.2142705103646754</v>
       </c>
       <c r="F68">
-        <f>F22+F45</f>
+        <f t="shared" si="28"/>
         <v>1.1772649245276052</v>
       </c>
       <c r="G68">
-        <f>G22+G45</f>
+        <f t="shared" si="28"/>
         <v>1.1420439040063119</v>
       </c>
       <c r="H68">
-        <f>H22+H45</f>
+        <f t="shared" si="28"/>
         <v>1.1088965800095347</v>
       </c>
       <c r="I68">
-        <f>I22+I45</f>
+        <f t="shared" si="28"/>
         <v>1.0780296686849764</v>
       </c>
       <c r="J68">
-        <f>J22+J45</f>
+        <f t="shared" si="28"/>
         <v>1.0495686087108118</v>
       </c>
       <c r="K68">
-        <f>K22+K45</f>
+        <f t="shared" si="28"/>
         <v>1.023563733695392</v>
       </c>
       <c r="L68">
-        <f>L22+L45</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="M68">
-        <f>M22+M45</f>
+        <f t="shared" si="28"/>
         <v>0.9788087249353068</v>
       </c>
       <c r="N68">
-        <f>N22+N45</f>
+        <f t="shared" si="28"/>
         <v>0.95987995145300575</v>
       </c>
       <c r="O68">
-        <f>O22+O45</f>
+        <f t="shared" si="28"/>
         <v>0.94307435184533206</v>
       </c>
       <c r="P68">
-        <f>P22+P45</f>
+        <f t="shared" si="28"/>
         <v>0.92823392684461736</v>
       </c>
       <c r="Q68">
-        <f>Q22+Q45</f>
+        <f t="shared" si="28"/>
         <v>0.91519108162784679</v>
       </c>
       <c r="R68">
-        <f>R22+R45</f>
+        <f t="shared" si="28"/>
         <v>0.90377592739767576</v>
       </c>
       <c r="S68">
-        <f>S22+S45</f>
+        <f t="shared" si="28"/>
         <v>0.89382185139751302</v>
       </c>
       <c r="T68">
-        <f>T22+T45</f>
+        <f t="shared" si="28"/>
         <v>0.88516952153198813</v>
       </c>
       <c r="U68">
-        <f>U22+U45</f>
+        <f t="shared" si="28"/>
         <v>0.87766955591836815</v>
       </c>
       <c r="V68">
-        <f>V22+V45</f>
+        <f t="shared" si="28"/>
         <v>0.87118410793068879</v>
       </c>
     </row>
